--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -103,13 +103,13 @@
     <t>Scotland Championship</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Dundee</t>
   </si>
   <si>
     <t>Inverness CT</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
   </si>
   <si>
     <t>Queens Park</t>
@@ -118,13 +118,13 @@
     <t>Raith</t>
   </si>
   <si>
+    <t>Partick</t>
+  </si>
+  <si>
     <t>Arbroath</t>
   </si>
   <si>
     <t>Ayr</t>
-  </si>
-  <si>
-    <t>Partick</t>
   </si>
   <si>
     <t>Cove Rangers</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5169411</v>
+        <v>5169683</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,52 +622,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
         <v>3.4</v>
       </c>
       <c r="M2">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
+        <v>1.95</v>
+      </c>
+      <c r="S2">
         <v>1.85</v>
       </c>
-      <c r="S2">
-        <v>1.95</v>
-      </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -676,19 +676,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5169412</v>
+        <v>5169411</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,70 +711,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
+        <v>1.95</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
-      <c r="T3">
-        <v>2.25</v>
-      </c>
-      <c r="U3">
-        <v>1.825</v>
-      </c>
-      <c r="V3">
-        <v>2.025</v>
-      </c>
       <c r="W3">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5169683</v>
+        <v>5169412</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5169414</v>
+        <v>5169415</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,70 +1067,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>3.7</v>
+      </c>
+      <c r="N7">
+        <v>2.05</v>
+      </c>
+      <c r="O7">
         <v>3.25</v>
       </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>2.1</v>
-      </c>
-      <c r="O7">
-        <v>3.3</v>
-      </c>
       <c r="P7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5169685</v>
+        <v>5169414</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1162,31 +1162,31 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
         <v>1.875</v>
@@ -1195,34 +1195,34 @@
         <v>1.925</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5169415</v>
+        <v>5169685</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,55 +1245,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>6.5</v>
+      </c>
+      <c r="N9">
+        <v>1.85</v>
+      </c>
+      <c r="O9">
         <v>3.4</v>
       </c>
-      <c r="M9">
-        <v>3.7</v>
-      </c>
-      <c r="N9">
-        <v>2.05</v>
-      </c>
-      <c r="O9">
-        <v>3.25</v>
-      </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
+        <v>1.925</v>
+      </c>
+      <c r="V9">
         <v>1.875</v>
       </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,16 +1302,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.875</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>44940.5</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -1598,7 +1598,7 @@
         <v>44940.5</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1687,10 +1687,10 @@
         <v>44940.5</v>
       </c>
       <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
         <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1779,7 +1779,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5169422</v>
+        <v>5169421</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,37 +1865,37 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
         <v>-0.5</v>
@@ -1907,34 +1907,34 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
+        <v>1.875</v>
+      </c>
+      <c r="V16">
         <v>1.925</v>
       </c>
-      <c r="V16">
-        <v>1.875</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5169421</v>
+        <v>5169689</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44954.5</v>
       </c>
       <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
+        <v>4.8</v>
+      </c>
+      <c r="N17">
+        <v>1.65</v>
+      </c>
+      <c r="O17">
         <v>3.5</v>
       </c>
-      <c r="N17">
-        <v>1.8</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
       <c r="P17">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
+        <v>1.875</v>
+      </c>
+      <c r="S17">
         <v>1.925</v>
       </c>
-      <c r="S17">
-        <v>1.875</v>
-      </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
         <v>0.925</v>
       </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5169689</v>
+        <v>5169423</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,76 +2043,76 @@
         <v>44954.5</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB18">
         <v>0.925</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5169423</v>
+        <v>5169422</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,49 +2132,49 @@
         <v>44954.5</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>2.05</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
         <v>1.85</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q19">
         <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
         <v>1.925</v>
@@ -2186,16 +2186,16 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
         <v>0.925</v>
@@ -2224,7 +2224,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2310,7 +2310,7 @@
         <v>44961.5</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5169426</v>
+        <v>5169690</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>44961.5</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N22">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
+        <v>5.5</v>
+      </c>
+      <c r="Q22">
+        <v>-1.25</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
         <v>2.75</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
+      <c r="U22">
         <v>1.775</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>2.025</v>
       </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.9</v>
-      </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5169690</v>
+        <v>5169426</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>44961.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y23">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,10 +2577,10 @@
         <v>44961.5</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2755,7 +2755,7 @@
         <v>44969.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -2847,7 +2847,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3111,10 +3111,10 @@
         <v>44975.5</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>44975.5</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>44978.69791666666</v>
       </c>
       <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>44982.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3645,10 +3645,10 @@
         <v>44982.5</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3734,10 +3734,10 @@
         <v>44982.5</v>
       </c>
       <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
         <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3823,10 +3823,10 @@
         <v>44985.69791666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3912,10 +3912,10 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4001,10 +4001,10 @@
         <v>44989.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>44989.5</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -4360,7 +4360,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -4716,7 +4716,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4802,10 +4802,10 @@
         <v>45003.5</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4891,10 +4891,10 @@
         <v>45003.5</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5069,10 +5069,10 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5158,10 +5158,10 @@
         <v>45009.69791666666</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>45009.69791666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
@@ -5425,10 +5425,10 @@
         <v>45016.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5517,7 +5517,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
         <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
       </c>
       <c r="H59">
         <v>7</v>
@@ -5784,7 +5784,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6048,7 +6048,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
         <v>37</v>
@@ -6226,7 +6226,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6315,10 +6315,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>45027.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6496,7 +6496,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6582,10 +6582,10 @@
         <v>45027.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6760,10 +6760,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
         <v>36</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6941,7 +6941,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7027,7 +7027,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,10 +7116,10 @@
         <v>45034.65625</v>
       </c>
       <c r="F75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
         <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>45037.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -7294,10 +7294,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7561,7 +7561,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
@@ -7650,7 +7650,7 @@
         <v>45044.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>37</v>
@@ -7739,7 +7739,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -7917,10 +7917,10 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5601841</v>
+        <v>5601842</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,73 +8006,73 @@
         <v>45051.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N85">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5601840</v>
+        <v>5601841</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,64 +8095,64 @@
         <v>45051.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
+        <v>2.05</v>
+      </c>
+      <c r="N86">
+        <v>2.875</v>
+      </c>
+      <c r="O86">
         <v>4</v>
       </c>
-      <c r="N86">
-        <v>1.909</v>
-      </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
         <v>1.825</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
@@ -8161,10 +8161,10 @@
         <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5601842</v>
+        <v>5601840</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,52 +8184,52 @@
         <v>45051.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P87">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
         <v>1.95</v>
@@ -8238,22 +8238,22 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5169397</v>
+        <v>5169399</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,10 +8273,10 @@
         <v>45051.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8288,40 +8288,40 @@
         <v>42</v>
       </c>
       <c r="K88">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
+        <v>2.7</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
         <v>1.75</v>
       </c>
-      <c r="Q88">
-        <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8330,19 +8330,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="AB88">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5169399</v>
+        <v>5169397</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,10 +8362,10 @@
         <v>45051.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8377,40 +8377,40 @@
         <v>42</v>
       </c>
       <c r="K89">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N89">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8419,19 +8419,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.7</v>
+        <v>0.75</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>45142.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>41</v>
@@ -8543,7 +8543,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8629,7 +8629,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -8718,7 +8718,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
@@ -8896,10 +8896,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9077,7 +9077,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9341,7 +9341,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9433,7 +9433,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9611,7 +9611,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9697,7 +9697,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
         <v>41</v>
@@ -9786,7 +9786,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>32</v>
@@ -9875,10 +9875,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10053,7 +10053,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10145,7 +10145,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10320,10 +10320,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>40</v>
@@ -10590,7 +10590,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10768,7 +10768,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -11032,7 +11032,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
@@ -11121,10 +11121,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11210,7 +11210,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>33</v>
@@ -11299,10 +11299,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11477,7 +11477,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -11836,7 +11836,7 @@
         <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11922,10 +11922,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
         <v>41</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6845267</v>
+        <v>6845265</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
       </c>
       <c r="H133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N133">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
+        <v>3</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
         <v>1.825</v>
       </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
-      <c r="U133">
-        <v>1.9</v>
-      </c>
-      <c r="V133">
-        <v>1.9</v>
-      </c>
       <c r="W133">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6845265</v>
+        <v>6845267</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,73 +12367,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N134">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12456,7 +12456,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>40</v>
@@ -12634,7 +12634,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12901,10 +12901,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F140" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" t="s">
         <v>36</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13067,7 +13067,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6845277</v>
+        <v>6845276</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13079,76 +13079,76 @@
         <v>45234.5</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>44</v>
       </c>
       <c r="K142">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L142">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
+        <v>-0</v>
+      </c>
+      <c r="AB142">
         <v>0.95</v>
       </c>
-      <c r="AB142">
-        <v>-1</v>
-      </c>
       <c r="AC142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6845276</v>
+        <v>6845277</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45234.5</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>44</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M143">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13346,10 +13346,10 @@
         <v>45234.5</v>
       </c>
       <c r="F145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" t="s">
         <v>34</v>
-      </c>
-      <c r="G145" t="s">
-        <v>36</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13702,7 +13702,7 @@
         <v>45241.5</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
         <v>38</v>
@@ -13791,10 +13791,10 @@
         <v>45241.5</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13883,7 +13883,7 @@
         <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13972,7 +13972,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14058,7 +14058,7 @@
         <v>45262.5</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>33</v>
@@ -14147,7 +14147,7 @@
         <v>45262.5</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
         <v>40</v>
@@ -14239,7 +14239,7 @@
         <v>33</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14417,7 +14417,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14503,7 +14503,7 @@
         <v>45269.5</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14595,7 +14595,7 @@
         <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14684,7 +14684,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14770,7 +14770,7 @@
         <v>45273.69791666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14948,10 +14948,10 @@
         <v>45276.5</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15040,7 +15040,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15215,7 +15215,7 @@
         <v>45276.5</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
         <v>40</v>
@@ -15396,7 +15396,7 @@
         <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -15482,10 +15482,10 @@
         <v>45283.5</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15571,7 +15571,7 @@
         <v>45283.5</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15752,7 +15752,7 @@
         <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15841,7 +15841,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15927,7 +15927,7 @@
         <v>45290.5</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16016,7 +16016,7 @@
         <v>45290.5</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6845314</v>
+        <v>6845313</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,58 +16283,58 @@
         <v>45293.5</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>43</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O178">
+        <v>4.75</v>
+      </c>
+      <c r="P178">
+        <v>5.75</v>
+      </c>
+      <c r="Q178">
+        <v>-1.25</v>
+      </c>
+      <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
         <v>3.25</v>
       </c>
-      <c r="P178">
-        <v>2.7</v>
-      </c>
-      <c r="Q178">
-        <v>0</v>
-      </c>
-      <c r="R178">
-        <v>1.75</v>
-      </c>
-      <c r="S178">
-        <v>2.05</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16343,16 +16343,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6845313</v>
+        <v>6845312</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,58 +16372,58 @@
         <v>45293.5</v>
       </c>
       <c r="F179" t="s">
+        <v>38</v>
+      </c>
+      <c r="G179" t="s">
         <v>36</v>
-      </c>
-      <c r="G179" t="s">
-        <v>32</v>
       </c>
       <c r="H179">
         <v>3</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>43</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N179">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P179">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>1.9</v>
+      </c>
+      <c r="S179">
+        <v>1.9</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.925</v>
+      </c>
+      <c r="V179">
         <v>1.875</v>
       </c>
-      <c r="S179">
-        <v>1.975</v>
-      </c>
-      <c r="T179">
-        <v>3.25</v>
-      </c>
-      <c r="U179">
-        <v>1.95</v>
-      </c>
-      <c r="V179">
-        <v>1.9</v>
-      </c>
       <c r="W179">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16432,13 +16432,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6845312</v>
+        <v>6845314</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,13 +16461,13 @@
         <v>45293.5</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -16476,43 +16476,43 @@
         <v>43</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O180">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P180">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
         <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16521,16 +16521,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16550,7 +16550,7 @@
         <v>45293.5</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
         <v>41</v>
@@ -16716,7 +16716,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6845316</v>
+        <v>6845315</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16728,76 +16728,76 @@
         <v>45297.5</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K183">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L183">
         <v>3.75</v>
       </c>
       <c r="M183">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N183">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6845317</v>
+        <v>6845316</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,13 +16817,13 @@
         <v>45297.5</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>3</v>
@@ -16832,58 +16832,58 @@
         <v>42</v>
       </c>
       <c r="K184">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="L184">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N184">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O184">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
+        <v>1.95</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
         <v>1.8</v>
       </c>
-      <c r="V184">
-        <v>2</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>4.25</v>
-      </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB184">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6845318</v>
+        <v>6845317</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,73 +16906,73 @@
         <v>45297.5</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K185">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M185">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N185">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O185">
+        <v>5.5</v>
+      </c>
+      <c r="P185">
         <v>5.25</v>
       </c>
-      <c r="P185">
-        <v>8.5</v>
-      </c>
       <c r="Q185">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R185">
+        <v>1.9</v>
+      </c>
+      <c r="S185">
+        <v>1.9</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
-      <c r="T185">
-        <v>3.5</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
       <c r="V185">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB185">
         <v>0.8</v>
-      </c>
-      <c r="AA185">
-        <v>-1</v>
-      </c>
-      <c r="AB185">
-        <v>1</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -16983,7 +16983,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6845315</v>
+        <v>6845318</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16995,13 +16995,13 @@
         <v>45297.5</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17010,43 +17010,43 @@
         <v>43</v>
       </c>
       <c r="K186">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M186">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="N186">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P186">
-        <v>2.375</v>
+        <v>8.5</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W186">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17055,16 +17055,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17084,7 +17084,7 @@
         <v>45303.69791666666</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6845323</v>
+        <v>6845324</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,76 +17173,76 @@
         <v>45304.5</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K188">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N188">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R188">
         <v>1.825</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U188">
         <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
+      <c r="AC188">
         <v>-0</v>
-      </c>
-      <c r="AB188">
-        <v>-1</v>
-      </c>
-      <c r="AC188">
-        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6845324</v>
+        <v>6845320</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,76 +17262,76 @@
         <v>45304.5</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>44</v>
+      </c>
+      <c r="K189">
+        <v>2.25</v>
+      </c>
+      <c r="L189">
+        <v>3.75</v>
+      </c>
+      <c r="M189">
+        <v>2.6</v>
+      </c>
+      <c r="N189">
+        <v>2.875</v>
+      </c>
+      <c r="O189">
+        <v>4</v>
+      </c>
+      <c r="P189">
+        <v>2</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>1.8</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>3</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>0.5</v>
+      </c>
+      <c r="AA189">
+        <v>-0.5</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>1</v>
-      </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
-      <c r="J189" t="s">
-        <v>42</v>
-      </c>
-      <c r="K189">
-        <v>1.333</v>
-      </c>
-      <c r="L189">
-        <v>5</v>
-      </c>
-      <c r="M189">
-        <v>7</v>
-      </c>
-      <c r="N189">
-        <v>1.533</v>
-      </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>4.75</v>
-      </c>
-      <c r="Q189">
-        <v>-1</v>
-      </c>
-      <c r="R189">
-        <v>1.825</v>
-      </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189">
-        <v>1.975</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>3.75</v>
-      </c>
-      <c r="Z189">
-        <v>-1</v>
-      </c>
-      <c r="AA189">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB189">
-        <v>0</v>
-      </c>
-      <c r="AC189">
-        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6845320</v>
+        <v>6845323</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,76 +17351,76 @@
         <v>45304.5</v>
       </c>
       <c r="F190" t="s">
+        <v>38</v>
+      </c>
+      <c r="G190" t="s">
         <v>34</v>
       </c>
-      <c r="G190" t="s">
-        <v>35</v>
-      </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>44</v>
       </c>
       <c r="K190">
+        <v>2.75</v>
+      </c>
+      <c r="L190">
+        <v>3.5</v>
+      </c>
+      <c r="M190">
         <v>2.25</v>
       </c>
-      <c r="L190">
-        <v>3.75</v>
-      </c>
-      <c r="M190">
+      <c r="N190">
+        <v>2.375</v>
+      </c>
+      <c r="O190">
+        <v>3.6</v>
+      </c>
+      <c r="P190">
         <v>2.6</v>
       </c>
-      <c r="N190">
-        <v>2.875</v>
-      </c>
-      <c r="O190">
-        <v>4</v>
-      </c>
-      <c r="P190">
-        <v>2</v>
-      </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,10 +17440,10 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F191" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" t="s">
         <v>35</v>
-      </c>
-      <c r="G191" t="s">
-        <v>34</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17532,7 +17532,7 @@
         <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17621,7 +17621,7 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17710,7 +17710,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -17888,7 +17888,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45325.5</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
         <v>32</v>
@@ -18152,7 +18152,7 @@
         <v>45325.5</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
         <v>41</v>
@@ -18422,7 +18422,7 @@
         <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K202">
         <v>2.1</v>
@@ -18434,31 +18434,31 @@
         <v>3.25</v>
       </c>
       <c r="N202">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O202">
         <v>3.1</v>
       </c>
       <c r="P202">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q202">
         <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18496,7 +18496,7 @@
         <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K203">
         <v>1.5</v>
@@ -18508,7 +18508,7 @@
         <v>5.5</v>
       </c>
       <c r="N203">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O203">
         <v>3.6</v>
@@ -18520,19 +18520,19 @@
         <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18555,7 +18555,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6845338</v>
+        <v>6845337</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18567,46 +18567,46 @@
         <v>45339.5</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K204">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L204">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
         <v>2.4</v>
       </c>
       <c r="N204">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P204">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q204">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18629,7 +18629,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6845337</v>
+        <v>6845338</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18641,46 +18641,46 @@
         <v>45339.5</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K205">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
         <v>2.4</v>
       </c>
       <c r="N205">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S205">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>0</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Scotland Championship</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>Dundee</t>
   </si>
   <si>
     <t>Inverness CT</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
   </si>
   <si>
     <t>Queens Park</t>
@@ -118,13 +118,13 @@
     <t>Raith</t>
   </si>
   <si>
-    <t>Partick</t>
-  </si>
-  <si>
     <t>Arbroath</t>
   </si>
   <si>
     <t>Ayr</t>
+  </si>
+  <si>
+    <t>Partick</t>
   </si>
   <si>
     <t>Cove Rangers</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC205"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5169683</v>
+        <v>5169411</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,52 +622,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
         <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N2">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R2">
+        <v>1.85</v>
+      </c>
+      <c r="S2">
         <v>1.95</v>
       </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -676,19 +676,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5169411</v>
+        <v>5169412</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,70 +711,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5169412</v>
+        <v>5169683</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5169415</v>
+        <v>5169414</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,70 +1067,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M7">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5169414</v>
+        <v>5169685</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1162,31 +1162,31 @@
         <v>1</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>1.45</v>
+      </c>
+      <c r="L8">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>2.7</v>
-      </c>
-      <c r="L8">
-        <v>3.25</v>
-      </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
         <v>1.875</v>
@@ -1195,34 +1195,34 @@
         <v>1.925</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5169685</v>
+        <v>5169415</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1245,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="N9">
+        <v>2.05</v>
+      </c>
+      <c r="O9">
+        <v>3.25</v>
+      </c>
+      <c r="P9">
+        <v>3.5</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
         <v>1.85</v>
       </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>-0.5</v>
-      </c>
-      <c r="R9">
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
         <v>1.875</v>
       </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.925</v>
-      </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
+        <v>1.05</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
         <v>0.875</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>44940.5</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -1598,7 +1598,7 @@
         <v>44940.5</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1687,10 +1687,10 @@
         <v>44940.5</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1779,7 +1779,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5169421</v>
+        <v>5169422</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,37 +1865,37 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q16">
         <v>-0.5</v>
@@ -1907,34 +1907,34 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
+        <v>1.925</v>
+      </c>
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="V16">
-        <v>1.925</v>
-      </c>
       <c r="W16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.875</v>
+      </c>
+      <c r="AB16">
         <v>0.925</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5169689</v>
+        <v>5169421</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44954.5</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O17">
+        <v>3.6</v>
+      </c>
+      <c r="P17">
         <v>3.5</v>
       </c>
-      <c r="P17">
-        <v>4.75</v>
-      </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
         <v>1.875</v>
       </c>
-      <c r="S17">
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>1.875</v>
+      </c>
+      <c r="V17">
         <v>1.925</v>
       </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5169423</v>
+        <v>5169689</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,76 +2043,76 @@
         <v>44954.5</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="N18">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5169422</v>
+        <v>5169423</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,49 +2132,49 @@
         <v>44954.5</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>2.05</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
         <v>1.85</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q19">
         <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
         <v>1.925</v>
@@ -2186,16 +2186,16 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y19">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>0.925</v>
@@ -2224,7 +2224,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2310,7 +2310,7 @@
         <v>44961.5</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5169690</v>
+        <v>5169426</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>44961.5</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y22">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5169426</v>
+        <v>5169690</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>44961.5</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
+        <v>5.5</v>
+      </c>
+      <c r="Q23">
+        <v>-1.25</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
         <v>2.75</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="U23">
         <v>1.775</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,10 +2577,10 @@
         <v>44961.5</v>
       </c>
       <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
         <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2755,7 +2755,7 @@
         <v>44969.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -2847,7 +2847,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3111,10 +3111,10 @@
         <v>44975.5</v>
       </c>
       <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
         <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>44975.5</v>
       </c>
       <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>44978.69791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>44982.5</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3645,10 +3645,10 @@
         <v>44982.5</v>
       </c>
       <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
         <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3734,10 +3734,10 @@
         <v>44982.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3823,10 +3823,10 @@
         <v>44985.69791666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3912,10 +3912,10 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4001,10 +4001,10 @@
         <v>44989.5</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5279448</v>
+        <v>5279447</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,73 +4179,73 @@
         <v>44989.5</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
+        <v>3.4</v>
+      </c>
+      <c r="N42">
+        <v>1.95</v>
+      </c>
+      <c r="O42">
         <v>3.2</v>
       </c>
-      <c r="N42">
-        <v>2.3</v>
-      </c>
-      <c r="O42">
-        <v>3.4</v>
-      </c>
       <c r="P42">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5279447</v>
+        <v>5279448</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,73 +4268,73 @@
         <v>44989.5</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
+        <v>3.2</v>
+      </c>
+      <c r="N43">
+        <v>2.3</v>
+      </c>
+      <c r="O43">
         <v>3.4</v>
       </c>
-      <c r="N43">
-        <v>1.95</v>
-      </c>
-      <c r="O43">
-        <v>3.2</v>
-      </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q43">
+        <v>-0.25</v>
+      </c>
+      <c r="R43">
+        <v>2.05</v>
+      </c>
+      <c r="S43">
+        <v>1.8</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>2.4</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
         <v>-0.5</v>
       </c>
-      <c r="R43">
-        <v>1.975</v>
-      </c>
-      <c r="S43">
-        <v>1.825</v>
-      </c>
-      <c r="T43">
-        <v>2.25</v>
-      </c>
-      <c r="U43">
-        <v>1.95</v>
-      </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
-      <c r="W43">
-        <v>0.95</v>
-      </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>-1</v>
-      </c>
-      <c r="Z43">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -4716,7 +4716,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4802,10 +4802,10 @@
         <v>45003.5</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4891,10 +4891,10 @@
         <v>45003.5</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5069,10 +5069,10 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5158,10 +5158,10 @@
         <v>45009.69791666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>45009.69791666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
@@ -5425,10 +5425,10 @@
         <v>45016.65625</v>
       </c>
       <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s">
         <v>35</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5517,7 +5517,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>7</v>
@@ -5784,7 +5784,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6048,7 +6048,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6125,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5169672</v>
+        <v>5423152</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,76 +6137,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q64">
         <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
+        <v>0.95</v>
+      </c>
+      <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
         <v>-0.5</v>
       </c>
-      <c r="AA64">
-        <v>0.5125</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5423152</v>
+        <v>5462016</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,76 +6226,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
         <v>2</v>
       </c>
       <c r="W65">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5462016</v>
+        <v>5169672</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>45027.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6496,7 +6496,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6582,10 +6582,10 @@
         <v>45027.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6760,10 +6760,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6941,7 +6941,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7027,7 +7027,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7116,10 +7116,10 @@
         <v>45034.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>45037.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -7294,10 +7294,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7561,7 +7561,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
@@ -7650,7 +7650,7 @@
         <v>45044.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>37</v>
@@ -7739,7 +7739,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -7917,10 +7917,10 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
         <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>35</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8098,7 +8098,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8184,10 +8184,10 @@
         <v>45051.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>45051.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8451,7 +8451,7 @@
         <v>45142.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>41</v>
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845221</v>
+        <v>6845219</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,13 +8540,13 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -8555,43 +8555,43 @@
         <v>43</v>
       </c>
       <c r="K91">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
+        <v>3.6</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.909</v>
+      </c>
+      <c r="O91">
+        <v>3.3</v>
+      </c>
+      <c r="P91">
         <v>3.5</v>
       </c>
-      <c r="M91">
-        <v>3</v>
-      </c>
-      <c r="N91">
-        <v>2.375</v>
-      </c>
-      <c r="O91">
-        <v>3.4</v>
-      </c>
-      <c r="P91">
-        <v>2.6</v>
-      </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8600,13 +8600,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845220</v>
+        <v>6845221</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,76 +8629,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L92">
         <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845222</v>
+        <v>6845220</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,40 +8718,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L93">
         <v>3.5</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N93">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
         <v>1.975</v>
@@ -8760,7 +8760,7 @@
         <v>1.825</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.925</v>
@@ -8772,10 +8772,10 @@
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z93">
         <v>-1</v>
@@ -8784,10 +8784,10 @@
         <v>0.825</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6845219</v>
+        <v>6845222</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,40 +8807,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
         <v>1.975</v>
@@ -8852,28 +8852,28 @@
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8896,10 +8896,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9077,7 +9077,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9341,7 +9341,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9433,7 +9433,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6845230</v>
+        <v>6845229</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,55 +9519,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
         <v>3.3</v>
       </c>
       <c r="M102">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O102">
         <v>3.4</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
+        <v>1.875</v>
+      </c>
+      <c r="S102">
+        <v>1.925</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
         <v>1.8</v>
       </c>
-      <c r="S102">
-        <v>2.05</v>
-      </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>2.05</v>
-      </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9576,19 +9576,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6845228</v>
+        <v>6845230</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,40 +9608,40 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>3.2</v>
+      </c>
+      <c r="N103">
+        <v>2.45</v>
+      </c>
+      <c r="O103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>2.05</v>
-      </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
       <c r="P103">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
         <v>1.8</v>
@@ -9653,31 +9653,31 @@
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>1.8</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>1.05</v>
       </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>0.875</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845229</v>
+        <v>6845228</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,73 +9697,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104">
+        <v>2.15</v>
+      </c>
+      <c r="L104">
+        <v>3.4</v>
+      </c>
+      <c r="M104">
         <v>3</v>
       </c>
-      <c r="J104" t="s">
-        <v>42</v>
-      </c>
-      <c r="K104">
-        <v>2.3</v>
-      </c>
-      <c r="L104">
-        <v>3.3</v>
-      </c>
-      <c r="M104">
-        <v>2.8</v>
-      </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
+        <v>2.05</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
         <v>1.875</v>
       </c>
-      <c r="S104">
-        <v>1.925</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.8</v>
-      </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9786,7 +9786,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
         <v>32</v>
@@ -9875,10 +9875,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
         <v>35</v>
-      </c>
-      <c r="G106" t="s">
-        <v>36</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10053,7 +10053,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10145,7 +10145,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10320,10 +10320,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F111" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" t="s">
         <v>36</v>
-      </c>
-      <c r="G111" t="s">
-        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
         <v>40</v>
@@ -10590,7 +10590,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10768,7 +10768,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -11032,7 +11032,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
@@ -11121,10 +11121,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F120" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" t="s">
         <v>34</v>
-      </c>
-      <c r="G120" t="s">
-        <v>35</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11210,7 +11210,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
         <v>33</v>
@@ -11299,10 +11299,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11477,7 +11477,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -11836,7 +11836,7 @@
         <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11922,10 +11922,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6845262</v>
+        <v>6845264</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,55 +12100,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N131">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12157,19 +12157,19 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6845264</v>
+        <v>6845262</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,55 +12189,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>42</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
         <v>3.3</v>
       </c>
-      <c r="M132">
-        <v>2.55</v>
-      </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12246,19 +12246,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6845265</v>
+        <v>6845267</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N133">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6845267</v>
+        <v>6845265</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,73 +12367,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N134">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
+        <v>1.95</v>
+      </c>
+      <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
-      <c r="U134">
-        <v>1.9</v>
-      </c>
-      <c r="V134">
-        <v>1.9</v>
-      </c>
       <c r="W134">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12456,7 +12456,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>40</v>
@@ -12634,7 +12634,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12800,7 +12800,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6845273</v>
+        <v>6845274</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12812,73 +12812,73 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139">
+        <v>1.8</v>
+      </c>
+      <c r="L139">
+        <v>3.5</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>1.909</v>
+      </c>
+      <c r="O139">
+        <v>3.6</v>
+      </c>
+      <c r="P139">
+        <v>3.4</v>
+      </c>
+      <c r="Q139">
+        <v>-0.5</v>
+      </c>
+      <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>1.85</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>1.8</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>2.6</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB139">
         <v>1</v>
-      </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
-      <c r="J139" t="s">
-        <v>42</v>
-      </c>
-      <c r="K139">
-        <v>3.1</v>
-      </c>
-      <c r="L139">
-        <v>3.3</v>
-      </c>
-      <c r="M139">
-        <v>2.15</v>
-      </c>
-      <c r="N139">
-        <v>2.8</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
-      <c r="P139">
-        <v>2.45</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>2</v>
-      </c>
-      <c r="S139">
-        <v>1.8</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.95</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
-      <c r="W139">
-        <v>-1</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>1.45</v>
-      </c>
-      <c r="Z139">
-        <v>-1</v>
-      </c>
-      <c r="AA139">
-        <v>0.8</v>
-      </c>
-      <c r="AB139">
-        <v>0.95</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6845274</v>
+        <v>6845273</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,73 +12901,73 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K140">
+        <v>3.1</v>
+      </c>
+      <c r="L140">
+        <v>3.3</v>
+      </c>
+      <c r="M140">
+        <v>2.15</v>
+      </c>
+      <c r="N140">
+        <v>2.8</v>
+      </c>
+      <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
+        <v>2.45</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
         <v>1.8</v>
       </c>
-      <c r="L140">
-        <v>3.5</v>
-      </c>
-      <c r="M140">
-        <v>4</v>
-      </c>
-      <c r="N140">
-        <v>1.909</v>
-      </c>
-      <c r="O140">
-        <v>3.6</v>
-      </c>
-      <c r="P140">
-        <v>3.4</v>
-      </c>
-      <c r="Q140">
-        <v>-0.5</v>
-      </c>
-      <c r="R140">
+      <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
         <v>1.95</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="T140">
-        <v>3</v>
-      </c>
-      <c r="U140">
-        <v>2</v>
-      </c>
-      <c r="V140">
-        <v>1.8</v>
-      </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13067,7 +13067,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6845276</v>
+        <v>6845277</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13079,76 +13079,76 @@
         <v>45234.5</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>44</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6845277</v>
+        <v>6845276</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45234.5</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>44</v>
       </c>
       <c r="K143">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L143">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
+        <v>-0</v>
+      </c>
+      <c r="AB143">
         <v>0.95</v>
       </c>
-      <c r="AB143">
-        <v>-1</v>
-      </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13346,10 +13346,10 @@
         <v>45234.5</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13702,7 +13702,7 @@
         <v>45241.5</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>38</v>
@@ -13791,10 +13791,10 @@
         <v>45241.5</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13883,7 +13883,7 @@
         <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13972,7 +13972,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14058,7 +14058,7 @@
         <v>45262.5</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
         <v>33</v>
@@ -14147,7 +14147,7 @@
         <v>45262.5</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
         <v>40</v>
@@ -14239,7 +14239,7 @@
         <v>33</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14417,7 +14417,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14503,7 +14503,7 @@
         <v>45269.5</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14595,7 +14595,7 @@
         <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14684,7 +14684,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14770,7 +14770,7 @@
         <v>45273.69791666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14948,10 +14948,10 @@
         <v>45276.5</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15040,7 +15040,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15215,7 +15215,7 @@
         <v>45276.5</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>40</v>
@@ -15396,7 +15396,7 @@
         <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -15482,10 +15482,10 @@
         <v>45283.5</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15571,7 +15571,7 @@
         <v>45283.5</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15752,7 +15752,7 @@
         <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15841,7 +15841,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15927,7 +15927,7 @@
         <v>45290.5</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16016,7 +16016,7 @@
         <v>45290.5</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6845311</v>
+        <v>6845310</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,55 +16194,55 @@
         <v>45293.5</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
         <v>42</v>
       </c>
       <c r="K177">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M177">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="N177">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="O177">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P177">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16251,19 +16251,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1</v>
+        <v>0.181</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6845313</v>
+        <v>6845312</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,58 +16283,58 @@
         <v>45293.5</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>3</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>43</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N178">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O178">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>1.9</v>
+      </c>
+      <c r="S178">
+        <v>1.9</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.925</v>
+      </c>
+      <c r="V178">
         <v>1.875</v>
       </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>3.25</v>
-      </c>
-      <c r="U178">
-        <v>1.95</v>
-      </c>
-      <c r="V178">
-        <v>1.9</v>
-      </c>
       <c r="W178">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16343,13 +16343,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6845312</v>
+        <v>6845313</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,58 +16372,58 @@
         <v>45293.5</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>3</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
         <v>43</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N179">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
+        <v>1.875</v>
+      </c>
+      <c r="S179">
+        <v>1.975</v>
+      </c>
+      <c r="T179">
+        <v>3.25</v>
+      </c>
+      <c r="U179">
+        <v>1.95</v>
+      </c>
+      <c r="V179">
         <v>1.9</v>
       </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>2.5</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16432,13 +16432,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB179">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16464,7 +16464,7 @@
         <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6845310</v>
+        <v>6845311</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,56 +16550,56 @@
         <v>45293.5</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>42</v>
       </c>
       <c r="K181">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="L181">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="N181">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O181">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="Q181">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
         <v>1.875</v>
       </c>
-      <c r="S181">
-        <v>1.925</v>
-      </c>
-      <c r="T181">
-        <v>3.25</v>
-      </c>
-      <c r="U181">
-        <v>1.95</v>
-      </c>
-      <c r="V181">
-        <v>1.85</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
@@ -16607,19 +16607,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.181</v>
+        <v>1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB181">
+        <v>0.4625</v>
+      </c>
+      <c r="AC181">
         <v>-0.5</v>
-      </c>
-      <c r="AC181">
-        <v>0.425</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16817,10 +16817,10 @@
         <v>45297.5</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16995,10 +16995,10 @@
         <v>45297.5</v>
       </c>
       <c r="F186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" t="s">
         <v>34</v>
-      </c>
-      <c r="G186" t="s">
-        <v>35</v>
       </c>
       <c r="H186">
         <v>4</v>
@@ -17084,7 +17084,7 @@
         <v>45303.69791666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17262,10 +17262,10 @@
         <v>45304.5</v>
       </c>
       <c r="F189" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" t="s">
         <v>35</v>
-      </c>
-      <c r="G189" t="s">
-        <v>36</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17354,7 +17354,7 @@
         <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17440,10 +17440,10 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17532,7 +17532,7 @@
         <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17621,7 +17621,7 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17710,7 +17710,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -17888,7 +17888,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45325.5</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
         <v>32</v>
@@ -18152,7 +18152,7 @@
         <v>45325.5</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
         <v>41</v>
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6845335</v>
+        <v>6845344</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18416,49 +18416,49 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45339.5</v>
+        <v>45345.69791666666</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K202">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L202">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N202">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O202">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P202">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18481,7 +18481,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6845336</v>
+        <v>6845340</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18490,49 +18490,49 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45339.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K203">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M203">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N203">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="O203">
         <v>3.6</v>
       </c>
       <c r="P203">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18555,7 +18555,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6845337</v>
+        <v>6845341</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18564,49 +18564,49 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45339.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K204">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="L204">
+        <v>3.5</v>
+      </c>
+      <c r="M204">
+        <v>1.8</v>
+      </c>
+      <c r="N204">
+        <v>3.5</v>
+      </c>
+      <c r="O204">
         <v>3.4</v>
       </c>
-      <c r="M204">
-        <v>2.4</v>
-      </c>
-      <c r="N204">
-        <v>2.55</v>
-      </c>
-      <c r="O204">
-        <v>3.3</v>
-      </c>
       <c r="P204">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18629,7 +18629,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6845338</v>
+        <v>6845342</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18638,63 +18638,137 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45339.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F205" t="s">
+        <v>41</v>
+      </c>
+      <c r="G205" t="s">
         <v>32</v>
       </c>
-      <c r="G205" t="s">
+      <c r="K205">
+        <v>1.333</v>
+      </c>
+      <c r="L205">
+        <v>5</v>
+      </c>
+      <c r="M205">
+        <v>7</v>
+      </c>
+      <c r="N205">
+        <v>1.3</v>
+      </c>
+      <c r="O205">
+        <v>5</v>
+      </c>
+      <c r="P205">
+        <v>8</v>
+      </c>
+      <c r="Q205">
+        <v>-1.5</v>
+      </c>
+      <c r="R205">
+        <v>1.9</v>
+      </c>
+      <c r="S205">
+        <v>1.95</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>1.975</v>
+      </c>
+      <c r="V205">
+        <v>1.875</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6845343</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F206" t="s">
         <v>38</v>
       </c>
-      <c r="K205">
-        <v>2.4</v>
-      </c>
-      <c r="L205">
-        <v>3.6</v>
-      </c>
-      <c r="M205">
-        <v>2.4</v>
-      </c>
-      <c r="N205">
-        <v>2.75</v>
-      </c>
-      <c r="O205">
+      <c r="G206" t="s">
+        <v>40</v>
+      </c>
+      <c r="K206">
+        <v>2.2</v>
+      </c>
+      <c r="L206">
+        <v>3.3</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206">
+        <v>3.25</v>
+      </c>
+      <c r="P206">
         <v>3.5</v>
       </c>
-      <c r="P205">
-        <v>2.2</v>
-      </c>
-      <c r="Q205">
-        <v>0.25</v>
-      </c>
-      <c r="R205">
-        <v>1.925</v>
-      </c>
-      <c r="S205">
-        <v>1.925</v>
-      </c>
-      <c r="T205">
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>2.05</v>
+      </c>
+      <c r="S206">
+        <v>1.8</v>
+      </c>
+      <c r="T206">
         <v>2.5</v>
       </c>
-      <c r="U205">
-        <v>1.925</v>
-      </c>
-      <c r="V205">
-        <v>1.925</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
-      <c r="AA205">
+      <c r="U206">
+        <v>2</v>
+      </c>
+      <c r="V206">
+        <v>1.85</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -136,10 +136,10 @@
     <t>Dunfermline</t>
   </si>
   <si>
-    <t>Airdrieonians</t>
+    <t>Dundee Utd</t>
   </si>
   <si>
-    <t>Dundee Utd</t>
+    <t>Airdrieonians</t>
   </si>
   <si>
     <t>A</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5169419</v>
+        <v>5169420</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,76 +1420,76 @@
         <v>44940.5</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q11">
         <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
+        <v>1.825</v>
+      </c>
+      <c r="V11">
         <v>1.975</v>
       </c>
-      <c r="V11">
-        <v>1.875</v>
-      </c>
       <c r="W11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5169420</v>
+        <v>5169417</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,76 +1509,76 @@
         <v>44940.5</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
+        <v>1.909</v>
+      </c>
+      <c r="O12">
         <v>3.25</v>
       </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5169417</v>
+        <v>5169419</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,76 +1598,76 @@
         <v>44940.5</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N13">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2.25</v>
+      </c>
+      <c r="U13">
+        <v>1.975</v>
+      </c>
+      <c r="V13">
         <v>1.875</v>
       </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>1.8</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.875</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5169423</v>
+        <v>5169422</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,49 +1865,49 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>2.05</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
         <v>1.85</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q16">
         <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
         <v>1.925</v>
@@ -1919,16 +1919,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
         <v>0.925</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5169422</v>
+        <v>5169421</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,37 +1954,37 @@
         <v>44954.5</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
         <v>-0.5</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U17">
+        <v>1.875</v>
+      </c>
+      <c r="V17">
         <v>1.925</v>
       </c>
-      <c r="V17">
-        <v>1.875</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5169421</v>
+        <v>5169423</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,76 +2043,76 @@
         <v>44954.5</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
+        <v>3.3</v>
+      </c>
+      <c r="M18">
+        <v>3.2</v>
+      </c>
+      <c r="N18">
+        <v>1.85</v>
+      </c>
+      <c r="O18">
+        <v>3.4</v>
+      </c>
+      <c r="P18">
         <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.5</v>
-      </c>
-      <c r="N18">
-        <v>1.8</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>3.5</v>
       </c>
       <c r="Q18">
         <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
         <v>1.925</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.875</v>
-      </c>
-      <c r="V18">
-        <v>1.925</v>
-      </c>
       <c r="W18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB18">
         <v>0.925</v>
       </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5169690</v>
+        <v>5169424</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,56 +2310,56 @@
         <v>44961.5</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P21">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>2.05</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.775</v>
-      </c>
-      <c r="V21">
-        <v>2.025</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
@@ -2367,19 +2367,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>4.5</v>
+        <v>1.875</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5169424</v>
+        <v>5169690</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,56 +2399,56 @@
         <v>44961.5</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="O22">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>1.775</v>
+      </c>
+      <c r="V22">
         <v>2.025</v>
       </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.05</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
@@ -2456,19 +2456,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.875</v>
+        <v>4.5</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
+        <v>0.8</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>1.025</v>
-      </c>
-      <c r="AB22">
-        <v>1.05</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5169432</v>
+        <v>5169694</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3467,73 +3467,73 @@
         <v>44982.5</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34">
+        <v>3.3</v>
+      </c>
+      <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3.4</v>
+      </c>
+      <c r="O34">
+        <v>3.5</v>
+      </c>
+      <c r="P34">
+        <v>1.909</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>1.85</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
+        <v>1.8</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
+      <c r="X34">
+        <v>-1</v>
+      </c>
+      <c r="Y34">
+        <v>0.909</v>
+      </c>
+      <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34">
-        <v>1.75</v>
-      </c>
-      <c r="L34">
-        <v>3.6</v>
-      </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
-      <c r="N34">
-        <v>1.65</v>
-      </c>
-      <c r="O34">
-        <v>3.8</v>
-      </c>
-      <c r="P34">
-        <v>4.5</v>
-      </c>
-      <c r="Q34">
-        <v>-0.75</v>
-      </c>
-      <c r="R34">
-        <v>1.875</v>
-      </c>
-      <c r="S34">
-        <v>1.925</v>
-      </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
-      <c r="U34">
-        <v>1.85</v>
-      </c>
-      <c r="V34">
-        <v>1.95</v>
-      </c>
-      <c r="W34">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X34">
-        <v>-1</v>
-      </c>
-      <c r="Y34">
-        <v>-1</v>
-      </c>
-      <c r="Z34">
-        <v>0.4375</v>
-      </c>
-      <c r="AA34">
-        <v>-0.5</v>
-      </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5169694</v>
+        <v>5169432</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,73 +3556,73 @@
         <v>44982.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35">
+        <v>1.75</v>
+      </c>
+      <c r="L35">
+        <v>3.6</v>
+      </c>
+      <c r="M35">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
-        <v>42</v>
-      </c>
-      <c r="K35">
-        <v>3.3</v>
-      </c>
-      <c r="L35">
-        <v>3.4</v>
-      </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
       <c r="N35">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
+        <v>1.875</v>
+      </c>
+      <c r="S35">
+        <v>1.925</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
         <v>1.85</v>
       </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5169396</v>
+        <v>5319930</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45003.5</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="N49">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5319930</v>
+        <v>5169396</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,76 +4980,76 @@
         <v>45003.5</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L51">
+        <v>3.6</v>
+      </c>
+      <c r="M51">
+        <v>3.7</v>
+      </c>
+      <c r="N51">
+        <v>1.85</v>
+      </c>
+      <c r="O51">
+        <v>3.6</v>
+      </c>
+      <c r="P51">
         <v>3.4</v>
       </c>
-      <c r="M51">
-        <v>2.05</v>
-      </c>
-      <c r="N51">
-        <v>3.3</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
-      <c r="P51">
+      <c r="Q51">
+        <v>-0.5</v>
+      </c>
+      <c r="R51">
         <v>1.95</v>
       </c>
-      <c r="Q51">
-        <v>0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.775</v>
-      </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
         <v>0.95</v>
       </c>
-      <c r="Z51">
-        <v>-1</v>
-      </c>
       <c r="AA51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5169390</v>
+        <v>5169672</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,10 +6048,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,46 +6063,46 @@
         <v>44</v>
       </c>
       <c r="K63">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
         <v>3.3</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N63">
         <v>2.05</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q63">
         <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6111,13 +6111,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.4875</v>
+        <v>0.5125</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6125,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5169672</v>
+        <v>5423152</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,76 +6137,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q64">
         <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
+        <v>0.95</v>
+      </c>
+      <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
         <v>-0.5</v>
       </c>
-      <c r="AA64">
-        <v>0.5125</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5423152</v>
+        <v>5462016</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,76 +6226,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
         <v>2</v>
       </c>
       <c r="W65">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5462016</v>
+        <v>5169390</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P66">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
+        <v>2.5</v>
+      </c>
+      <c r="U66">
+        <v>1.925</v>
+      </c>
+      <c r="V66">
+        <v>1.875</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
         <v>2.25</v>
       </c>
-      <c r="U66">
-        <v>1.85</v>
-      </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>2.5</v>
-      </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5601840</v>
+        <v>5601841</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,64 +8095,64 @@
         <v>45051.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
+        <v>2.05</v>
+      </c>
+      <c r="N86">
+        <v>2.875</v>
+      </c>
+      <c r="O86">
         <v>4</v>
       </c>
-      <c r="N86">
-        <v>1.909</v>
-      </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
         <v>1.825</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
@@ -8161,10 +8161,10 @@
         <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5601841</v>
+        <v>5601842</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,73 +8184,73 @@
         <v>45051.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5601842</v>
+        <v>5601840</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,52 +8273,52 @@
         <v>45051.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P88">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
         <v>1.95</v>
@@ -8327,22 +8327,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6845223</v>
+        <v>6845227</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,58 +8896,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O95">
         <v>3.3</v>
       </c>
       <c r="P95">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S95">
         <v>2.05</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8956,16 +8956,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6845227</v>
+        <v>6845226</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,58 +8985,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>1.375</v>
+        <v>0.7</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9045,16 +9045,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845226</v>
+        <v>6845224</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,58 +9074,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>43</v>
       </c>
       <c r="K97">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1.8</v>
+      </c>
+      <c r="T97">
+        <v>2.5</v>
+      </c>
+      <c r="U97">
         <v>1.925</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="T97">
-        <v>2.75</v>
-      </c>
-      <c r="U97">
-        <v>1.975</v>
-      </c>
-      <c r="V97">
-        <v>1.825</v>
-      </c>
       <c r="W97">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9134,16 +9134,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845224</v>
+        <v>6845225</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,43 +9163,43 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
+        <v>4.75</v>
+      </c>
+      <c r="N98">
+        <v>1.75</v>
+      </c>
+      <c r="O98">
         <v>3.75</v>
       </c>
-      <c r="N98">
-        <v>1.95</v>
-      </c>
-      <c r="O98">
-        <v>3.4</v>
-      </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
         <v>1.8</v>
@@ -9208,31 +9208,31 @@
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6845225</v>
+        <v>6845223</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,73 +9255,73 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
         <v>2.05</v>
       </c>
-      <c r="S99">
-        <v>1.8</v>
-      </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X99">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9700,7 +9700,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9964,10 +9964,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F107" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" t="s">
         <v>41</v>
-      </c>
-      <c r="G107" t="s">
-        <v>40</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10412,7 +10412,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10498,7 +10498,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10854,7 +10854,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
         <v>33</v>
@@ -11035,7 +11035,7 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6845250</v>
+        <v>6845251</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,55 +11210,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L121">
         <v>3.4</v>
       </c>
       <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>2.8</v>
+      </c>
+      <c r="O121">
         <v>3.25</v>
       </c>
-      <c r="N121">
-        <v>2.25</v>
-      </c>
-      <c r="O121">
-        <v>3.2</v>
-      </c>
       <c r="P121">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11267,16 +11267,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB121">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845252</v>
+        <v>6845250</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,73 +11299,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6845253</v>
+        <v>6845252</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N123">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845254</v>
+        <v>6845253</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,19 +11477,19 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K124">
         <v>2</v>
@@ -11501,52 +11501,52 @@
         <v>3.4</v>
       </c>
       <c r="N124">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O124">
         <v>3.2</v>
       </c>
       <c r="P124">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6845251</v>
+        <v>6845254</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
         <v>3.25</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>3.4</v>
       </c>
-      <c r="M125">
-        <v>2</v>
-      </c>
       <c r="N125">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V125">
         <v>1.8</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6845257</v>
+        <v>6845258</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,10 +11744,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11759,25 +11759,25 @@
         <v>44</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N127">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O127">
         <v>3.3</v>
       </c>
       <c r="P127">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
         <v>2.025</v>
@@ -11789,10 +11789,10 @@
         <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11804,16 +11804,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6845258</v>
+        <v>6845257</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,10 +11833,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11848,25 +11848,25 @@
         <v>44</v>
       </c>
       <c r="K128">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N128">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="O128">
         <v>3.3</v>
       </c>
       <c r="P128">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R128">
         <v>2.025</v>
@@ -11878,10 +11878,10 @@
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11893,16 +11893,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11922,7 +11922,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12011,7 +12011,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
         <v>32</v>
@@ -12103,7 +12103,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6845265</v>
+        <v>6845267</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N133">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6845267</v>
+        <v>6845265</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,73 +12367,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N134">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
+        <v>1.95</v>
+      </c>
+      <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
-      <c r="U134">
-        <v>1.9</v>
-      </c>
-      <c r="V134">
-        <v>1.9</v>
-      </c>
       <c r="W134">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12901,10 +12901,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F140" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" t="s">
         <v>40</v>
-      </c>
-      <c r="G140" t="s">
-        <v>41</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13257,7 +13257,7 @@
         <v>45234.5</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13349,7 +13349,7 @@
         <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13438,7 +13438,7 @@
         <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13524,7 +13524,7 @@
         <v>45241.5</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
         <v>36</v>
@@ -14150,7 +14150,7 @@
         <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14325,7 +14325,7 @@
         <v>45269.5</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14503,7 +14503,7 @@
         <v>45269.5</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
         <v>37</v>
@@ -14862,7 +14862,7 @@
         <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15037,7 +15037,7 @@
         <v>45276.5</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
         <v>33</v>
@@ -15292,7 +15292,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6845303</v>
+        <v>6845304</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15304,76 +15304,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J167" t="s">
         <v>44</v>
       </c>
       <c r="K167">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N167">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="O167">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q167">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R167">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6845304</v>
+        <v>6845303</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,76 +15393,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>44</v>
       </c>
       <c r="K168">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N168">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P168">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q168">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6845300</v>
+        <v>6845302</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,55 +15482,55 @@
         <v>45283.5</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
         <v>44</v>
       </c>
       <c r="K169">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N169">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
         <v>3.6</v>
       </c>
       <c r="P169">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
+        <v>1.85</v>
+      </c>
+      <c r="S169">
         <v>1.95</v>
       </c>
-      <c r="S169">
-        <v>1.9</v>
-      </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15542,16 +15542,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6845301</v>
+        <v>6845300</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,40 +15571,40 @@
         <v>45283.5</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>44</v>
       </c>
       <c r="K170">
+        <v>2.6</v>
+      </c>
+      <c r="L170">
+        <v>3.6</v>
+      </c>
+      <c r="M170">
+        <v>2.5</v>
+      </c>
+      <c r="N170">
+        <v>2.2</v>
+      </c>
+      <c r="O170">
+        <v>3.6</v>
+      </c>
+      <c r="P170">
         <v>3.1</v>
       </c>
-      <c r="L170">
-        <v>3.8</v>
-      </c>
-      <c r="M170">
-        <v>2.1</v>
-      </c>
-      <c r="N170">
-        <v>3.75</v>
-      </c>
-      <c r="O170">
-        <v>3.75</v>
-      </c>
-      <c r="P170">
-        <v>1.85</v>
-      </c>
       <c r="Q170">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
         <v>1.95</v>
@@ -15613,34 +15613,34 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6845302</v>
+        <v>6845301</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,10 +15660,10 @@
         <v>45283.5</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15675,31 +15675,31 @@
         <v>44</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L171">
+        <v>3.8</v>
+      </c>
+      <c r="M171">
+        <v>2.1</v>
+      </c>
+      <c r="N171">
         <v>3.75</v>
       </c>
-      <c r="M171">
-        <v>3.4</v>
-      </c>
-      <c r="N171">
-        <v>1.909</v>
-      </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
         <v>2.75</v>
@@ -15708,28 +15708,28 @@
         <v>2</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15749,7 +15749,7 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
         <v>34</v>
@@ -15930,7 +15930,7 @@
         <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16194,7 +16194,7 @@
         <v>45293.5</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
         <v>30</v>
@@ -16286,7 +16286,7 @@
         <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16906,7 +16906,7 @@
         <v>45297.5</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -16995,7 +16995,7 @@
         <v>45297.5</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
         <v>33</v>
@@ -17087,7 +17087,7 @@
         <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17796,7 +17796,7 @@
         <v>45318.5</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
         <v>39</v>
@@ -17885,7 +17885,7 @@
         <v>45318.5</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
         <v>34</v>
@@ -18066,7 +18066,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18496,7 +18496,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6845335</v>
+        <v>6845336</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18508,52 +18508,52 @@
         <v>45339.5</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L203">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N203">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O203">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P203">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
         <v>1.85</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
         <v>1.9</v>
@@ -18562,10 +18562,10 @@
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y203">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
         <v>-1</v>
@@ -18574,10 +18574,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6845336</v>
+        <v>6845337</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,76 +18597,76 @@
         <v>45339.5</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
         <v>44</v>
       </c>
       <c r="K204">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N204">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P204">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC204">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6845337</v>
+        <v>6845335</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,73 +18686,73 @@
         <v>45339.5</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205">
         <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K205">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M205">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N205">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O205">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P205">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB205">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18879,31 +18879,31 @@
         <v>2.1</v>
       </c>
       <c r="N207">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P207">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q207">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
+        <v>1.9</v>
+      </c>
+      <c r="S207">
+        <v>1.95</v>
+      </c>
+      <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
         <v>1.825</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>2.025</v>
-      </c>
-      <c r="T207">
-        <v>2.5</v>
-      </c>
-      <c r="U207">
-        <v>1.925</v>
-      </c>
-      <c r="V207">
-        <v>1.925</v>
       </c>
       <c r="W207">
         <v>0</v>
@@ -18926,7 +18926,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6845342</v>
+        <v>6845341</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18938,46 +18938,46 @@
         <v>45346.5</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K208">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L208">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M208">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="N208">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="O208">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P208">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q208">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
+        <v>1.875</v>
+      </c>
+      <c r="V208">
         <v>1.975</v>
-      </c>
-      <c r="V208">
-        <v>1.875</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -19000,7 +19000,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6845343</v>
+        <v>6845342</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19012,46 +19012,46 @@
         <v>45346.5</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K209">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L209">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M209">
+        <v>7</v>
+      </c>
+      <c r="N209">
+        <v>1.3</v>
+      </c>
+      <c r="O209">
+        <v>5</v>
+      </c>
+      <c r="P209">
+        <v>8</v>
+      </c>
+      <c r="Q209">
+        <v>-1.5</v>
+      </c>
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>1.95</v>
+      </c>
+      <c r="T209">
         <v>3</v>
       </c>
-      <c r="N209">
-        <v>1.909</v>
-      </c>
-      <c r="O209">
-        <v>3.3</v>
-      </c>
-      <c r="P209">
-        <v>3.8</v>
-      </c>
-      <c r="Q209">
-        <v>-0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.95</v>
-      </c>
-      <c r="S209">
-        <v>1.9</v>
-      </c>
-      <c r="T209">
-        <v>2.5</v>
-      </c>
       <c r="U209">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V209">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19074,7 +19074,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6845341</v>
+        <v>6845343</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19086,60 +19086,430 @@
         <v>45346.5</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K210">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M210">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O210">
         <v>3.3</v>
       </c>
       <c r="P210">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q210">
+        <v>-0.5</v>
+      </c>
+      <c r="R210">
+        <v>2.025</v>
+      </c>
+      <c r="S210">
+        <v>1.825</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.975</v>
+      </c>
+      <c r="V210">
+        <v>1.875</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6845345</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45349.69791666666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211" t="s">
+        <v>34</v>
+      </c>
+      <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>3.5</v>
+      </c>
+      <c r="M211">
+        <v>2.1</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211">
+        <v>3.5</v>
+      </c>
+      <c r="P211">
+        <v>2.1</v>
+      </c>
+      <c r="Q211">
         <v>0.25</v>
       </c>
-      <c r="R210">
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>1.875</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
+        <v>1.95</v>
+      </c>
+      <c r="V211">
+        <v>1.9</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6845346</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45349.69791666666</v>
+      </c>
+      <c r="F212" t="s">
+        <v>40</v>
+      </c>
+      <c r="G212" t="s">
+        <v>41</v>
+      </c>
+      <c r="K212">
+        <v>1.4</v>
+      </c>
+      <c r="L212">
+        <v>4.333</v>
+      </c>
+      <c r="M212">
+        <v>7</v>
+      </c>
+      <c r="N212">
+        <v>1.4</v>
+      </c>
+      <c r="O212">
+        <v>4.333</v>
+      </c>
+      <c r="P212">
+        <v>7</v>
+      </c>
+      <c r="Q212">
+        <v>-1.25</v>
+      </c>
+      <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>2</v>
+      </c>
+      <c r="V212">
         <v>1.85</v>
       </c>
-      <c r="S210">
-        <v>2</v>
-      </c>
-      <c r="T210">
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6845347</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45349.69791666666</v>
+      </c>
+      <c r="F213" t="s">
+        <v>30</v>
+      </c>
+      <c r="G213" t="s">
+        <v>39</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>3.4</v>
+      </c>
+      <c r="M213">
+        <v>3.4</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213">
+        <v>3.4</v>
+      </c>
+      <c r="P213">
+        <v>3.4</v>
+      </c>
+      <c r="Q213">
+        <v>-0.5</v>
+      </c>
+      <c r="R213">
+        <v>2.05</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
         <v>2.5</v>
       </c>
-      <c r="U210">
-        <v>1.95</v>
-      </c>
-      <c r="V210">
-        <v>1.9</v>
-      </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
-      <c r="Y210">
-        <v>0</v>
-      </c>
-      <c r="Z210">
-        <v>0</v>
-      </c>
-      <c r="AA210">
+      <c r="U213">
+        <v>1.975</v>
+      </c>
+      <c r="V213">
+        <v>1.875</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6845348</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45349.69791666666</v>
+      </c>
+      <c r="F214" t="s">
+        <v>32</v>
+      </c>
+      <c r="G214" t="s">
+        <v>36</v>
+      </c>
+      <c r="K214">
+        <v>1.727</v>
+      </c>
+      <c r="L214">
+        <v>3.75</v>
+      </c>
+      <c r="M214">
+        <v>4</v>
+      </c>
+      <c r="N214">
+        <v>1.7</v>
+      </c>
+      <c r="O214">
+        <v>3.8</v>
+      </c>
+      <c r="P214">
+        <v>4</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.975</v>
+      </c>
+      <c r="S214">
+        <v>1.875</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.825</v>
+      </c>
+      <c r="V214">
+        <v>2.025</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6853957</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45349.69791666666</v>
+      </c>
+      <c r="F215" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215" t="s">
+        <v>38</v>
+      </c>
+      <c r="K215">
+        <v>1.8</v>
+      </c>
+      <c r="L215">
+        <v>3.6</v>
+      </c>
+      <c r="M215">
+        <v>3.8</v>
+      </c>
+      <c r="N215">
+        <v>1.8</v>
+      </c>
+      <c r="O215">
+        <v>3.75</v>
+      </c>
+      <c r="P215">
+        <v>3.75</v>
+      </c>
+      <c r="Q215">
+        <v>-0.5</v>
+      </c>
+      <c r="R215">
+        <v>1.85</v>
+      </c>
+      <c r="S215">
+        <v>2</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
+        <v>2.05</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6845311</v>
+        <v>6845310</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,55 +16194,55 @@
         <v>45293.5</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
         <v>42</v>
       </c>
       <c r="K177">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M177">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="N177">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="O177">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P177">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16251,19 +16251,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1</v>
+        <v>0.181</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6845310</v>
+        <v>6845311</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,56 +16283,56 @@
         <v>45293.5</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>42</v>
       </c>
       <c r="K178">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="L178">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="N178">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O178">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="Q178">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>1.925</v>
+      </c>
+      <c r="V178">
         <v>1.875</v>
       </c>
-      <c r="S178">
-        <v>1.925</v>
-      </c>
-      <c r="T178">
-        <v>3.25</v>
-      </c>
-      <c r="U178">
-        <v>1.95</v>
-      </c>
-      <c r="V178">
-        <v>1.85</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
@@ -16340,19 +16340,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.181</v>
+        <v>1</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
+        <v>0.4625</v>
+      </c>
+      <c r="AC178">
         <v>-0.5</v>
-      </c>
-      <c r="AC178">
-        <v>0.425</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6845314</v>
+        <v>6845312</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,13 +16372,13 @@
         <v>45293.5</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16387,43 +16387,43 @@
         <v>43</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N179">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P179">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
         <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16432,16 +16432,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6845312</v>
+        <v>6845314</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,13 +16550,13 @@
         <v>45293.5</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -16565,43 +16565,43 @@
         <v>43</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N181">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
         <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16610,16 +16610,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -19208,7 +19208,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6853957</v>
+        <v>6845345</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19220,46 +19220,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K211">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M211">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="N211">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O211">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
+        <v>1.875</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
         <v>1.925</v>
       </c>
-      <c r="S211">
+      <c r="V211">
         <v>1.925</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.875</v>
-      </c>
-      <c r="V211">
-        <v>1.975</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6845345</v>
+        <v>6845346</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19294,46 +19294,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K212">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L212">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M212">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N212">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P212">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T212">
         <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19356,7 +19356,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6845346</v>
+        <v>6845347</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19368,46 +19368,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K213">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N213">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19430,7 +19430,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6845347</v>
+        <v>6845348</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19442,46 +19442,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
         <v>-0.5</v>
       </c>
       <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
         <v>2.05</v>
-      </c>
-      <c r="S214">
-        <v>1.8</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19504,7 +19504,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6845348</v>
+        <v>6853957</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19516,46 +19516,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K215">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q215">
         <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S215">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
         <v>0</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -106,16 +106,22 @@
     <t>Arbroath</t>
   </si>
   <si>
+    <t>Partick</t>
+  </si>
+  <si>
     <t>Morton</t>
+  </si>
+  <si>
+    <t>Inverness CT</t>
   </si>
   <si>
     <t>Dunfermline</t>
   </si>
   <si>
-    <t>Inverness CT</t>
+    <t>Queens Park</t>
   </si>
   <si>
-    <t>Partick</t>
+    <t>Raith</t>
   </si>
   <si>
     <t>Dundee Utd</t>
@@ -127,19 +133,13 @@
     <t>Airdrieonians</t>
   </si>
   <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>Raith</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6845221</v>
+        <v>6845222</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -705,10 +705,10 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
@@ -723,49 +723,49 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6845219</v>
+        <v>6845221</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,55 +791,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -848,13 +848,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6845222</v>
+        <v>6845219</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,31 +975,31 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L6">
+        <v>3.6</v>
+      </c>
+      <c r="M6">
+        <v>4.5</v>
+      </c>
+      <c r="N6">
+        <v>1.909</v>
+      </c>
+      <c r="O6">
+        <v>3.3</v>
+      </c>
+      <c r="P6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>1.7</v>
-      </c>
-      <c r="O6">
-        <v>3.8</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.975</v>
@@ -1011,28 +1011,28 @@
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845225</v>
+        <v>6845226</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,10 +1058,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1070,61 +1070,61 @@
         <v>41</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N7">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q7">
         <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845224</v>
+        <v>6845227</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,43 +1147,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.5</v>
@@ -1195,7 +1195,7 @@
         <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1204,16 +1204,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845223</v>
+        <v>6845225</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1239,7 +1239,7 @@
         <v>33</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1248,61 +1248,61 @@
         <v>40</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
+        <v>4.2</v>
+      </c>
+      <c r="Q9">
+        <v>-0.75</v>
+      </c>
+      <c r="R9">
         <v>2.05</v>
       </c>
-      <c r="Q9">
-        <v>0.5</v>
-      </c>
-      <c r="R9">
+      <c r="S9">
         <v>1.8</v>
       </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
       <c r="T9">
+        <v>2.5</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>1.85</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
         <v>2.75</v>
       </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>2.3</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
         <v>0.8</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
       <c r="AB9">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845226</v>
+        <v>6845224</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,73 +1325,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>1.85</v>
+      </c>
+      <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="M10">
+        <v>3.75</v>
+      </c>
+      <c r="N10">
+        <v>1.95</v>
+      </c>
+      <c r="O10">
+        <v>3.4</v>
+      </c>
+      <c r="P10">
+        <v>3.4</v>
+      </c>
+      <c r="Q10">
+        <v>-0.5</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <v>1.925</v>
+      </c>
+      <c r="V10">
+        <v>1.875</v>
+      </c>
+      <c r="W10">
+        <v>0.95</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10">
-        <v>1.7</v>
-      </c>
-      <c r="L10">
-        <v>3.6</v>
-      </c>
-      <c r="M10">
-        <v>4.333</v>
-      </c>
-      <c r="N10">
-        <v>1.7</v>
-      </c>
-      <c r="O10">
-        <v>3.6</v>
-      </c>
-      <c r="P10">
-        <v>4.333</v>
-      </c>
-      <c r="Q10">
-        <v>-0.75</v>
-      </c>
-      <c r="R10">
-        <v>1.925</v>
-      </c>
-      <c r="S10">
-        <v>1.875</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.975</v>
-      </c>
-      <c r="V10">
-        <v>1.825</v>
-      </c>
-      <c r="W10">
-        <v>0.7</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.4625</v>
-      </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845227</v>
+        <v>6845223</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,52 +1417,52 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O11">
         <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
         <v>2.05</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1471,16 +1471,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845232</v>
+        <v>6845229</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,73 +1589,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845231</v>
+        <v>6845230</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,55 +1678,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1735,19 +1735,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>4.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6845230</v>
+        <v>6845231</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1770,52 +1770,52 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1824,19 +1824,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6845229</v>
+        <v>6845232</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,73 +1856,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>3.6</v>
+      </c>
+      <c r="M16">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>2.3</v>
-      </c>
-      <c r="L16">
-        <v>3.3</v>
-      </c>
-      <c r="M16">
-        <v>2.8</v>
-      </c>
       <c r="N16">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O16">
+        <v>3.6</v>
+      </c>
+      <c r="P16">
         <v>3.4</v>
       </c>
-      <c r="P16">
-        <v>2.25</v>
-      </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1945,7 +1945,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>2.15</v>
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6845235</v>
+        <v>6845233</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,13 +2034,13 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2049,61 +2049,61 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6845236</v>
+        <v>6845237</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,73 +2123,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
         <v>2.6</v>
       </c>
       <c r="N19">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6845237</v>
+        <v>6845235</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,34 +2212,34 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
       </c>
       <c r="K20">
+        <v>2.45</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
+        <v>2.75</v>
+      </c>
+      <c r="N20">
         <v>2.375</v>
       </c>
-      <c r="L20">
-        <v>3.5</v>
-      </c>
-      <c r="M20">
-        <v>2.6</v>
-      </c>
-      <c r="N20">
-        <v>2.1</v>
-      </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
         <v>3.1</v>
@@ -2248,13 +2248,13 @@
         <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
         <v>1.975</v>
@@ -2263,25 +2263,25 @@
         <v>1.825</v>
       </c>
       <c r="W20">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6845233</v>
+        <v>6845234</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,58 +2301,58 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2361,16 +2361,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6845234</v>
+        <v>6845236</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,76 +2390,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
+        <v>3.6</v>
+      </c>
+      <c r="M22">
+        <v>2.6</v>
+      </c>
+      <c r="N22">
+        <v>2.7</v>
+      </c>
+      <c r="O22">
         <v>3.75</v>
       </c>
-      <c r="M22">
-        <v>4.5</v>
-      </c>
-      <c r="N22">
-        <v>1.533</v>
-      </c>
-      <c r="O22">
-        <v>4.5</v>
-      </c>
       <c r="P22">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2479,10 +2479,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2657,10 +2657,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>1.571</v>
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6845241</v>
+        <v>6845242</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6845242</v>
+        <v>6845241</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,10 +2924,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
         <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3013,10 +3013,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3102,10 +3102,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
         <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>1.909</v>
@@ -3194,7 +3194,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845251</v>
+        <v>6845250</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,55 +3369,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>39</v>
       </c>
       <c r="K33">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3426,16 +3426,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6845252</v>
+        <v>6845254</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,76 +3458,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>3.25</v>
+      </c>
+      <c r="M34">
+        <v>3.4</v>
+      </c>
+      <c r="N34">
+        <v>2.3</v>
+      </c>
+      <c r="O34">
+        <v>3.2</v>
+      </c>
+      <c r="P34">
+        <v>2.875</v>
+      </c>
+      <c r="Q34">
+        <v>-0.25</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.8</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>1.8</v>
+      </c>
+      <c r="W34">
+        <v>1.3</v>
+      </c>
+      <c r="X34">
+        <v>-1</v>
+      </c>
+      <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34">
-        <v>1.7</v>
-      </c>
-      <c r="L34">
-        <v>3.6</v>
-      </c>
-      <c r="M34">
-        <v>4.2</v>
-      </c>
-      <c r="N34">
-        <v>1.533</v>
-      </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
-      <c r="P34">
-        <v>5.5</v>
-      </c>
-      <c r="Q34">
-        <v>-1</v>
-      </c>
-      <c r="R34">
-        <v>1.875</v>
-      </c>
-      <c r="S34">
-        <v>1.975</v>
-      </c>
-      <c r="T34">
-        <v>3</v>
-      </c>
-      <c r="U34">
-        <v>1.975</v>
-      </c>
-      <c r="V34">
-        <v>1.875</v>
-      </c>
-      <c r="W34">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X34">
-        <v>-1</v>
-      </c>
-      <c r="Y34">
-        <v>-1</v>
-      </c>
-      <c r="Z34">
-        <v>0.875</v>
-      </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845253</v>
+        <v>6845252</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3547,76 +3547,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L35">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
         <v>1.875</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845250</v>
+        <v>6845253</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3636,16 +3636,16 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>39</v>
@@ -3654,37 +3654,37 @@
         <v>2</v>
       </c>
       <c r="L36">
+        <v>3.25</v>
+      </c>
+      <c r="M36">
         <v>3.4</v>
       </c>
-      <c r="M36">
-        <v>3.25</v>
-      </c>
       <c r="N36">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O36">
         <v>3.2</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3693,19 +3693,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845254</v>
+        <v>6845251</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,76 +3725,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L37">
+        <v>3.4</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>2.8</v>
+      </c>
+      <c r="O37">
         <v>3.25</v>
       </c>
-      <c r="M37">
-        <v>3.4</v>
-      </c>
-      <c r="N37">
+      <c r="P37">
         <v>2.3</v>
       </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
-      <c r="P37">
-        <v>2.875</v>
-      </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V37">
         <v>1.8</v>
       </c>
       <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
         <v>1.3</v>
       </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB37">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6845255</v>
+        <v>6845259</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,43 +3814,43 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O38">
         <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
         <v>1.95</v>
@@ -3859,31 +3859,31 @@
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,10 +3903,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K39">
         <v>1.833</v>
@@ -3995,7 +3995,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6845259</v>
+        <v>6845255</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4084,40 +4084,40 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K41">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
         <v>1.95</v>
@@ -4126,31 +4126,31 @@
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,10 +4170,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6845262</v>
+        <v>6845264</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,55 +4259,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>39</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4316,19 +4316,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6845264</v>
+        <v>6845262</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4351,52 +4351,52 @@
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>39</v>
       </c>
       <c r="K44">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
+        <v>3.5</v>
+      </c>
+      <c r="M44">
         <v>3.3</v>
       </c>
-      <c r="M44">
-        <v>2.55</v>
-      </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4405,19 +4405,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,10 +4437,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4449,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4526,7 +4526,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K46">
         <v>1.5</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6845269</v>
+        <v>6845266</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4615,34 +4615,34 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
         <v>3.1</v>
@@ -4654,37 +4654,37 @@
         <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K48">
         <v>2.5</v>
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6845266</v>
+        <v>6845269</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4796,31 +4796,31 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
+        <v>3.6</v>
+      </c>
+      <c r="M49">
+        <v>3.4</v>
+      </c>
+      <c r="N49">
+        <v>2.1</v>
+      </c>
+      <c r="O49">
         <v>3.25</v>
-      </c>
-      <c r="M49">
-        <v>3.5</v>
-      </c>
-      <c r="N49">
-        <v>2.2</v>
-      </c>
-      <c r="O49">
-        <v>3.2</v>
       </c>
       <c r="P49">
         <v>3.1</v>
@@ -4832,37 +4832,37 @@
         <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4882,10 +4882,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
         <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4971,10 +4971,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5060,10 +5060,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5072,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5149,10 +5149,10 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6845275</v>
+        <v>6845276</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,73 +5238,73 @@
         <v>45234.5</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
+        <v>3.25</v>
+      </c>
+      <c r="N54">
+        <v>2.375</v>
+      </c>
+      <c r="O54">
         <v>3.4</v>
       </c>
-      <c r="M54">
-        <v>2.2</v>
-      </c>
-      <c r="N54">
-        <v>3</v>
-      </c>
-      <c r="O54">
-        <v>3.5</v>
-      </c>
       <c r="P54">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6845279</v>
+        <v>6845275</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.2</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
         <v>3.5</v>
       </c>
-      <c r="M55">
-        <v>3.5</v>
-      </c>
-      <c r="N55">
+      <c r="P55">
+        <v>2.15</v>
+      </c>
+      <c r="Q55">
+        <v>0.25</v>
+      </c>
+      <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
         <v>1.8</v>
       </c>
-      <c r="O55">
-        <v>3.6</v>
-      </c>
-      <c r="P55">
-        <v>3.8</v>
-      </c>
-      <c r="Q55">
-        <v>-0.5</v>
-      </c>
-      <c r="R55">
-        <v>1.8</v>
-      </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.85</v>
-      </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6845276</v>
+        <v>6845277</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,76 +5416,76 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M56">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N56">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P56">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6845277</v>
+        <v>6845279</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,10 +5505,10 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5517,49 +5517,49 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K57">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
+        <v>1.8</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>2.5</v>
+      </c>
+      <c r="U57">
         <v>1.85</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
-      <c r="U57">
-        <v>2</v>
-      </c>
-      <c r="V57">
-        <v>1.8</v>
-      </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5568,13 +5568,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.95</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
-      <c r="AC57">
-        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,10 +5594,10 @@
         <v>45240.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6845284</v>
+        <v>6845280</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,76 +5683,76 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59">
+        <v>2.2</v>
+      </c>
+      <c r="L59">
+        <v>3.25</v>
+      </c>
+      <c r="M59">
         <v>3</v>
       </c>
-      <c r="J59" t="s">
-        <v>39</v>
-      </c>
-      <c r="K59">
-        <v>2.875</v>
-      </c>
-      <c r="L59">
-        <v>3.5</v>
-      </c>
-      <c r="M59">
+      <c r="N59">
         <v>2.15</v>
-      </c>
-      <c r="N59">
-        <v>2.75</v>
       </c>
       <c r="O59">
         <v>3.3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
         <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6845283</v>
+        <v>6845282</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,58 +5772,58 @@
         <v>45241.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M60">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N60">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R60">
+        <v>1.75</v>
+      </c>
+      <c r="S60">
+        <v>2.05</v>
+      </c>
+      <c r="T60">
+        <v>2.25</v>
+      </c>
+      <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="S60">
-        <v>1.85</v>
-      </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
-      <c r="U60">
-        <v>1.8</v>
-      </c>
-      <c r="V60">
-        <v>2</v>
-      </c>
       <c r="W60">
-        <v>0.6659999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5832,16 +5832,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6845282</v>
+        <v>6845283</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5861,58 +5861,58 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N61">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>1.375</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5921,16 +5921,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6845280</v>
+        <v>6845284</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N62">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O62">
         <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>45248.5</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>2.2</v>
@@ -6128,7 +6128,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K64">
         <v>1.909</v>
@@ -6220,7 +6220,7 @@
         <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6306,10 +6306,10 @@
         <v>45262.5</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>1.727</v>
@@ -6395,10 +6395,10 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6407,7 +6407,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K67">
         <v>2.375</v>
@@ -6484,7 +6484,7 @@
         <v>45269.5</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845292</v>
+        <v>6845290</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,49 +6573,49 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N69">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O69">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.975</v>
@@ -6624,25 +6624,25 @@
         <v>1.825</v>
       </c>
       <c r="W69">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6665,7 +6665,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6845290</v>
+        <v>6845292</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6754,46 +6754,46 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O71">
+        <v>5.5</v>
+      </c>
+      <c r="P71">
+        <v>8</v>
+      </c>
+      <c r="Q71">
+        <v>-1.5</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
         <v>3</v>
-      </c>
-      <c r="P71">
-        <v>2.7</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>1.975</v>
-      </c>
-      <c r="S71">
-        <v>1.825</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
       </c>
       <c r="U71">
         <v>1.975</v>
@@ -6802,25 +6802,25 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.825</v>
-      </c>
-      <c r="AB71">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6840,7 +6840,7 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6852,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K72">
         <v>2.7</v>
@@ -6932,7 +6932,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7018,10 +7018,10 @@
         <v>45276.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845297</v>
+        <v>6845295</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845298</v>
+        <v>6845299</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N76">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845299</v>
+        <v>6845297</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845295</v>
+        <v>6845298</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,76 +7374,76 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O78">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6845303</v>
+        <v>6845304</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7463,76 +7463,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
         <v>37</v>
       </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P79">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845304</v>
+        <v>6845303</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,76 +7552,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K80">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N80">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6845301</v>
+        <v>6845302</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,10 +7641,10 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7653,34 +7653,34 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L81">
+        <v>3.75</v>
+      </c>
+      <c r="M81">
+        <v>3.4</v>
+      </c>
+      <c r="N81">
+        <v>1.909</v>
+      </c>
+      <c r="O81">
+        <v>3.6</v>
+      </c>
+      <c r="P81">
         <v>3.8</v>
       </c>
-      <c r="M81">
-        <v>2.1</v>
-      </c>
-      <c r="N81">
-        <v>3.75</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
-      <c r="P81">
+      <c r="Q81">
+        <v>-0.5</v>
+      </c>
+      <c r="R81">
         <v>1.85</v>
       </c>
-      <c r="Q81">
-        <v>0.5</v>
-      </c>
-      <c r="R81">
+      <c r="S81">
         <v>1.95</v>
-      </c>
-      <c r="S81">
-        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.75</v>
@@ -7689,28 +7689,28 @@
         <v>2</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
         <v>0.95</v>
       </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6845300</v>
+        <v>6845301</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,40 +7730,40 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M82">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N82">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
         <v>1.95</v>
@@ -7772,34 +7772,34 @@
         <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6845302</v>
+        <v>6845300</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7819,55 +7819,55 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N83">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O83">
         <v>3.6</v>
       </c>
       <c r="P83">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7879,16 +7879,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,10 +7908,10 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>1.833</v>
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6845308</v>
+        <v>6845305</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,70 +8000,70 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
         <v>3.4</v>
       </c>
       <c r="M85">
+        <v>2.9</v>
+      </c>
+      <c r="N85">
         <v>2.375</v>
       </c>
-      <c r="N85">
-        <v>2.4</v>
-      </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y85">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8089,7 +8089,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K86">
         <v>2.2</v>
@@ -8175,7 +8175,7 @@
         <v>45290.5</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>29</v>
@@ -8187,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.444</v>
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845305</v>
+        <v>6845308</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,73 +8264,73 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845311</v>
+        <v>6845310</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,55 +8353,55 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
         <v>39</v>
       </c>
       <c r="K89">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8410,19 +8410,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>0.181</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845310</v>
+        <v>6845313</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,46 +8442,46 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="N90">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>1.181</v>
+        <v>5.75</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
         <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
         <v>3.25</v>
@@ -8490,28 +8490,28 @@
         <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845314</v>
+        <v>6845312</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,58 +8531,58 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N91">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O91">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
         <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8591,16 +8591,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845313</v>
+        <v>6845314</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,58 +8620,58 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8680,16 +8680,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
+        <v>0.75</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
         <v>-0.5</v>
       </c>
-      <c r="AA92">
-        <v>0.4875</v>
-      </c>
-      <c r="AB92">
-        <v>0.95</v>
-      </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845312</v>
+        <v>6845311</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,49 +8709,49 @@
         <v>45293.5</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N93">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.925</v>
@@ -8760,25 +8760,25 @@
         <v>1.875</v>
       </c>
       <c r="W93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,10 +8798,10 @@
         <v>45296.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6845318</v>
+        <v>6845315</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,58 +8887,58 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="N95">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O95">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>8.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8947,16 +8947,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6845317</v>
+        <v>6845318</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8976,73 +8976,73 @@
         <v>45297.5</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O96">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845316</v>
+        <v>6845317</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,13 +9065,13 @@
         <v>45297.5</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>3</v>
@@ -9080,40 +9080,40 @@
         <v>39</v>
       </c>
       <c r="K97">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M97">
+        <v>7</v>
+      </c>
+      <c r="N97">
+        <v>1.4</v>
+      </c>
+      <c r="O97">
+        <v>5.5</v>
+      </c>
+      <c r="P97">
+        <v>5.25</v>
+      </c>
+      <c r="Q97">
+        <v>-1.25</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
         <v>2.5</v>
       </c>
-      <c r="N97">
-        <v>2.15</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>2.8</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.825</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9122,16 +9122,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845315</v>
+        <v>6845316</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,76 +9154,76 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L98">
         <v>3.75</v>
       </c>
       <c r="M98">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9332,10 +9332,10 @@
         <v>45304.5</v>
       </c>
       <c r="F100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
         <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>2.75</v>
@@ -9424,7 +9424,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K101">
         <v>2.25</v>
@@ -9510,10 +9510,10 @@
         <v>45304.5</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9599,7 +9599,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K103">
         <v>1.833</v>
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845326</v>
+        <v>6845327</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9703,61 +9703,61 @@
         <v>41</v>
       </c>
       <c r="K104">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>1.4</v>
+      </c>
+      <c r="O104">
+        <v>4.2</v>
+      </c>
+      <c r="P104">
         <v>7</v>
-      </c>
-      <c r="N104">
-        <v>1.363</v>
-      </c>
-      <c r="O104">
-        <v>4.75</v>
-      </c>
-      <c r="P104">
-        <v>7.5</v>
       </c>
       <c r="Q104">
         <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
         <v>2.025</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X104">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,10 +9777,10 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>2.5</v>
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845327</v>
+        <v>6845326</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,13 +9866,13 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9881,61 +9881,61 @@
         <v>40</v>
       </c>
       <c r="K106">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N106">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
         <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
         <v>2.025</v>
       </c>
       <c r="W106">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9955,10 +9955,10 @@
         <v>45318.5</v>
       </c>
       <c r="F107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
         <v>37</v>
-      </c>
-      <c r="G107" t="s">
-        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10044,7 +10044,7 @@
         <v>45318.5</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -10133,10 +10133,10 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" t="s">
         <v>31</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,10 +10222,10 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10314,7 +10314,7 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10400,10 +10400,10 @@
         <v>45332.5</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10489,10 +10489,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>3.25</v>
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6845336</v>
+        <v>6845335</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,52 +10578,52 @@
         <v>45339.5</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K114">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N114">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S114">
         <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
         <v>1.9</v>
@@ -10632,10 +10632,10 @@
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z114">
         <v>-1</v>
@@ -10644,10 +10644,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10667,10 +10667,10 @@
         <v>45339.5</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K115">
         <v>2.4</v>
@@ -10744,7 +10744,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6845335</v>
+        <v>6845336</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10756,52 +10756,52 @@
         <v>45339.5</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K116">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
         <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
         <v>1.9</v>
@@ -10810,10 +10810,10 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
         <v>-1</v>
@@ -10822,10 +10822,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10857,7 +10857,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K117">
         <v>2.6</v>
@@ -10934,10 +10934,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
         <v>33</v>
-      </c>
-      <c r="G118" t="s">
-        <v>31</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11011,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6845340</v>
+        <v>6845343</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11023,13 +11023,13 @@
         <v>45346.5</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11038,61 +11038,61 @@
         <v>41</v>
       </c>
       <c r="K119">
+        <v>2.2</v>
+      </c>
+      <c r="L119">
+        <v>3.3</v>
+      </c>
+      <c r="M119">
         <v>3</v>
       </c>
-      <c r="L119">
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>3.3</v>
+      </c>
+      <c r="P119">
         <v>3.5</v>
       </c>
-      <c r="M119">
-        <v>2.1</v>
-      </c>
-      <c r="N119">
-        <v>3.5</v>
-      </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
-      <c r="P119">
-        <v>1.909</v>
-      </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6845341</v>
+        <v>6845342</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,73 +11112,73 @@
         <v>45346.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
         <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6845342</v>
+        <v>6845341</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,73 +11201,73 @@
         <v>45346.5</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K121">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L121">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="N121">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="O121">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q121">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V121">
         <v>1.85</v>
       </c>
       <c r="W121">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845343</v>
+        <v>6845340</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,13 +11290,13 @@
         <v>45346.5</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11305,61 +11305,61 @@
         <v>40</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11379,10 +11379,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K123">
         <v>3</v>
@@ -11415,10 +11415,10 @@
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
         <v>0</v>
@@ -11453,10 +11453,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K124">
         <v>1.4</v>
@@ -11489,10 +11489,10 @@
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K125">
         <v>2</v>
@@ -11554,19 +11554,19 @@
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11601,7 +11601,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
         <v>29</v>
@@ -11616,31 +11616,31 @@
         <v>4</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O126">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
         <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -11675,10 +11675,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K127">
         <v>1.8</v>
@@ -11693,28 +11693,28 @@
         <v>1.95</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
         <v>0</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -106,31 +106,31 @@
     <t>Arbroath</t>
   </si>
   <si>
+    <t>Inverness CT</t>
+  </si>
+  <si>
     <t>Partick</t>
   </si>
   <si>
     <t>Morton</t>
   </si>
   <si>
-    <t>Inverness CT</t>
-  </si>
-  <si>
     <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
   </si>
   <si>
     <t>Raith</t>
   </si>
   <si>
-    <t>Dundee Utd</t>
+    <t>Queens Park</t>
   </si>
   <si>
     <t>Ayr</t>
   </si>
   <si>
     <t>Airdrieonians</t>
+  </si>
+  <si>
+    <t>Dundee Utd</t>
   </si>
   <si>
     <t>A</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6845222</v>
+        <v>6845220</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -705,34 +705,34 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
         <v>1.975</v>
@@ -741,7 +741,7 @@
         <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
         <v>1.925</v>
@@ -753,10 +753,10 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z3">
         <v>-1</v>
@@ -765,10 +765,10 @@
         <v>0.825</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6845221</v>
+        <v>6845222</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,16 +791,16 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -812,49 +812,49 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6845220</v>
+        <v>6845221</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,73 +880,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
         <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845226</v>
+        <v>6845227</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,55 +1058,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>1.75</v>
+      </c>
+      <c r="S7">
+        <v>2.05</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
         <v>1.925</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>0.7</v>
+        <v>1.375</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1115,16 +1115,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845227</v>
+        <v>6845226</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,55 +1147,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>0.7</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1204,16 +1204,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845225</v>
+        <v>6845224</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,40 +1236,40 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>1.8</v>
@@ -1278,31 +1278,31 @@
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845224</v>
+        <v>6845223</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,73 +1325,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
       </c>
       <c r="K10">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N10">
+        <v>3.3</v>
+      </c>
+      <c r="O10">
+        <v>3.3</v>
+      </c>
+      <c r="P10">
+        <v>2.05</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2.05</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>3.4</v>
-      </c>
-      <c r="Q10">
+      <c r="V10">
+        <v>1.9</v>
+      </c>
+      <c r="W10">
+        <v>2.3</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0.8</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>0.475</v>
+      </c>
+      <c r="AC10">
         <v>-0.5</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>1.8</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.925</v>
-      </c>
-      <c r="V10">
-        <v>1.875</v>
-      </c>
-      <c r="W10">
-        <v>0.95</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845223</v>
+        <v>6845225</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,73 +1414,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
+        <v>4.2</v>
+      </c>
+      <c r="Q11">
+        <v>-0.75</v>
+      </c>
+      <c r="R11">
         <v>2.05</v>
       </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>2.05</v>
-      </c>
       <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.85</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>2.75</v>
       </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.9</v>
-      </c>
-      <c r="W11">
-        <v>2.3</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.8</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845229</v>
+        <v>6845228</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1592,70 +1592,70 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>2.15</v>
+      </c>
+      <c r="L13">
+        <v>3.4</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13">
-        <v>2.3</v>
-      </c>
-      <c r="L13">
-        <v>3.3</v>
-      </c>
-      <c r="M13">
-        <v>2.8</v>
-      </c>
       <c r="N13">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
+        <v>2.05</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
         <v>1.875</v>
       </c>
-      <c r="S13">
-        <v>1.925</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845230</v>
+        <v>6845232</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,76 +1678,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
         <v>3.4</v>
       </c>
-      <c r="P14">
-        <v>2.8</v>
-      </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA14">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6845231</v>
+        <v>6845229</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,10 +1767,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1782,40 +1782,40 @@
         <v>39</v>
       </c>
       <c r="K15">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1824,16 +1824,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>4.25</v>
+        <v>1.25</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6845232</v>
+        <v>6845230</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,76 +1856,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6845228</v>
+        <v>6845231</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,73 +1945,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N17">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
         <v>3.5</v>
       </c>
       <c r="P17">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6845237</v>
+        <v>6845235</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,34 +2123,34 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
+        <v>2.45</v>
+      </c>
+      <c r="L19">
+        <v>3.1</v>
+      </c>
+      <c r="M19">
+        <v>2.75</v>
+      </c>
+      <c r="N19">
         <v>2.375</v>
       </c>
-      <c r="L19">
-        <v>3.5</v>
-      </c>
-      <c r="M19">
-        <v>2.6</v>
-      </c>
-      <c r="N19">
-        <v>2.1</v>
-      </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
         <v>3.1</v>
@@ -2159,13 +2159,13 @@
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
         <v>1.975</v>
@@ -2174,25 +2174,25 @@
         <v>1.825</v>
       </c>
       <c r="W19">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6845235</v>
+        <v>6845236</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2215,73 +2215,73 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
         <v>2.025</v>
-      </c>
-      <c r="S20">
-        <v>1.775</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,10 +2301,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6845236</v>
+        <v>6845237</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,73 +2390,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
         <v>2.6</v>
       </c>
       <c r="N22">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,10 +2479,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845238</v>
+        <v>6845242</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,13 +2568,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2583,31 +2583,31 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2619,7 +2619,7 @@
         <v>1.925</v>
       </c>
       <c r="W24">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2628,16 +2628,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.8</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.925</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>0.875</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845240</v>
+        <v>6845238</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N25">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6845242</v>
+        <v>6845240</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,7 +2746,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2755,67 +2755,67 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -2924,10 +2924,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6845244</v>
+        <v>6845246</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,46 +3013,46 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
         <v>38</v>
       </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
+        <v>1.825</v>
+      </c>
+      <c r="S29">
         <v>2.025</v>
-      </c>
-      <c r="S29">
-        <v>1.825</v>
       </c>
       <c r="T29">
         <v>2.5</v>
@@ -3064,19 +3064,19 @@
         <v>1.925</v>
       </c>
       <c r="W29">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845245</v>
+        <v>6845247</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,49 +3102,49 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
         <v>1.95</v>
@@ -3153,25 +3153,25 @@
         <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845246</v>
+        <v>6845245</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,43 +3191,43 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
         <v>32</v>
       </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
         <v>3.4</v>
       </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="N31">
-        <v>4.2</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S31">
         <v>2.025</v>
@@ -3236,31 +3236,31 @@
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6845247</v>
+        <v>6845244</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,76 +3280,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845250</v>
+        <v>6845253</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,16 +3369,16 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>39</v>
@@ -3387,37 +3387,37 @@
         <v>2</v>
       </c>
       <c r="L33">
+        <v>3.25</v>
+      </c>
+      <c r="M33">
         <v>3.4</v>
       </c>
-      <c r="M33">
-        <v>3.25</v>
-      </c>
       <c r="N33">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
         <v>3.2</v>
       </c>
       <c r="P33">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
         <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3426,19 +3426,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6845254</v>
+        <v>6845250</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,76 +3458,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
       </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>3</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
       <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
         <v>3.25</v>
       </c>
-      <c r="M34">
-        <v>3.4</v>
-      </c>
       <c r="N34">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O34">
         <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845252</v>
+        <v>6845251</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,67 +3553,67 @@
         <v>34</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K35">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W35">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845253</v>
+        <v>6845254</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3639,16 +3639,16 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3660,52 +3660,52 @@
         <v>3.4</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O36">
         <v>3.2</v>
       </c>
       <c r="P36">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845251</v>
+        <v>6845252</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,73 +3725,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
       </c>
       <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N37">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6845259</v>
+        <v>6845255</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,7 +3814,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -3823,34 +3823,34 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
         <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
         <v>1.95</v>
@@ -3859,31 +3859,31 @@
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6845258</v>
+        <v>6845257</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,7 +3903,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -3918,25 +3918,25 @@
         <v>40</v>
       </c>
       <c r="K39">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="O39">
         <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>2.025</v>
@@ -3948,10 +3948,10 @@
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3963,16 +3963,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6845257</v>
+        <v>6845258</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,10 +3992,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
         <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4007,25 +4007,25 @@
         <v>40</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N40">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
         <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.025</v>
@@ -4037,10 +4037,10 @@
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4052,16 +4052,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6845255</v>
+        <v>6845259</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4081,43 +4081,43 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
         <v>38</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N41">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
         <v>1.95</v>
@@ -4126,31 +4126,31 @@
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,10 +4170,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4259,10 +4259,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4437,10 +4437,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4526,7 +4526,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6845266</v>
+        <v>6845269</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4615,34 +4615,34 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>3.4</v>
+      </c>
+      <c r="N47">
+        <v>2.1</v>
+      </c>
+      <c r="O47">
         <v>3.25</v>
-      </c>
-      <c r="M47">
-        <v>3.5</v>
-      </c>
-      <c r="N47">
-        <v>2.2</v>
-      </c>
-      <c r="O47">
-        <v>3.2</v>
       </c>
       <c r="P47">
         <v>3.1</v>
@@ -4654,37 +4654,37 @@
         <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4704,10 +4704,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6845269</v>
+        <v>6845266</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,34 +4793,34 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
         <v>3.1</v>
@@ -4832,37 +4832,37 @@
         <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6845270</v>
+        <v>6845273</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4882,13 +4882,13 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -4897,41 +4897,41 @@
         <v>39</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
+        <v>2.15</v>
+      </c>
+      <c r="N50">
+        <v>2.8</v>
+      </c>
+      <c r="O50">
+        <v>3.1</v>
+      </c>
+      <c r="P50">
+        <v>2.45</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.95</v>
+      </c>
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="N50">
-        <v>5.25</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
-      <c r="P50">
-        <v>1.533</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>1.9</v>
-      </c>
-      <c r="S50">
-        <v>1.95</v>
-      </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
-      <c r="U50">
-        <v>1.85</v>
-      </c>
-      <c r="V50">
-        <v>2</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
@@ -4939,19 +4939,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
+        <v>0.8</v>
+      </c>
+      <c r="AB50">
         <v>0.95</v>
       </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4959,7 +4959,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6845273</v>
+        <v>6845270</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4971,13 +4971,13 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -4986,40 +4986,40 @@
         <v>39</v>
       </c>
       <c r="K51">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="N51">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5028,19 +5028,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,10 +5060,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5149,7 +5149,7 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5238,10 +5238,10 @@
         <v>45234.5</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5330,7 +5330,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5416,10 +5416,10 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5505,10 +5505,10 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6845280</v>
+        <v>6845283</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,58 +5683,58 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>41</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.85</v>
       </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5743,16 +5743,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6845282</v>
+        <v>6845284</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,40 +5772,40 @@
         <v>45241.5</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
         <v>3</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M60">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N60">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
         <v>1.75</v>
@@ -5814,31 +5814,31 @@
         <v>2.05</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z60">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6845283</v>
+        <v>6845280</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5861,58 +5861,58 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>41</v>
       </c>
       <c r="K61">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M61">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
+        <v>1.85</v>
+      </c>
+      <c r="S61">
         <v>1.95</v>
       </c>
-      <c r="S61">
-        <v>1.85</v>
-      </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5921,16 +5921,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6845284</v>
+        <v>6845282</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,40 +5950,40 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K62">
+        <v>2.5</v>
+      </c>
+      <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
+        <v>2.55</v>
+      </c>
+      <c r="N62">
+        <v>2.375</v>
+      </c>
+      <c r="O62">
+        <v>3.1</v>
+      </c>
+      <c r="P62">
         <v>2.875</v>
       </c>
-      <c r="L62">
-        <v>3.5</v>
-      </c>
-      <c r="M62">
-        <v>2.15</v>
-      </c>
-      <c r="N62">
-        <v>2.75</v>
-      </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>2.3</v>
-      </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
         <v>1.75</v>
@@ -5992,31 +5992,31 @@
         <v>2.05</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA62">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6042,7 +6042,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6845287</v>
+        <v>6845289</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,76 +6217,76 @@
         <v>45262.5</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
       <c r="J65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K65">
+        <v>1.727</v>
+      </c>
+      <c r="L65">
+        <v>3.8</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>1.8</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>3.6</v>
+      </c>
+      <c r="Q65">
+        <v>-0.5</v>
+      </c>
+      <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
         <v>2.75</v>
       </c>
-      <c r="L65">
-        <v>3.5</v>
-      </c>
-      <c r="M65">
-        <v>2.25</v>
-      </c>
-      <c r="N65">
-        <v>2.75</v>
-      </c>
-      <c r="O65">
-        <v>3</v>
-      </c>
-      <c r="P65">
-        <v>2.5</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
-      <c r="T65">
-        <v>2</v>
-      </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6845289</v>
+        <v>6845287</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6309,73 +6309,73 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K66">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L66">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.825</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>1.925</v>
+      </c>
+      <c r="V66">
         <v>1.875</v>
       </c>
-      <c r="S66">
-        <v>1.925</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.925</v>
-      </c>
       <c r="W66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6395,10 +6395,10 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6484,10 +6484,10 @@
         <v>45269.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845290</v>
+        <v>6845292</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6576,46 +6576,46 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M69">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N69">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O69">
+        <v>5.5</v>
+      </c>
+      <c r="P69">
+        <v>8</v>
+      </c>
+      <c r="Q69">
+        <v>-1.5</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
         <v>3</v>
-      </c>
-      <c r="P69">
-        <v>2.7</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.975</v>
@@ -6624,25 +6624,25 @@
         <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.825</v>
-      </c>
-      <c r="AB69">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6845291</v>
+        <v>6845290</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6662,10 +6662,10 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6677,40 +6677,40 @@
         <v>39</v>
       </c>
       <c r="K70">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N70">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P70">
+        <v>2.7</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
+        <v>1.825</v>
+      </c>
+      <c r="T70">
         <v>2.5</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>2.025</v>
-      </c>
-      <c r="S70">
-        <v>1.775</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6719,16 +6719,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6845292</v>
+        <v>6845291</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,76 +6751,76 @@
         <v>45269.5</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K71">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O71">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6840,10 +6840,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6932,7 +6932,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6845296</v>
+        <v>6845295</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7021,73 +7021,73 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74">
+        <v>2.1</v>
+      </c>
+      <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>2.2</v>
+      </c>
+      <c r="O74">
+        <v>3.2</v>
+      </c>
+      <c r="P74">
+        <v>3.1</v>
+      </c>
+      <c r="Q74">
+        <v>-0.25</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.85</v>
+      </c>
+      <c r="T74">
+        <v>2.25</v>
+      </c>
+      <c r="U74">
+        <v>2.025</v>
+      </c>
+      <c r="V74">
+        <v>1.825</v>
+      </c>
+      <c r="W74">
+        <v>1.2</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
         <v>1</v>
       </c>
-      <c r="J74" t="s">
-        <v>39</v>
-      </c>
-      <c r="K74">
-        <v>1.8</v>
-      </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>4</v>
-      </c>
-      <c r="N74">
-        <v>1.7</v>
-      </c>
-      <c r="O74">
-        <v>3.4</v>
-      </c>
-      <c r="P74">
-        <v>4.5</v>
-      </c>
-      <c r="Q74">
-        <v>-0.75</v>
-      </c>
-      <c r="R74">
-        <v>2</v>
-      </c>
-      <c r="S74">
-        <v>1.8</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
-      <c r="V74">
-        <v>1.8</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>3.5</v>
-      </c>
-      <c r="Z74">
-        <v>-1</v>
-      </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845295</v>
+        <v>6845299</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,10 +7107,10 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7122,43 +7122,43 @@
         <v>41</v>
       </c>
       <c r="K75">
+        <v>2.375</v>
+      </c>
+      <c r="L75">
+        <v>3.3</v>
+      </c>
+      <c r="M75">
+        <v>2.7</v>
+      </c>
+      <c r="N75">
         <v>2.1</v>
       </c>
-      <c r="L75">
-        <v>3.5</v>
-      </c>
-      <c r="M75">
+      <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
         <v>3</v>
-      </c>
-      <c r="N75">
-        <v>2.2</v>
-      </c>
-      <c r="O75">
-        <v>3.2</v>
-      </c>
-      <c r="P75">
-        <v>3.1</v>
       </c>
       <c r="Q75">
         <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
+        <v>1.9</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>2.025</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7167,7 +7167,7 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7176,7 +7176,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845299</v>
+        <v>6845297</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
         <v>31</v>
-      </c>
-      <c r="G76" t="s">
-        <v>34</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K76">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845297</v>
+        <v>6845298</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,10 +7285,10 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7300,41 +7300,41 @@
         <v>39</v>
       </c>
       <c r="K77">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N77">
+        <v>1.571</v>
+      </c>
+      <c r="O77">
+        <v>3.8</v>
+      </c>
+      <c r="P77">
+        <v>5</v>
+      </c>
+      <c r="Q77">
+        <v>-1</v>
+      </c>
+      <c r="R77">
+        <v>2.025</v>
+      </c>
+      <c r="S77">
+        <v>1.775</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>2.6</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
+      <c r="U77">
+        <v>1.825</v>
+      </c>
+      <c r="V77">
         <v>1.975</v>
       </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
-      <c r="U77">
-        <v>1.975</v>
-      </c>
-      <c r="V77">
-        <v>1.875</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
@@ -7342,19 +7342,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845298</v>
+        <v>6845296</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,55 +7374,55 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>39</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
         <v>4</v>
       </c>
       <c r="N78">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7431,19 +7431,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7463,10 +7463,10 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7552,10 +7552,10 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7641,10 +7641,10 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
         <v>30</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6845301</v>
+        <v>6845300</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,40 +7730,40 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>40</v>
       </c>
       <c r="K82">
+        <v>2.6</v>
+      </c>
+      <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>2.2</v>
+      </c>
+      <c r="O82">
+        <v>3.6</v>
+      </c>
+      <c r="P82">
         <v>3.1</v>
       </c>
-      <c r="L82">
-        <v>3.8</v>
-      </c>
-      <c r="M82">
-        <v>2.1</v>
-      </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>1.85</v>
-      </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
         <v>1.95</v>
@@ -7772,34 +7772,34 @@
         <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6845300</v>
+        <v>6845301</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7819,40 +7819,40 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>40</v>
       </c>
       <c r="K83">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N83">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.95</v>
@@ -7861,34 +7861,34 @@
         <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,10 +7908,10 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6845305</v>
+        <v>6845309</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,10 +7997,10 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8012,58 +8012,58 @@
         <v>40</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N85">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.3</v>
+        <v>3.333</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6845307</v>
+        <v>6845308</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,76 +8086,76 @@
         <v>45290.5</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L86">
         <v>3.4</v>
       </c>
       <c r="M86">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845309</v>
+        <v>6845307</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,52 +8175,52 @@
         <v>45290.5</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>40</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N87">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
         <v>1.9</v>
@@ -8229,22 +8229,22 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845308</v>
+        <v>6845305</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,73 +8264,73 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K88">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
+        <v>2.9</v>
+      </c>
+      <c r="N88">
         <v>2.375</v>
       </c>
-      <c r="N88">
-        <v>2.4</v>
-      </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P88">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y88">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8356,7 +8356,7 @@
         <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845313</v>
+        <v>6845311</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K90">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L90">
+        <v>3.5</v>
+      </c>
+      <c r="M90">
+        <v>2.25</v>
+      </c>
+      <c r="N90">
+        <v>3.2</v>
+      </c>
+      <c r="O90">
         <v>3.75</v>
       </c>
-      <c r="M90">
-        <v>4</v>
-      </c>
-      <c r="N90">
-        <v>1.4</v>
-      </c>
-      <c r="O90">
-        <v>4.75</v>
-      </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.8</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
         <v>1.875</v>
       </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.9</v>
-      </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.8</v>
+      </c>
+      <c r="AB90">
+        <v>0.4625</v>
+      </c>
+      <c r="AC90">
         <v>-0.5</v>
-      </c>
-      <c r="AA90">
-        <v>0.4875</v>
-      </c>
-      <c r="AB90">
-        <v>0.95</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,10 +8531,10 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845314</v>
+        <v>6845313</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,58 +8620,58 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
+        <v>1.975</v>
+      </c>
+      <c r="T92">
         <v>3.25</v>
       </c>
-      <c r="P92">
-        <v>2.7</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.75</v>
-      </c>
-      <c r="S92">
-        <v>2.05</v>
-      </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8680,16 +8680,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC92">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845311</v>
+        <v>6845314</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,76 +8709,76 @@
         <v>45293.5</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L93">
         <v>3.5</v>
       </c>
       <c r="M93">
+        <v>2.7</v>
+      </c>
+      <c r="N93">
+        <v>2.3</v>
+      </c>
+      <c r="O93">
+        <v>3.25</v>
+      </c>
+      <c r="P93">
+        <v>2.7</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>1.75</v>
+      </c>
+      <c r="S93">
+        <v>2.05</v>
+      </c>
+      <c r="T93">
         <v>2.25</v>
-      </c>
-      <c r="N93">
-        <v>3.2</v>
-      </c>
-      <c r="O93">
-        <v>3.75</v>
-      </c>
-      <c r="P93">
-        <v>2</v>
-      </c>
-      <c r="Q93">
-        <v>0.25</v>
-      </c>
-      <c r="R93">
-        <v>2</v>
-      </c>
-      <c r="S93">
-        <v>1.8</v>
-      </c>
-      <c r="T93">
-        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
+        <v>-0.5</v>
+      </c>
+      <c r="AC93">
         <v>0.4625</v>
-      </c>
-      <c r="AC93">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>45296.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -8887,10 +8887,10 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6845318</v>
+        <v>6845316</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8976,73 +8976,73 @@
         <v>45297.5</v>
       </c>
       <c r="F96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" t="s">
         <v>30</v>
       </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
       <c r="H96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K96">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N96">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.825</v>
+      </c>
+      <c r="T96">
+        <v>2.25</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
-      <c r="T96">
-        <v>3.5</v>
-      </c>
-      <c r="U96">
-        <v>2</v>
-      </c>
-      <c r="V96">
-        <v>1.8</v>
-      </c>
-      <c r="W96">
-        <v>0.3</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9065,10 +9065,10 @@
         <v>45297.5</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845316</v>
+        <v>6845318</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,73 +9154,73 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98">
+        <v>1.571</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>4.333</v>
+      </c>
+      <c r="N98">
+        <v>1.3</v>
+      </c>
+      <c r="O98">
+        <v>5.25</v>
+      </c>
+      <c r="P98">
+        <v>8.5</v>
+      </c>
+      <c r="Q98">
+        <v>-1.5</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>3.5</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>1.8</v>
+      </c>
+      <c r="W98">
+        <v>0.3</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.8</v>
+      </c>
+      <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
         <v>1</v>
-      </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
-      <c r="J98" t="s">
-        <v>39</v>
-      </c>
-      <c r="K98">
-        <v>2.25</v>
-      </c>
-      <c r="L98">
-        <v>3.75</v>
-      </c>
-      <c r="M98">
-        <v>2.5</v>
-      </c>
-      <c r="N98">
-        <v>2.15</v>
-      </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
-      <c r="P98">
-        <v>2.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.825</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>1.8</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>0.825</v>
-      </c>
-      <c r="AB98">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9243,10 +9243,10 @@
         <v>45303.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6845323</v>
+        <v>6845324</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,76 +9332,76 @@
         <v>45304.5</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N100">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P100">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R100">
         <v>1.825</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
         <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
         <v>-0</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6845324</v>
+        <v>6845323</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45304.5</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O102">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R102">
         <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845327</v>
+        <v>6845329</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,19 +9688,19 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>3</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>1.727</v>
@@ -9712,49 +9712,49 @@
         <v>4</v>
       </c>
       <c r="N104">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.825</v>
+      </c>
+      <c r="S104">
         <v>1.975</v>
       </c>
-      <c r="S104">
-        <v>1.875</v>
-      </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
         <v>2.025</v>
       </c>
       <c r="W104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6845325</v>
+        <v>6845328</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,76 +9777,76 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N105">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
         <v>2.025</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z105">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845326</v>
+        <v>6845327</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L106">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106">
+        <v>1.4</v>
+      </c>
+      <c r="O106">
+        <v>4.2</v>
+      </c>
+      <c r="P106">
         <v>7</v>
-      </c>
-      <c r="N106">
-        <v>1.363</v>
-      </c>
-      <c r="O106">
-        <v>4.75</v>
-      </c>
-      <c r="P106">
-        <v>7.5</v>
       </c>
       <c r="Q106">
         <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
         <v>2.025</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6845328</v>
+        <v>6845326</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,76 +9955,76 @@
         <v>45318.5</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K107">
+        <v>1.333</v>
+      </c>
+      <c r="L107">
+        <v>5</v>
+      </c>
+      <c r="M107">
+        <v>7</v>
+      </c>
+      <c r="N107">
+        <v>1.363</v>
+      </c>
+      <c r="O107">
+        <v>4.75</v>
+      </c>
+      <c r="P107">
+        <v>7.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1.25</v>
+      </c>
+      <c r="R107">
+        <v>1.8</v>
+      </c>
+      <c r="S107">
+        <v>2</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.775</v>
+      </c>
+      <c r="V107">
+        <v>2.025</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>3.75</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
         <v>1</v>
       </c>
-      <c r="I107">
-        <v>2</v>
-      </c>
-      <c r="J107" t="s">
-        <v>39</v>
-      </c>
-      <c r="K107">
-        <v>2.2</v>
-      </c>
-      <c r="L107">
-        <v>3.4</v>
-      </c>
-      <c r="M107">
-        <v>2.9</v>
-      </c>
-      <c r="N107">
-        <v>2.375</v>
-      </c>
-      <c r="O107">
-        <v>3.3</v>
-      </c>
-      <c r="P107">
-        <v>2.7</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>1.775</v>
-      </c>
-      <c r="S107">
-        <v>2.025</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.875</v>
-      </c>
-      <c r="V107">
-        <v>1.925</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>1.7</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
-      <c r="AA107">
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>1.025</v>
-      </c>
-      <c r="AB107">
-        <v>0.875</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6845329</v>
+        <v>6845325</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,76 +10044,76 @@
         <v>45318.5</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N108">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
         <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y108">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6845332</v>
+        <v>6845331</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,55 +10133,55 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>39</v>
       </c>
       <c r="K109">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="L109">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M109">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="N109">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O109">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10190,19 +10190,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6845331</v>
+        <v>6845332</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,55 +10222,55 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J110" t="s">
         <v>39</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="L110">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M110">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="N110">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10279,19 +10279,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB110">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,10 +10311,10 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10403,7 +10403,7 @@
         <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10489,10 +10489,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10578,10 +10578,10 @@
         <v>45339.5</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10667,10 +10667,10 @@
         <v>45339.5</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6845336</v>
+        <v>6845337</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10756,76 +10756,76 @@
         <v>45339.5</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
         <v>40</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N116">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10833,7 +10833,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6845337</v>
+        <v>6845336</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10845,76 +10845,76 @@
         <v>45339.5</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>40</v>
       </c>
       <c r="K117">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11011,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6845343</v>
+        <v>6845340</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11023,76 +11023,76 @@
         <v>45346.5</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6845342</v>
+        <v>6845341</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,67 +11118,67 @@
         <v>34</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K120">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="N120">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="O120">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V120">
         <v>1.85</v>
       </c>
       <c r="W120">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6845341</v>
+        <v>6845342</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,73 +11201,73 @@
         <v>45346.5</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
         <v>35</v>
       </c>
       <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
       <c r="J121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M121">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N121">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P121">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
         <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845340</v>
+        <v>6845343</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45346.5</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K122">
+        <v>2.2</v>
+      </c>
+      <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
         <v>3</v>
       </c>
-      <c r="L122">
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
         <v>3.5</v>
       </c>
-      <c r="M122">
-        <v>2.1</v>
-      </c>
-      <c r="N122">
-        <v>3.5</v>
-      </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
-      <c r="P122">
-        <v>1.909</v>
-      </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11367,7 +11367,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6845345</v>
+        <v>6845346</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11379,61 +11379,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
         <v>37</v>
       </c>
-      <c r="G123" t="s">
-        <v>30</v>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123" t="s">
+        <v>39</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N123">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P123">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.925</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11441,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845346</v>
+        <v>6845347</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11453,61 +11468,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N124">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11515,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6845347</v>
+        <v>6845348</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11527,61 +11557,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H125">
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
         <v>2</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>1</v>
+      </c>
+      <c r="AC125">
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11589,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6845348</v>
+        <v>6853957</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11604,58 +11649,73 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>40</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O126">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="V126">
-        <v>2</v>
-      </c>
       <c r="W126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11663,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6853957</v>
+        <v>6845345</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11675,60 +11735,445 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>31</v>
       </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127" t="s">
+        <v>41</v>
+      </c>
       <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>3.5</v>
+      </c>
+      <c r="M127">
+        <v>2.1</v>
+      </c>
+      <c r="N127">
+        <v>2.8</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
+        <v>2.25</v>
+      </c>
+      <c r="Q127">
+        <v>0.25</v>
+      </c>
+      <c r="R127">
         <v>1.8</v>
       </c>
-      <c r="L127">
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>1.975</v>
+      </c>
+      <c r="V127">
+        <v>1.825</v>
+      </c>
+      <c r="W127">
+        <v>1.8</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.8</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>6922450</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F128" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="K128">
+        <v>4.333</v>
+      </c>
+      <c r="L128">
+        <v>3.75</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>5.25</v>
+      </c>
+      <c r="O128">
+        <v>4</v>
+      </c>
+      <c r="P128">
+        <v>1.533</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>1.875</v>
+      </c>
+      <c r="S128">
+        <v>1.975</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
+        <v>1.875</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>6922451</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F129" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" t="s">
+        <v>30</v>
+      </c>
+      <c r="K129">
+        <v>2.1</v>
+      </c>
+      <c r="L129">
+        <v>3.4</v>
+      </c>
+      <c r="M129">
+        <v>3.1</v>
+      </c>
+      <c r="N129">
+        <v>1.833</v>
+      </c>
+      <c r="O129">
         <v>3.6</v>
       </c>
-      <c r="M127">
+      <c r="P129">
         <v>3.8</v>
       </c>
-      <c r="N127">
+      <c r="Q129">
+        <v>-0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>2.025</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>2.025</v>
+      </c>
+      <c r="V129">
+        <v>1.825</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>6922469</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+      <c r="K130">
+        <v>2.25</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>2.8</v>
+      </c>
+      <c r="N130">
+        <v>2.45</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>2.5</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>1.925</v>
+      </c>
+      <c r="S130">
+        <v>1.925</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.9</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="O127">
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6922470</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s">
+        <v>38</v>
+      </c>
+      <c r="K131">
+        <v>3.25</v>
+      </c>
+      <c r="L131">
+        <v>3.75</v>
+      </c>
+      <c r="M131">
+        <v>1.909</v>
+      </c>
+      <c r="N131">
         <v>3.6</v>
       </c>
-      <c r="P127">
+      <c r="O131">
+        <v>3.8</v>
+      </c>
+      <c r="P131">
+        <v>1.8</v>
+      </c>
+      <c r="Q131">
+        <v>0.5</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
+        <v>2.75</v>
+      </c>
+      <c r="U131">
+        <v>1.925</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6922126</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>3.4</v>
+      </c>
+      <c r="M132">
         <v>3.3</v>
       </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132">
+        <v>3.4</v>
+      </c>
+      <c r="P132">
+        <v>3.25</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.8</v>
+      </c>
+      <c r="S132">
+        <v>2.05</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>1.875</v>
+      </c>
+      <c r="V132">
         <v>1.975</v>
       </c>
-      <c r="S127">
-        <v>1.875</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
-      <c r="U127">
-        <v>1.825</v>
-      </c>
-      <c r="V127">
-        <v>2.025</v>
-      </c>
-      <c r="W127">
-        <v>0</v>
-      </c>
-      <c r="X127">
-        <v>0</v>
-      </c>
-      <c r="Y127">
-        <v>0</v>
-      </c>
-      <c r="Z127">
-        <v>0</v>
-      </c>
-      <c r="AA127">
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -109,19 +109,19 @@
     <t>Dunfermline</t>
   </si>
   <si>
-    <t>Partick</t>
+    <t>Inverness CT</t>
   </si>
   <si>
-    <t>Inverness CT</t>
+    <t>Partick</t>
   </si>
   <si>
     <t>Morton</t>
   </si>
   <si>
-    <t>Airdrieonians</t>
+    <t>Dundee Utd</t>
   </si>
   <si>
-    <t>Dundee Utd</t>
+    <t>Ayr</t>
   </si>
   <si>
     <t>Raith</t>
@@ -130,7 +130,7 @@
     <t>Queens Park</t>
   </si>
   <si>
-    <t>Ayr</t>
+    <t>Airdrieonians</t>
   </si>
   <si>
     <t>A</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC132"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6845222</v>
+        <v>6845220</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,37 +791,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L4">
         <v>3.5</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
         <v>1.975</v>
@@ -830,7 +830,7 @@
         <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -842,10 +842,10 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z4">
         <v>-1</v>
@@ -854,10 +854,10 @@
         <v>0.825</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6845220</v>
+        <v>6845222</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,37 +880,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
         <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
         <v>1.975</v>
@@ -919,7 +919,7 @@
         <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -931,10 +931,10 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y5">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -943,10 +943,10 @@
         <v>0.825</v>
       </c>
       <c r="AB5">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845223</v>
+        <v>6845225</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,73 +1058,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N7">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
+        <v>4.2</v>
+      </c>
+      <c r="Q7">
+        <v>-0.75</v>
+      </c>
+      <c r="R7">
         <v>2.05</v>
       </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2.05</v>
-      </c>
       <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1.85</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
         <v>2.75</v>
       </c>
-      <c r="U7">
-        <v>1.95</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
-      <c r="W7">
-        <v>2.3</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845225</v>
+        <v>6845224</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,40 +1147,40 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <v>1.8</v>
@@ -1189,31 +1189,31 @@
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845224</v>
+        <v>6845223</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,70 +1417,70 @@
         <v>32</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N11">
+        <v>3.3</v>
+      </c>
+      <c r="O11">
+        <v>3.3</v>
+      </c>
+      <c r="P11">
+        <v>2.05</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2.05</v>
+      </c>
+      <c r="T11">
+        <v>2.75</v>
+      </c>
+      <c r="U11">
         <v>1.95</v>
       </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>3.4</v>
-      </c>
-      <c r="Q11">
+      <c r="V11">
+        <v>1.9</v>
+      </c>
+      <c r="W11">
+        <v>2.3</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>0.8</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>0.475</v>
+      </c>
+      <c r="AC11">
         <v>-0.5</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1.8</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.925</v>
-      </c>
-      <c r="V11">
-        <v>1.875</v>
-      </c>
-      <c r="W11">
-        <v>0.95</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845231</v>
+        <v>6845230</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,55 +1589,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1646,19 +1646,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>4.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845230</v>
+        <v>6845231</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,55 +1678,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1735,19 +1735,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1767,7 +1767,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1856,10 +1856,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6845237</v>
+        <v>6845236</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,73 +2034,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
         <v>2.6</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
@@ -2212,10 +2212,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2304,7 +2304,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6845236</v>
+        <v>6845237</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,73 +2390,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
         <v>2.6</v>
       </c>
       <c r="N22">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,10 +2479,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845242</v>
+        <v>6845238</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,13 +2568,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2583,31 +2583,31 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2619,7 +2619,7 @@
         <v>1.925</v>
       </c>
       <c r="W24">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2628,16 +2628,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845241</v>
+        <v>6845240</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M25">
+        <v>4.333</v>
+      </c>
+      <c r="N25">
+        <v>1.55</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>5.25</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
+        <v>1.95</v>
+      </c>
+      <c r="S25">
+        <v>1.85</v>
+      </c>
+      <c r="T25">
         <v>2.75</v>
       </c>
-      <c r="N25">
-        <v>2.55</v>
-      </c>
-      <c r="O25">
-        <v>3.4</v>
-      </c>
-      <c r="P25">
-        <v>2.5</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
       <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
         <v>1.85</v>
       </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y25">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6845240</v>
+        <v>6845242</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>2.8</v>
+      </c>
+      <c r="N26">
+        <v>1.8</v>
+      </c>
+      <c r="O26">
+        <v>3.75</v>
+      </c>
+      <c r="P26">
         <v>4</v>
       </c>
-      <c r="M26">
-        <v>4.333</v>
-      </c>
-      <c r="N26">
-        <v>1.55</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-      <c r="P26">
-        <v>5.25</v>
-      </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6845238</v>
+        <v>6845241</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,37 +2835,37 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
         <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2880,31 +2880,31 @@
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3013,7 +3013,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845245</v>
+        <v>6845247</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,49 +3102,49 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
         <v>1.95</v>
@@ -3153,25 +3153,25 @@
         <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,10 +3191,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6845247</v>
+        <v>6845245</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,49 +3280,49 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
         <v>3.5</v>
       </c>
       <c r="M32">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N32">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
         <v>1.95</v>
@@ -3331,25 +3331,25 @@
         <v>1.85</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845251</v>
+        <v>6845254</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
         <v>3.25</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>3.4</v>
       </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
         <v>1.8</v>
       </c>
-      <c r="S33">
-        <v>2.05</v>
-      </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V33">
         <v>1.8</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6845254</v>
+        <v>6845250</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,76 +3458,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
         <v>31</v>
       </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>3</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
       <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
         <v>3.25</v>
       </c>
-      <c r="M34">
-        <v>3.4</v>
-      </c>
       <c r="N34">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O34">
         <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845253</v>
+        <v>6845252</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3547,76 +3547,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L35">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
         <v>1.875</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845252</v>
+        <v>6845253</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3636,76 +3636,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N36">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P36">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
         <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.875</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845250</v>
+        <v>6845251</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,55 +3725,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
         <v>39</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L37">
         <v>3.4</v>
       </c>
       <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>2.8</v>
+      </c>
+      <c r="O37">
         <v>3.25</v>
       </c>
-      <c r="N37">
-        <v>2.25</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V37">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3782,16 +3782,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB37">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6845258</v>
+        <v>6845257</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,10 +3903,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3918,25 +3918,25 @@
         <v>41</v>
       </c>
       <c r="K39">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="O39">
         <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>2.025</v>
@@ -3948,10 +3948,10 @@
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3963,16 +3963,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6845257</v>
+        <v>6845258</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,10 +3992,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4007,25 +4007,25 @@
         <v>41</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N40">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
         <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.025</v>
@@ -4037,10 +4037,10 @@
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4052,16 +4052,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4081,10 +4081,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4170,7 +4170,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6845264</v>
+        <v>6845262</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,7 +4259,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
@@ -4268,46 +4268,46 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>39</v>
       </c>
       <c r="K43">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
+        <v>3.5</v>
+      </c>
+      <c r="M43">
         <v>3.3</v>
       </c>
-      <c r="M43">
-        <v>2.55</v>
-      </c>
       <c r="N43">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4316,19 +4316,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6845262</v>
+        <v>6845264</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4348,55 +4348,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
         <v>39</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N44">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4405,19 +4405,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6845267</v>
+        <v>6845265</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,73 +4437,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
+        <v>1.85</v>
+      </c>
+      <c r="S45">
+        <v>1.95</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1.975</v>
+      </c>
+      <c r="V45">
         <v>1.825</v>
       </c>
-      <c r="S45">
-        <v>1.975</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
-      <c r="V45">
-        <v>1.9</v>
-      </c>
       <c r="W45">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4514,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6845265</v>
+        <v>6845267</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4526,73 +4526,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P46">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6845269</v>
+        <v>6845268</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4615,10 +4615,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4630,43 +4630,43 @@
         <v>40</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4675,7 +4675,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4684,7 +4684,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6845268</v>
+        <v>6845266</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,46 +4704,46 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M48">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>2.5</v>
@@ -4752,28 +4752,28 @@
         <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6845266</v>
+        <v>6845269</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,34 +4793,34 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
+        <v>3.6</v>
+      </c>
+      <c r="M49">
+        <v>3.4</v>
+      </c>
+      <c r="N49">
+        <v>2.1</v>
+      </c>
+      <c r="O49">
         <v>3.25</v>
-      </c>
-      <c r="M49">
-        <v>3.5</v>
-      </c>
-      <c r="N49">
-        <v>2.2</v>
-      </c>
-      <c r="O49">
-        <v>3.2</v>
       </c>
       <c r="P49">
         <v>3.1</v>
@@ -4832,37 +4832,37 @@
         <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6845270</v>
+        <v>6845273</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4882,13 +4882,13 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -4897,41 +4897,41 @@
         <v>39</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
+        <v>2.15</v>
+      </c>
+      <c r="N50">
+        <v>2.8</v>
+      </c>
+      <c r="O50">
+        <v>3.1</v>
+      </c>
+      <c r="P50">
+        <v>2.45</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.95</v>
+      </c>
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="N50">
-        <v>5.25</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
-      <c r="P50">
-        <v>1.533</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>1.9</v>
-      </c>
-      <c r="S50">
-        <v>1.95</v>
-      </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
-      <c r="U50">
-        <v>1.85</v>
-      </c>
-      <c r="V50">
-        <v>2</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
@@ -4939,19 +4939,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
+        <v>0.8</v>
+      </c>
+      <c r="AB50">
         <v>0.95</v>
       </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,10 +4971,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5048,7 +5048,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6845273</v>
+        <v>6845270</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5060,13 +5060,13 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -5075,40 +5075,40 @@
         <v>39</v>
       </c>
       <c r="K52">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="N52">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="O52">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5117,19 +5117,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6845277</v>
+        <v>6845279</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,10 +5238,10 @@
         <v>45234.5</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5253,46 +5253,46 @@
         <v>41</v>
       </c>
       <c r="K54">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L54">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
+        <v>1.8</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
         <v>1.85</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>2</v>
-      </c>
-      <c r="V54">
-        <v>1.8</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5301,13 +5301,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.95</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6845279</v>
+        <v>6845277</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,10 +5327,10 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5342,46 +5342,46 @@
         <v>41</v>
       </c>
       <c r="K55">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N55">
+        <v>1.363</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>7.5</v>
+      </c>
+      <c r="Q55">
+        <v>-1.25</v>
+      </c>
+      <c r="R55">
+        <v>1.85</v>
+      </c>
+      <c r="S55">
+        <v>1.95</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
         <v>1.8</v>
       </c>
-      <c r="O55">
-        <v>3.6</v>
-      </c>
-      <c r="P55">
-        <v>3.8</v>
-      </c>
-      <c r="Q55">
-        <v>-0.5</v>
-      </c>
-      <c r="R55">
-        <v>1.8</v>
-      </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.85</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5416,7 +5416,7 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -5508,7 +5508,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5683,7 +5683,7 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5772,7 +5772,7 @@
         <v>45241.5</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
         <v>29</v>
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6845284</v>
+        <v>6845282</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5861,40 +5861,40 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
+        <v>2.5</v>
+      </c>
+      <c r="L61">
+        <v>3.25</v>
+      </c>
+      <c r="M61">
+        <v>2.55</v>
+      </c>
+      <c r="N61">
+        <v>2.375</v>
+      </c>
+      <c r="O61">
+        <v>3.1</v>
+      </c>
+      <c r="P61">
         <v>2.875</v>
       </c>
-      <c r="L61">
-        <v>3.5</v>
-      </c>
-      <c r="M61">
-        <v>2.15</v>
-      </c>
-      <c r="N61">
-        <v>2.75</v>
-      </c>
-      <c r="O61">
-        <v>3.3</v>
-      </c>
-      <c r="P61">
-        <v>2.3</v>
-      </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>1.75</v>
@@ -5903,31 +5903,31 @@
         <v>2.05</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA61">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6845282</v>
+        <v>6845284</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,40 +5950,40 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
         <v>1.75</v>
@@ -5992,31 +5992,31 @@
         <v>2.05</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z62">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6042,7 +6042,7 @@
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6845289</v>
+        <v>6845287</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6220,73 +6220,73 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N65">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
+        <v>1.825</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <v>1.925</v>
+      </c>
+      <c r="V65">
         <v>1.875</v>
       </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
-      </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
-      <c r="V65">
-        <v>1.925</v>
-      </c>
       <c r="W65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6845287</v>
+        <v>6845289</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6309,73 +6309,73 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
       <c r="J66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K66">
+        <v>1.727</v>
+      </c>
+      <c r="L66">
+        <v>3.8</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+      <c r="N66">
+        <v>1.8</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>3.6</v>
+      </c>
+      <c r="Q66">
+        <v>-0.5</v>
+      </c>
+      <c r="R66">
+        <v>1.875</v>
+      </c>
+      <c r="S66">
+        <v>1.925</v>
+      </c>
+      <c r="T66">
         <v>2.75</v>
       </c>
-      <c r="L66">
-        <v>3.5</v>
-      </c>
-      <c r="M66">
-        <v>2.25</v>
-      </c>
-      <c r="N66">
-        <v>2.75</v>
-      </c>
-      <c r="O66">
-        <v>3</v>
-      </c>
-      <c r="P66">
-        <v>2.5</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
-      <c r="T66">
-        <v>2</v>
-      </c>
       <c r="U66">
+        <v>1.875</v>
+      </c>
+      <c r="V66">
         <v>1.925</v>
       </c>
-      <c r="V66">
-        <v>1.875</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6845290</v>
+        <v>6845293</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6484,46 +6484,46 @@
         <v>45269.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
         <v>39</v>
       </c>
       <c r="K68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
         <v>2.5</v>
@@ -6541,13 +6541,13 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
         <v>0.9750000000000001</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845291</v>
+        <v>6845292</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,76 +6573,76 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P69">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6845292</v>
+        <v>6845291</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6662,76 +6662,76 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L70">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P70">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6845293</v>
+        <v>6845290</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,46 +6751,46 @@
         <v>45269.5</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>39</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
+        <v>2.875</v>
+      </c>
+      <c r="N71">
+        <v>2.9</v>
+      </c>
+      <c r="O71">
         <v>3</v>
       </c>
-      <c r="N71">
-        <v>2.05</v>
-      </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
         <v>2.5</v>
@@ -6808,13 +6808,13 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
         <v>0.9750000000000001</v>
@@ -6843,7 +6843,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>45276.5</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7107,10 +7107,10 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
         <v>38</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845299</v>
+        <v>6845298</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845298</v>
+        <v>6845299</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,76 +7374,76 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N78">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6845304</v>
+        <v>6845303</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7463,76 +7463,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>41</v>
       </c>
       <c r="K79">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M79">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N79">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P79">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845303</v>
+        <v>6845304</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,76 +7552,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
         <v>35</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
         <v>41</v>
       </c>
       <c r="K80">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L80">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N80">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q80">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6845300</v>
+        <v>6845302</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,55 +7641,55 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>41</v>
       </c>
       <c r="K81">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N81">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O81">
         <v>3.6</v>
       </c>
       <c r="P81">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
         <v>1.95</v>
       </c>
-      <c r="S81">
-        <v>1.9</v>
-      </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7701,16 +7701,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6845302</v>
+        <v>6845300</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7819,55 +7819,55 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>41</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N83">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O83">
         <v>3.6</v>
       </c>
       <c r="P83">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7879,16 +7879,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,10 +7908,10 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6845308</v>
+        <v>6845309</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,73 +7997,73 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N85">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P85">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
+        <v>1.925</v>
+      </c>
+      <c r="T85">
+        <v>3</v>
+      </c>
+      <c r="U85">
         <v>1.9</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.9</v>
       </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y85">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
+        <v>0.925</v>
+      </c>
+      <c r="AB85">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB85">
-        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6845305</v>
+        <v>6845308</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,73 +8086,73 @@
         <v>45290.5</v>
       </c>
       <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s">
         <v>38</v>
       </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L86">
         <v>3.4</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N86">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845307</v>
+        <v>6845305</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,76 +8175,76 @@
         <v>45290.5</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>41</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
         <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845309</v>
+        <v>6845307</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,52 +8264,52 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>41</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N88">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
         <v>1.9</v>
@@ -8318,22 +8318,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845313</v>
+        <v>6845311</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,76 +8353,76 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L89">
+        <v>3.5</v>
+      </c>
+      <c r="M89">
+        <v>2.25</v>
+      </c>
+      <c r="N89">
+        <v>3.2</v>
+      </c>
+      <c r="O89">
         <v>3.75</v>
       </c>
-      <c r="M89">
-        <v>4</v>
-      </c>
-      <c r="N89">
-        <v>1.4</v>
-      </c>
-      <c r="O89">
-        <v>4.75</v>
-      </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
         <v>1.875</v>
       </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
-      <c r="V89">
-        <v>1.9</v>
-      </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.8</v>
+      </c>
+      <c r="AB89">
+        <v>0.4625</v>
+      </c>
+      <c r="AC89">
         <v>-0.5</v>
-      </c>
-      <c r="AA89">
-        <v>0.4875</v>
-      </c>
-      <c r="AB89">
-        <v>0.95</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845310</v>
+        <v>6845312</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.181</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.9</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
         <v>1.875</v>
       </c>
-      <c r="S90">
-        <v>1.925</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.85</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>0.925</v>
       </c>
-      <c r="AB90">
-        <v>-0.5</v>
-      </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845311</v>
+        <v>6845313</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,76 +8531,76 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K91">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N91">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB91">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845312</v>
+        <v>6845314</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,13 +8620,13 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8635,43 +8635,43 @@
         <v>40</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
         <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8680,16 +8680,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845314</v>
+        <v>6845310</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,76 +8709,76 @@
         <v>45293.5</v>
       </c>
       <c r="F93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
         <v>34</v>
       </c>
-      <c r="G93" t="s">
-        <v>32</v>
-      </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K93">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M93">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="N93">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="O93">
+        <v>6</v>
+      </c>
+      <c r="P93">
+        <v>1.181</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>1.875</v>
+      </c>
+      <c r="S93">
+        <v>1.925</v>
+      </c>
+      <c r="T93">
         <v>3.25</v>
       </c>
-      <c r="P93">
-        <v>2.7</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>1.75</v>
-      </c>
-      <c r="S93">
-        <v>2.05</v>
-      </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
         <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.4625</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8887,7 +8887,7 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6845317</v>
+        <v>6845316</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8979,10 +8979,10 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>3</v>
@@ -8991,58 +8991,58 @@
         <v>39</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>4.25</v>
-      </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845316</v>
+        <v>6845315</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9068,73 +9068,73 @@
         <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N97">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845315</v>
+        <v>6845317</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9157,73 +9157,73 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M98">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P98">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,10 +9243,10 @@
         <v>45303.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9513,7 +9513,7 @@
         <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9599,7 +9599,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845325</v>
+        <v>6845326</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,73 +9691,73 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N104">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O104">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P104">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
         <v>2.025</v>
       </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.85</v>
-      </c>
-      <c r="V104">
-        <v>2</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845326</v>
+        <v>6845325</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA106">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9958,7 +9958,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10047,7 +10047,7 @@
         <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6845331</v>
+        <v>6845333</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,55 +10133,55 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <v>1</v>
-      </c>
-      <c r="I109">
-        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>39</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M109">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="N109">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10190,19 +10190,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6845333</v>
+        <v>6845331</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,76 +10311,76 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>39</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M111">
+        <v>1.533</v>
+      </c>
+      <c r="N111">
+        <v>4.75</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>1.6</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
         <v>2.75</v>
       </c>
-      <c r="N111">
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="O111">
-        <v>3.75</v>
-      </c>
-      <c r="P111">
-        <v>3.6</v>
-      </c>
-      <c r="Q111">
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>-0</v>
+      </c>
+      <c r="AB111">
+        <v>0.5</v>
+      </c>
+      <c r="AC111">
         <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.875</v>
-      </c>
-      <c r="S111">
-        <v>1.925</v>
-      </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
-      <c r="V111">
-        <v>1.95</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>2.6</v>
-      </c>
-      <c r="Z111">
-        <v>-1</v>
-      </c>
-      <c r="AA111">
-        <v>0.925</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6845338</v>
+        <v>6845336</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,55 +10578,55 @@
         <v>45339.5</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>41</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O114">
         <v>3.6</v>
       </c>
       <c r="P114">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10638,16 +10638,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10667,10 +10667,10 @@
         <v>45339.5</v>
       </c>
       <c r="F115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
         <v>32</v>
-      </c>
-      <c r="G115" t="s">
-        <v>31</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10744,7 +10744,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6845336</v>
+        <v>6845338</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10756,55 +10756,55 @@
         <v>45339.5</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>41</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N116">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O116">
         <v>3.6</v>
       </c>
       <c r="P116">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10816,16 +10816,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA116">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,10 +10845,10 @@
         <v>45339.5</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10934,7 +10934,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11011,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6845340</v>
+        <v>6845343</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11023,76 +11023,76 @@
         <v>45346.5</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K119">
+        <v>2.2</v>
+      </c>
+      <c r="L119">
+        <v>3.3</v>
+      </c>
+      <c r="M119">
         <v>3</v>
       </c>
-      <c r="L119">
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>3.3</v>
+      </c>
+      <c r="P119">
         <v>3.5</v>
       </c>
-      <c r="M119">
-        <v>2.1</v>
-      </c>
-      <c r="N119">
-        <v>3.5</v>
-      </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
-      <c r="P119">
-        <v>1.909</v>
-      </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6845343</v>
+        <v>6845341</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,73 +11112,73 @@
         <v>45346.5</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120" t="s">
+        <v>39</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>3.5</v>
+      </c>
+      <c r="M120">
+        <v>1.8</v>
+      </c>
+      <c r="N120">
+        <v>2.7</v>
+      </c>
+      <c r="O120">
+        <v>3.25</v>
+      </c>
+      <c r="P120">
+        <v>2.45</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>2.025</v>
+      </c>
+      <c r="S120">
+        <v>1.825</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
+        <v>1.85</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>1.45</v>
+      </c>
+      <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.825</v>
+      </c>
+      <c r="AB120">
         <v>1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>40</v>
-      </c>
-      <c r="K120">
-        <v>2.2</v>
-      </c>
-      <c r="L120">
-        <v>3.3</v>
-      </c>
-      <c r="M120">
-        <v>3</v>
-      </c>
-      <c r="N120">
-        <v>2</v>
-      </c>
-      <c r="O120">
-        <v>3.3</v>
-      </c>
-      <c r="P120">
-        <v>3.5</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>2</v>
-      </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
-        <v>1.975</v>
-      </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
-      <c r="W120">
-        <v>1</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>1</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11201,7 +11201,7 @@
         <v>45346.5</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>37</v>
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845341</v>
+        <v>6845340</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45346.5</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L122">
         <v>3.5</v>
       </c>
       <c r="M122">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N122">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y122">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11367,7 +11367,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6853957</v>
+        <v>6845346</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11379,76 +11379,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K123">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N123">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P123">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845346</v>
+        <v>6845345</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11471,73 +11471,73 @@
         <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6845345</v>
+        <v>6853957</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,40 +11557,40 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="N125">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O125">
         <v>3.4</v>
       </c>
       <c r="P125">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
         <v>1.8</v>
@@ -11599,34 +11599,34 @@
         <v>2</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6845347</v>
+        <v>6845348</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
         <v>1.8</v>
       </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
-      <c r="V126">
-        <v>1.9</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6845348</v>
+        <v>6845347</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,76 +11735,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O127">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
+        <v>1.8</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
         <v>1.9</v>
       </c>
-      <c r="S127">
-        <v>1.9</v>
-      </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
-      <c r="V127">
-        <v>1.8</v>
-      </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>-0.5</v>
+      </c>
+      <c r="AA127">
+        <v>0.4</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>1</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11896,12 +11896,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6922126</v>
+        <v>6922469</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11913,64 +11913,79 @@
         <v>45353.5</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>40</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L129">
         <v>3.4</v>
       </c>
       <c r="M129">
+        <v>2.8</v>
+      </c>
+      <c r="N129">
+        <v>2.25</v>
+      </c>
+      <c r="O129">
         <v>3.3</v>
       </c>
-      <c r="N129">
-        <v>2.15</v>
-      </c>
-      <c r="O129">
-        <v>3.25</v>
-      </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q129">
         <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
         <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-0.5</v>
+      </c>
+      <c r="AC129">
+        <v>0.5249999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11990,7 +12005,16 @@
         <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>39</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -12002,54 +12026,60 @@
         <v>3.1</v>
       </c>
       <c r="N130">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
         <v>4</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB130">
+        <v>-0.5</v>
+      </c>
+      <c r="AC130">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6922469</v>
+        <v>6922470</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12061,69 +12091,84 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
+        <v>3.75</v>
+      </c>
+      <c r="M131">
+        <v>1.909</v>
+      </c>
+      <c r="N131">
         <v>3.4</v>
       </c>
-      <c r="M131">
-        <v>2.8</v>
-      </c>
-      <c r="N131">
-        <v>2.3</v>
-      </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6922470</v>
+        <v>6922126</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12135,60 +12180,519 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" t="s">
+        <v>37</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>41</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>3.4</v>
+      </c>
+      <c r="M132">
+        <v>3.3</v>
+      </c>
+      <c r="N132">
+        <v>2.25</v>
+      </c>
+      <c r="O132">
+        <v>3.2</v>
+      </c>
+      <c r="P132">
+        <v>3</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>2.05</v>
+      </c>
+      <c r="S132">
+        <v>1.8</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>2.025</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>2.2</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>-0.5</v>
+      </c>
+      <c r="AA132">
+        <v>0.4</v>
+      </c>
+      <c r="AB132">
+        <v>-0.5</v>
+      </c>
+      <c r="AC132">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7888759</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45356.69791666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" t="s">
+        <v>38</v>
+      </c>
+      <c r="K133">
+        <v>2.05</v>
+      </c>
+      <c r="L133">
+        <v>3.3</v>
+      </c>
+      <c r="M133">
+        <v>3.3</v>
+      </c>
+      <c r="N133">
+        <v>2.4</v>
+      </c>
+      <c r="O133">
+        <v>3.2</v>
+      </c>
+      <c r="P133">
+        <v>2.75</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
+        <v>2.05</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
+        <v>1.875</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7158590</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45356.69791666666</v>
+      </c>
+      <c r="F134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G134" t="s">
+        <v>34</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>3.3</v>
+      </c>
+      <c r="M134">
+        <v>1.85</v>
+      </c>
+      <c r="N134">
+        <v>4.2</v>
+      </c>
+      <c r="O134">
+        <v>3.3</v>
+      </c>
+      <c r="P134">
+        <v>1.8</v>
+      </c>
+      <c r="Q134">
+        <v>0.5</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>1.85</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>6957815</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
+      </c>
+      <c r="K135">
+        <v>1.125</v>
+      </c>
+      <c r="L135">
+        <v>9</v>
+      </c>
+      <c r="M135">
+        <v>19</v>
+      </c>
+      <c r="N135">
+        <v>1.125</v>
+      </c>
+      <c r="O135">
+        <v>9</v>
+      </c>
+      <c r="P135">
+        <v>19</v>
+      </c>
+      <c r="Q135">
+        <v>-2.25</v>
+      </c>
+      <c r="R135">
+        <v>1.85</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.775</v>
+      </c>
+      <c r="V135">
+        <v>2.1</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>6937665</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136">
+        <v>2.875</v>
+      </c>
+      <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>2.15</v>
+      </c>
+      <c r="N136">
+        <v>2.9</v>
+      </c>
+      <c r="O136">
+        <v>3.6</v>
+      </c>
+      <c r="P136">
+        <v>2.1</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>6937666</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" t="s">
+        <v>30</v>
+      </c>
+      <c r="K137">
+        <v>1.5</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>5.75</v>
+      </c>
+      <c r="N137">
+        <v>1.5</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>5.75</v>
+      </c>
+      <c r="Q137">
+        <v>-1</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
+        <v>2.025</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>6937664</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F138" t="s">
         <v>31</v>
       </c>
-      <c r="G132" t="s">
-        <v>35</v>
-      </c>
-      <c r="K132">
-        <v>3.25</v>
-      </c>
-      <c r="L132">
-        <v>3.75</v>
-      </c>
-      <c r="M132">
-        <v>1.909</v>
-      </c>
-      <c r="N132">
+      <c r="G138" t="s">
+        <v>38</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>3.6</v>
+      </c>
+      <c r="N138">
+        <v>2.05</v>
+      </c>
+      <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
         <v>3.4</v>
       </c>
-      <c r="O132">
-        <v>3.75</v>
-      </c>
-      <c r="P132">
-        <v>1.85</v>
-      </c>
-      <c r="Q132">
-        <v>0.5</v>
-      </c>
-      <c r="R132">
-        <v>1.925</v>
-      </c>
-      <c r="S132">
-        <v>1.925</v>
-      </c>
-      <c r="T132">
-        <v>2.75</v>
-      </c>
-      <c r="U132">
-        <v>1.85</v>
-      </c>
-      <c r="V132">
-        <v>2</v>
-      </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-      <c r="X132">
-        <v>0</v>
-      </c>
-      <c r="Y132">
-        <v>0</v>
-      </c>
-      <c r="Z132">
-        <v>0</v>
-      </c>
-      <c r="AA132">
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>2.025</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -109,28 +109,28 @@
     <t>Dunfermline</t>
   </si>
   <si>
-    <t>Inverness CT</t>
+    <t>Partick</t>
   </si>
   <si>
-    <t>Partick</t>
+    <t>Inverness CT</t>
   </si>
   <si>
     <t>Morton</t>
   </si>
   <si>
-    <t>Dundee Utd</t>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>Raith</t>
+  </si>
+  <si>
+    <t>Airdrieonians</t>
   </si>
   <si>
     <t>Ayr</t>
   </si>
   <si>
-    <t>Raith</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>Airdrieonians</t>
+    <t>Dundee Utd</t>
   </si>
   <si>
     <t>A</t>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6845220</v>
+        <v>6845222</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,37 +791,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
         <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
         <v>1.975</v>
@@ -830,7 +830,7 @@
         <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -842,10 +842,10 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y4">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
@@ -854,10 +854,10 @@
         <v>0.825</v>
       </c>
       <c r="AB4">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6845222</v>
+        <v>6845220</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,37 +880,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
         <v>3.5</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
         <v>1.975</v>
@@ -919,7 +919,7 @@
         <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -931,10 +931,10 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -943,10 +943,10 @@
         <v>0.825</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845225</v>
+        <v>6845226</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,73 +1058,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N7">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q7">
         <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845224</v>
+        <v>6845227</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,43 +1147,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.5</v>
@@ -1195,7 +1195,7 @@
         <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1204,16 +1204,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845227</v>
+        <v>6845223</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,55 +1236,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O9">
         <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
         <v>2.05</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1293,16 +1293,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845226</v>
+        <v>6845224</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,55 +1325,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N10">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
         <v>1.925</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.875</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.975</v>
-      </c>
-      <c r="V10">
-        <v>1.825</v>
-      </c>
       <c r="W10">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1382,16 +1382,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845223</v>
+        <v>6845225</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,73 +1414,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
+        <v>4.2</v>
+      </c>
+      <c r="Q11">
+        <v>-0.75</v>
+      </c>
+      <c r="R11">
         <v>2.05</v>
       </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>2.05</v>
-      </c>
       <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.85</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>2.75</v>
       </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.9</v>
-      </c>
-      <c r="W11">
-        <v>2.3</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.8</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845230</v>
+        <v>6845232</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,76 +1589,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
         <v>3.4</v>
       </c>
-      <c r="P13">
-        <v>2.8</v>
-      </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845231</v>
+        <v>6845228</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,73 +1678,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>2.15</v>
+      </c>
+      <c r="L14">
+        <v>3.4</v>
+      </c>
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="J14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14">
-        <v>1.75</v>
-      </c>
-      <c r="L14">
-        <v>3.5</v>
-      </c>
-      <c r="M14">
-        <v>4.2</v>
-      </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O14">
         <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6845232</v>
+        <v>6845229</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,73 +1767,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6845229</v>
+        <v>6845230</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,56 +1856,56 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>39</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
         <v>3.3</v>
       </c>
       <c r="M16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O16">
         <v>3.4</v>
       </c>
       <c r="P16">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
+        <v>2.05</v>
+      </c>
+      <c r="V16">
         <v>1.8</v>
       </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
@@ -1913,19 +1913,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.8</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6845228</v>
+        <v>6845231</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,73 +1945,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N17">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
         <v>3.5</v>
       </c>
       <c r="P17">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2037,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6845235</v>
+        <v>6845237</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,34 +2123,34 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N19">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
         <v>3.1</v>
@@ -2159,13 +2159,13 @@
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
         <v>1.975</v>
@@ -2174,25 +2174,25 @@
         <v>1.825</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6845234</v>
+        <v>6845235</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O20">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
+        <v>2.025</v>
+      </c>
+      <c r="S20">
+        <v>1.775</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
         <v>1.975</v>
       </c>
-      <c r="S20">
-        <v>1.875</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6845233</v>
+        <v>6845234</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,58 +2301,58 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2361,16 +2361,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6845237</v>
+        <v>6845233</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,58 +2390,58 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
       </c>
       <c r="K22">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N22">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>1.975</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>1.925</v>
+      </c>
+      <c r="V22">
         <v>1.875</v>
       </c>
-      <c r="S22">
-        <v>1.925</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.975</v>
-      </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2450,13 +2450,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,10 +2479,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2657,7 +2657,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6845242</v>
+        <v>6845241</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6845241</v>
+        <v>6845242</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,10 +2924,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
         <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6845244</v>
+        <v>6845247</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,76 +3013,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N29">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845247</v>
+        <v>6845244</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,76 +3102,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845246</v>
+        <v>6845245</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,43 +3191,43 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
         <v>3.4</v>
       </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="N31">
-        <v>4.2</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S31">
         <v>2.025</v>
@@ -3236,31 +3236,31 @@
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6845245</v>
+        <v>6845246</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,43 +3280,43 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
         <v>2.025</v>
@@ -3325,31 +3325,31 @@
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z32">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845254</v>
+        <v>6845251</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L33">
+        <v>3.4</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2.8</v>
+      </c>
+      <c r="O33">
         <v>3.25</v>
       </c>
-      <c r="M33">
-        <v>3.4</v>
-      </c>
-      <c r="N33">
+      <c r="P33">
         <v>2.3</v>
       </c>
-      <c r="O33">
-        <v>3.2</v>
-      </c>
-      <c r="P33">
-        <v>2.875</v>
-      </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V33">
         <v>1.8</v>
       </c>
       <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
         <v>1.3</v>
       </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>-1</v>
-      </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6845250</v>
+        <v>6845253</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,16 +3458,16 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>39</v>
@@ -3476,37 +3476,37 @@
         <v>2</v>
       </c>
       <c r="L34">
+        <v>3.25</v>
+      </c>
+      <c r="M34">
         <v>3.4</v>
       </c>
-      <c r="M34">
-        <v>3.25</v>
-      </c>
       <c r="N34">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
         <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3515,19 +3515,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845252</v>
+        <v>6845254</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3547,58 +3547,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>40</v>
       </c>
       <c r="K35">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N35">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W35">
-        <v>0.5329999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3607,16 +3607,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845253</v>
+        <v>6845250</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3636,16 +3636,16 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>39</v>
@@ -3654,37 +3654,37 @@
         <v>2</v>
       </c>
       <c r="L36">
+        <v>3.4</v>
+      </c>
+      <c r="M36">
         <v>3.25</v>
       </c>
-      <c r="M36">
-        <v>3.4</v>
-      </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
         <v>3.2</v>
       </c>
       <c r="P36">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3693,19 +3693,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845251</v>
+        <v>6845252</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,73 +3725,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N37">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6845259</v>
+        <v>6845258</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
       </c>
       <c r="K38">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="L38">
+        <v>3.4</v>
+      </c>
+      <c r="M38">
+        <v>3.6</v>
+      </c>
+      <c r="N38">
+        <v>2.2</v>
+      </c>
+      <c r="O38">
         <v>3.3</v>
       </c>
-      <c r="M38">
-        <v>2.45</v>
-      </c>
-      <c r="N38">
-        <v>3</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6845257</v>
+        <v>6845259</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>41</v>
       </c>
       <c r="K39">
+        <v>2.45</v>
+      </c>
+      <c r="L39">
+        <v>3.3</v>
+      </c>
+      <c r="M39">
+        <v>2.45</v>
+      </c>
+      <c r="N39">
         <v>3</v>
       </c>
-      <c r="L39">
-        <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>2.1</v>
-      </c>
-      <c r="N39">
-        <v>2.6</v>
-      </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6845258</v>
+        <v>6845255</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,76 +3992,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
         <v>37</v>
       </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K40">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6845255</v>
+        <v>6845257</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4081,76 +4081,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
+        <v>2.1</v>
+      </c>
+      <c r="N41">
+        <v>2.6</v>
+      </c>
+      <c r="O41">
+        <v>3.3</v>
+      </c>
+      <c r="P41">
+        <v>2.375</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>2.025</v>
+      </c>
+      <c r="S41">
+        <v>1.825</v>
+      </c>
+      <c r="T41">
         <v>2.75</v>
       </c>
-      <c r="N41">
-        <v>2.05</v>
-      </c>
-      <c r="O41">
-        <v>3.4</v>
-      </c>
-      <c r="P41">
-        <v>2.9</v>
-      </c>
-      <c r="Q41">
-        <v>-0.25</v>
-      </c>
-      <c r="R41">
+      <c r="U41">
         <v>1.9</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.85</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
+        <v>-0</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.95</v>
-      </c>
-      <c r="AB41">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,10 +4170,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4348,10 +4348,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6845265</v>
+        <v>6845267</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,73 +4437,73 @@
         <v>45226.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N45">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P45">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4514,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6845267</v>
+        <v>6845265</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4529,70 +4529,70 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q46">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
+        <v>1.85</v>
+      </c>
+      <c r="S46">
+        <v>1.95</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>1.975</v>
+      </c>
+      <c r="V46">
         <v>1.825</v>
       </c>
-      <c r="S46">
-        <v>1.975</v>
-      </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.9</v>
-      </c>
-      <c r="V46">
-        <v>1.9</v>
-      </c>
       <c r="W46">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4615,10 +4615,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4704,7 +4704,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -4793,7 +4793,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4971,10 +4971,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5060,10 +5060,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
         <v>38</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6845279</v>
+        <v>6845277</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,10 +5238,10 @@
         <v>45234.5</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5253,46 +5253,46 @@
         <v>41</v>
       </c>
       <c r="K54">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M54">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N54">
+        <v>1.363</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>7.5</v>
+      </c>
+      <c r="Q54">
+        <v>-1.25</v>
+      </c>
+      <c r="R54">
+        <v>1.85</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
         <v>1.8</v>
       </c>
-      <c r="O54">
-        <v>3.6</v>
-      </c>
-      <c r="P54">
-        <v>3.8</v>
-      </c>
-      <c r="Q54">
-        <v>-0.5</v>
-      </c>
-      <c r="R54">
-        <v>1.8</v>
-      </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.85</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5301,13 +5301,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6845277</v>
+        <v>6845275</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,7 +5327,7 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5336,67 +5336,67 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5416,10 +5416,10 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6845275</v>
+        <v>6845279</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,76 +5505,76 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6845283</v>
+        <v>6845280</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,58 +5683,58 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>40</v>
       </c>
       <c r="K59">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
       </c>
-      <c r="S59">
-        <v>1.85</v>
-      </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5743,16 +5743,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6845280</v>
+        <v>6845282</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,58 +5772,58 @@
         <v>45241.5</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>40</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
         <v>3.25</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
+        <v>1.75</v>
+      </c>
+      <c r="S60">
+        <v>2.05</v>
+      </c>
+      <c r="T60">
+        <v>2.25</v>
+      </c>
+      <c r="U60">
         <v>1.85</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="T60">
-        <v>2.5</v>
-      </c>
-      <c r="U60">
-        <v>1.875</v>
-      </c>
-      <c r="V60">
-        <v>1.925</v>
-      </c>
       <c r="W60">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5832,16 +5832,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
+        <v>0.75</v>
+      </c>
+      <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
       <c r="AC60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6845282</v>
+        <v>6845283</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5864,10 +5864,10 @@
         <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -5876,43 +5876,43 @@
         <v>40</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N61">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>1.375</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5921,16 +5921,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5950,10 +5950,10 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6042,7 +6042,7 @@
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6845287</v>
+        <v>6845289</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,70 +6223,70 @@
         <v>36</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
       <c r="J65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K65">
+        <v>1.727</v>
+      </c>
+      <c r="L65">
+        <v>3.8</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>1.8</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>3.6</v>
+      </c>
+      <c r="Q65">
+        <v>-0.5</v>
+      </c>
+      <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
         <v>2.75</v>
       </c>
-      <c r="L65">
-        <v>3.5</v>
-      </c>
-      <c r="M65">
-        <v>2.25</v>
-      </c>
-      <c r="N65">
-        <v>2.75</v>
-      </c>
-      <c r="O65">
-        <v>3</v>
-      </c>
-      <c r="P65">
-        <v>2.5</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
-      <c r="T65">
-        <v>2</v>
-      </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6845289</v>
+        <v>6845287</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6309,73 +6309,73 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L66">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.825</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>1.925</v>
+      </c>
+      <c r="V66">
         <v>1.875</v>
       </c>
-      <c r="S66">
-        <v>1.925</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.925</v>
-      </c>
       <c r="W66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6395,10 +6395,10 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6845293</v>
+        <v>6845290</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6484,46 +6484,46 @@
         <v>45269.5</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>39</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
+        <v>2.875</v>
+      </c>
+      <c r="N68">
+        <v>2.9</v>
+      </c>
+      <c r="O68">
         <v>3</v>
       </c>
-      <c r="N68">
-        <v>2.05</v>
-      </c>
-      <c r="O68">
-        <v>3.4</v>
-      </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>2.5</v>
@@ -6541,13 +6541,13 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
         <v>0.9750000000000001</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845292</v>
+        <v>6845291</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,76 +6573,76 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L69">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O69">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P69">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6845291</v>
+        <v>6845292</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6662,76 +6662,76 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K70">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N70">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P70">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6845290</v>
+        <v>6845293</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,46 +6751,46 @@
         <v>45269.5</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
         <v>39</v>
       </c>
       <c r="K71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
         <v>2.5</v>
@@ -6808,13 +6808,13 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB71">
         <v>0.9750000000000001</v>
@@ -6843,7 +6843,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6932,7 +6932,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6845296</v>
+        <v>6845295</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7018,76 +7018,76 @@
         <v>45276.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74">
+        <v>2.1</v>
+      </c>
+      <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>2.2</v>
+      </c>
+      <c r="O74">
+        <v>3.2</v>
+      </c>
+      <c r="P74">
+        <v>3.1</v>
+      </c>
+      <c r="Q74">
+        <v>-0.25</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.85</v>
+      </c>
+      <c r="T74">
+        <v>2.25</v>
+      </c>
+      <c r="U74">
+        <v>2.025</v>
+      </c>
+      <c r="V74">
+        <v>1.825</v>
+      </c>
+      <c r="W74">
+        <v>1.2</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
         <v>1</v>
       </c>
-      <c r="J74" t="s">
-        <v>39</v>
-      </c>
-      <c r="K74">
-        <v>1.8</v>
-      </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>4</v>
-      </c>
-      <c r="N74">
-        <v>1.7</v>
-      </c>
-      <c r="O74">
-        <v>3.4</v>
-      </c>
-      <c r="P74">
-        <v>4.5</v>
-      </c>
-      <c r="Q74">
-        <v>-0.75</v>
-      </c>
-      <c r="R74">
-        <v>2</v>
-      </c>
-      <c r="S74">
-        <v>1.8</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
-      <c r="V74">
-        <v>1.8</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>3.5</v>
-      </c>
-      <c r="Z74">
-        <v>-1</v>
-      </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845295</v>
+        <v>6845296</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s">
         <v>35</v>
       </c>
-      <c r="G75" t="s">
-        <v>38</v>
-      </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>1.7</v>
+      </c>
+      <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
+        <v>4.5</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>1.8</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1.8</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>3.5</v>
       </c>
-      <c r="M75">
-        <v>3</v>
-      </c>
-      <c r="N75">
-        <v>2.2</v>
-      </c>
-      <c r="O75">
-        <v>3.2</v>
-      </c>
-      <c r="P75">
-        <v>3.1</v>
-      </c>
-      <c r="Q75">
-        <v>-0.25</v>
-      </c>
-      <c r="R75">
-        <v>2</v>
-      </c>
-      <c r="S75">
-        <v>1.85</v>
-      </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>2.025</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
-      <c r="W75">
-        <v>1.2</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
       <c r="Z75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7199,7 +7199,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7285,7 +7285,7 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>29</v>
@@ -7377,7 +7377,7 @@
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7463,10 +7463,10 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7552,10 +7552,10 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7641,10 +7641,10 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
         <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6845301</v>
+        <v>6845300</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,40 +7730,40 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>41</v>
       </c>
       <c r="K82">
+        <v>2.6</v>
+      </c>
+      <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>2.2</v>
+      </c>
+      <c r="O82">
+        <v>3.6</v>
+      </c>
+      <c r="P82">
         <v>3.1</v>
       </c>
-      <c r="L82">
-        <v>3.8</v>
-      </c>
-      <c r="M82">
-        <v>2.1</v>
-      </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>1.85</v>
-      </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
         <v>1.95</v>
@@ -7772,34 +7772,34 @@
         <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6845300</v>
+        <v>6845301</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7819,40 +7819,40 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>41</v>
       </c>
       <c r="K83">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N83">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.95</v>
@@ -7861,34 +7861,34 @@
         <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,10 +7908,10 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7997,7 +7997,7 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8086,10 +8086,10 @@
         <v>45290.5</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845305</v>
+        <v>6845307</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,76 +8175,76 @@
         <v>45290.5</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>41</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N87">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U87">
         <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845307</v>
+        <v>6845305</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,76 +8264,76 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>41</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
         <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845311</v>
+        <v>6845314</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,76 +8353,76 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
         <v>3.5</v>
       </c>
       <c r="M89">
+        <v>2.7</v>
+      </c>
+      <c r="N89">
+        <v>2.3</v>
+      </c>
+      <c r="O89">
+        <v>3.25</v>
+      </c>
+      <c r="P89">
+        <v>2.7</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1.75</v>
+      </c>
+      <c r="S89">
+        <v>2.05</v>
+      </c>
+      <c r="T89">
         <v>2.25</v>
-      </c>
-      <c r="N89">
-        <v>3.2</v>
-      </c>
-      <c r="O89">
-        <v>3.75</v>
-      </c>
-      <c r="P89">
-        <v>2</v>
-      </c>
-      <c r="Q89">
-        <v>0.25</v>
-      </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89">
-        <v>1.8</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
       </c>
       <c r="U89">
         <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
+        <v>-0.5</v>
+      </c>
+      <c r="AC89">
         <v>0.4625</v>
-      </c>
-      <c r="AC89">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845312</v>
+        <v>6845311</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,49 +8442,49 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
         <v>1.925</v>
@@ -8493,25 +8493,25 @@
         <v>1.875</v>
       </c>
       <c r="W90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845313</v>
+        <v>6845310</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,46 +8531,46 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>2</v>
-      </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>1.181</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R91">
         <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>3.25</v>
@@ -8579,28 +8579,28 @@
         <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
+        <v>0.925</v>
+      </c>
+      <c r="AB91">
         <v>-0.5</v>
       </c>
-      <c r="AA91">
-        <v>0.4875</v>
-      </c>
-      <c r="AB91">
-        <v>0.95</v>
-      </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845314</v>
+        <v>6845313</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,58 +8620,58 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>40</v>
       </c>
       <c r="K92">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
+        <v>1.975</v>
+      </c>
+      <c r="T92">
         <v>3.25</v>
       </c>
-      <c r="P92">
-        <v>2.7</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.75</v>
-      </c>
-      <c r="S92">
-        <v>2.05</v>
-      </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8680,16 +8680,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC92">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845310</v>
+        <v>6845312</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,76 +8709,76 @@
         <v>45293.5</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N93">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="O93">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.181</v>
+        <v>2.9</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
         <v>1.875</v>
       </c>
-      <c r="S93">
-        <v>1.925</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
         <v>0.925</v>
       </c>
-      <c r="AB93">
-        <v>-0.5</v>
-      </c>
       <c r="AC93">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>45296.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6845318</v>
+        <v>6845317</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,73 +8887,73 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K95">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N95">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
+        <v>5.5</v>
+      </c>
+      <c r="P95">
         <v>5.25</v>
       </c>
-      <c r="P95">
-        <v>8.5</v>
-      </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
+        <v>1.9</v>
+      </c>
+      <c r="S95">
+        <v>1.9</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
         <v>1.8</v>
       </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
-      <c r="T95">
-        <v>3.5</v>
-      </c>
-      <c r="U95">
-        <v>2</v>
-      </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB95">
         <v>0.8</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>1</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6845316</v>
+        <v>6845315</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8976,76 +8976,76 @@
         <v>45297.5</v>
       </c>
       <c r="F96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" t="s">
         <v>35</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N96">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845315</v>
+        <v>6845316</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,76 +9065,76 @@
         <v>45297.5</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845317</v>
+        <v>6845318</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,73 +9154,73 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O98">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9243,10 +9243,10 @@
         <v>45303.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6845324</v>
+        <v>6845323</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,76 +9421,76 @@
         <v>45304.5</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N101">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O101">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
         <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6845323</v>
+        <v>6845324</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45304.5</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K102">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P102">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R102">
         <v>1.825</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U102">
         <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
         <v>-0</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
-      <c r="AC102">
-        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845326</v>
+        <v>6845329</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,49 +9688,49 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K104">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O104">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
         <v>1.775</v>
@@ -9742,22 +9742,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6845327</v>
+        <v>6845325</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,76 +9777,76 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P105">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845325</v>
+        <v>6845327</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K106">
+        <v>1.727</v>
+      </c>
+      <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106">
+        <v>1.4</v>
+      </c>
+      <c r="O106">
+        <v>4.2</v>
+      </c>
+      <c r="P106">
+        <v>7</v>
+      </c>
+      <c r="Q106">
+        <v>-1.25</v>
+      </c>
+      <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.875</v>
+      </c>
+      <c r="T106">
         <v>2.5</v>
       </c>
-      <c r="L106">
-        <v>3.4</v>
-      </c>
-      <c r="M106">
-        <v>2.5</v>
-      </c>
-      <c r="N106">
-        <v>2.625</v>
-      </c>
-      <c r="O106">
-        <v>3.4</v>
-      </c>
-      <c r="P106">
-        <v>2.4</v>
-      </c>
-      <c r="Q106">
-        <v>0.25</v>
-      </c>
-      <c r="R106">
+      <c r="U106">
         <v>1.825</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>2.025</v>
       </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.85</v>
-      </c>
-      <c r="V106">
-        <v>2</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6845329</v>
+        <v>6845326</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45318.5</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K107">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N107">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P107">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
         <v>1.775</v>
@@ -10009,22 +10009,22 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y107">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10044,10 +10044,10 @@
         <v>45318.5</v>
       </c>
       <c r="F108" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" t="s">
         <v>37</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6845333</v>
+        <v>6845332</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,55 +10133,55 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J109" t="s">
         <v>39</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M109">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N109">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10190,19 +10190,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6845332</v>
+        <v>6845333</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,55 +10222,55 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>39</v>
       </c>
       <c r="K110">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N110">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O110">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10279,19 +10279,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,10 +10311,10 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10403,7 +10403,7 @@
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10489,10 +10489,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6845336</v>
+        <v>6845338</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,55 +10578,55 @@
         <v>45339.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>41</v>
       </c>
       <c r="K114">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N114">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O114">
         <v>3.6</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10638,16 +10638,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6845337</v>
+        <v>6845336</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,76 +10667,76 @@
         <v>45339.5</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>41</v>
       </c>
       <c r="K115">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N115">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10744,7 +10744,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6845338</v>
+        <v>6845337</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10756,40 +10756,40 @@
         <v>45339.5</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
         <v>41</v>
       </c>
       <c r="K116">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
         <v>2.4</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
         <v>1.975</v>
@@ -10801,31 +10801,31 @@
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,10 +10845,10 @@
         <v>45339.5</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10934,7 +10934,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11026,7 +11026,7 @@
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11112,10 +11112,10 @@
         <v>45346.5</v>
       </c>
       <c r="F120" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s">
         <v>35</v>
-      </c>
-      <c r="G120" t="s">
-        <v>36</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11201,10 +11201,10 @@
         <v>45346.5</v>
       </c>
       <c r="F121" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" t="s">
         <v>34</v>
-      </c>
-      <c r="G121" t="s">
-        <v>37</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11293,7 +11293,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11367,7 +11367,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6845346</v>
+        <v>6845348</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11382,73 +11382,73 @@
         <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K123">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N123">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O123">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845345</v>
+        <v>6845347</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
+        <v>2.9</v>
+      </c>
+      <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
         <v>2.25</v>
       </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6853957</v>
+        <v>6845346</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" t="s">
         <v>36</v>
       </c>
-      <c r="G125" t="s">
-        <v>33</v>
-      </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P125">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6845348</v>
+        <v>6845345</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11649,56 +11649,56 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
         <v>40</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O126">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
+        <v>1.825</v>
+      </c>
+      <c r="W126">
         <v>1.8</v>
       </c>
-      <c r="W126">
-        <v>0.7</v>
-      </c>
       <c r="X126">
         <v>-1</v>
       </c>
@@ -11706,13 +11706,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6845347</v>
+        <v>6853957</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,10 +11735,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11750,61 +11750,61 @@
         <v>41</v>
       </c>
       <c r="K127">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
+        <v>3.6</v>
+      </c>
+      <c r="M127">
+        <v>3.8</v>
+      </c>
+      <c r="N127">
+        <v>2.4</v>
+      </c>
+      <c r="O127">
         <v>3.4</v>
       </c>
-      <c r="M127">
-        <v>3.4</v>
-      </c>
-      <c r="N127">
-        <v>2.3</v>
-      </c>
-      <c r="O127">
-        <v>3.2</v>
-      </c>
       <c r="P127">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11827,7 +11827,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11901,7 +11901,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6922469</v>
+        <v>6922470</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11913,76 +11913,76 @@
         <v>45353.5</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
+        <v>3.75</v>
+      </c>
+      <c r="M129">
+        <v>1.909</v>
+      </c>
+      <c r="N129">
         <v>3.4</v>
       </c>
-      <c r="M129">
-        <v>2.8</v>
-      </c>
-      <c r="N129">
-        <v>2.25</v>
-      </c>
       <c r="O129">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
+        <v>1.85</v>
+      </c>
+      <c r="Q129">
+        <v>0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.9</v>
+      </c>
+      <c r="T129">
         <v>2.75</v>
       </c>
-      <c r="Q129">
-        <v>-0.25</v>
-      </c>
-      <c r="R129">
-        <v>2.05</v>
-      </c>
-      <c r="S129">
-        <v>1.8</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6922451</v>
+        <v>6922469</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,46 +12002,46 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
         <v>3.4</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N130">
+        <v>2.25</v>
+      </c>
+      <c r="O130">
+        <v>3.3</v>
+      </c>
+      <c r="P130">
+        <v>2.75</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
         <v>1.8</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
-      <c r="P130">
-        <v>4</v>
-      </c>
-      <c r="Q130">
-        <v>-0.5</v>
-      </c>
-      <c r="R130">
-        <v>1.85</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.25</v>
@@ -12050,28 +12050,28 @@
         <v>1.8</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6922470</v>
+        <v>6922451</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s">
         <v>32</v>
       </c>
-      <c r="G131" t="s">
-        <v>34</v>
-      </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K131">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
+        <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
         <v>1.85</v>
       </c>
-      <c r="Q131">
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
+        <v>2</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>3</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.95</v>
+      </c>
+      <c r="AB131">
+        <v>-0.5</v>
+      </c>
+      <c r="AC131">
         <v>0.5</v>
-      </c>
-      <c r="R131">
-        <v>1.9</v>
-      </c>
-      <c r="S131">
-        <v>1.9</v>
-      </c>
-      <c r="T131">
-        <v>2.75</v>
-      </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.75</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12180,10 +12180,10 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7888759</v>
+        <v>7158590</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,61 +12269,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
       </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>39</v>
+      </c>
       <c r="K133">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N133">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
         <v>1.8</v>
       </c>
-      <c r="S133">
-        <v>2.05</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12331,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7158590</v>
+        <v>7888759</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12343,61 +12358,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>39</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L134">
         <v>3.3</v>
       </c>
       <c r="M134">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N134">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB134">
+        <v>-0.5</v>
+      </c>
+      <c r="AC134">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12405,7 +12435,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6957815</v>
+        <v>6937664</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12417,31 +12447,31 @@
         <v>45360.5</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K135">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="L135">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>1.125</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>19</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
         <v>1.85</v>
@@ -12450,13 +12480,13 @@
         <v>2</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12491,10 +12521,10 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K136">
         <v>2.875</v>
@@ -12506,31 +12536,31 @@
         <v>2.15</v>
       </c>
       <c r="N136">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q136">
         <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12565,7 +12595,7 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>30</v>
@@ -12580,31 +12610,31 @@
         <v>5.75</v>
       </c>
       <c r="N137">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12627,7 +12657,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6937664</v>
+        <v>6957815</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12639,46 +12669,46 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="M138">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>1.181</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P138">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>0</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -106,31 +106,31 @@
     <t>Arbroath</t>
   </si>
   <si>
-    <t>Dunfermline</t>
+    <t>Morton</t>
   </si>
   <si>
-    <t>Partick</t>
+    <t>Dunfermline</t>
   </si>
   <si>
     <t>Inverness CT</t>
   </si>
   <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>Raith</t>
-  </si>
-  <si>
-    <t>Airdrieonians</t>
+    <t>Partick</t>
   </si>
   <si>
     <t>Ayr</t>
   </si>
   <si>
     <t>Dundee Utd</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>Airdrieonians</t>
+  </si>
+  <si>
+    <t>Raith</t>
   </si>
   <si>
     <t>A</t>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6845219</v>
+        <v>6845221</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,10 +702,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -714,43 +714,43 @@
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -759,13 +759,13 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6845222</v>
+        <v>6845219</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,37 +791,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>4.5</v>
+      </c>
+      <c r="N4">
+        <v>1.909</v>
+      </c>
+      <c r="O4">
+        <v>3.3</v>
+      </c>
+      <c r="P4">
         <v>3.5</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>1.7</v>
-      </c>
-      <c r="O4">
-        <v>3.8</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
         <v>1.975</v>
@@ -833,28 +833,28 @@
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X4">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6845221</v>
+        <v>6845222</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>2.1</v>
@@ -990,49 +990,49 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845226</v>
+        <v>6845224</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,55 +1058,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
         <v>1.925</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1115,16 +1115,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845227</v>
+        <v>6845225</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,73 +1147,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845223</v>
+        <v>6845226</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1248,43 +1248,43 @@
         <v>40</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1293,13 +1293,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AC9">
         <v>-0.5</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845224</v>
+        <v>6845223</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,73 +1325,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N10">
+        <v>3.3</v>
+      </c>
+      <c r="O10">
+        <v>3.3</v>
+      </c>
+      <c r="P10">
+        <v>2.05</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2.05</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>3.4</v>
-      </c>
-      <c r="Q10">
+      <c r="V10">
+        <v>1.9</v>
+      </c>
+      <c r="W10">
+        <v>2.3</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0.8</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>0.475</v>
+      </c>
+      <c r="AC10">
         <v>-0.5</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>1.8</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.925</v>
-      </c>
-      <c r="V10">
-        <v>1.875</v>
-      </c>
-      <c r="W10">
-        <v>0.95</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845225</v>
+        <v>6845227</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,70 +1417,70 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N11">
+        <v>2.375</v>
+      </c>
+      <c r="O11">
+        <v>3.3</v>
+      </c>
+      <c r="P11">
+        <v>2.625</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>1.75</v>
       </c>
-      <c r="O11">
-        <v>3.75</v>
-      </c>
-      <c r="P11">
-        <v>4.2</v>
-      </c>
-      <c r="Q11">
-        <v>-0.75</v>
-      </c>
-      <c r="R11">
+      <c r="S11">
         <v>2.05</v>
-      </c>
-      <c r="S11">
-        <v>1.8</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845232</v>
+        <v>6845228</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,13 +1589,13 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1604,43 +1604,43 @@
         <v>40</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
         <v>3</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1649,13 +1649,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845228</v>
+        <v>6845229</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,73 +1678,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
+        <v>3.3</v>
+      </c>
+      <c r="M14">
+        <v>2.8</v>
+      </c>
+      <c r="N14">
+        <v>3.1</v>
+      </c>
+      <c r="O14">
         <v>3.4</v>
       </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>2.05</v>
-      </c>
-      <c r="O14">
-        <v>3.5</v>
-      </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.925</v>
+      </c>
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="S14">
-        <v>2.05</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
-      <c r="U14">
-        <v>1.875</v>
-      </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.925</v>
+      </c>
+      <c r="AB14">
         <v>0.8</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>0.875</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6845229</v>
+        <v>6845230</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,7 +1767,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>38</v>
@@ -1776,47 +1776,47 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
         <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O15">
         <v>3.4</v>
       </c>
       <c r="P15">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
+        <v>2.05</v>
+      </c>
+      <c r="V15">
         <v>1.8</v>
       </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
@@ -1824,19 +1824,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6845230</v>
+        <v>6845231</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1859,52 +1859,52 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>39</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1913,19 +1913,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6845231</v>
+        <v>6845232</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1948,70 +1948,70 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3.6</v>
+      </c>
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>1.75</v>
-      </c>
-      <c r="L17">
-        <v>3.5</v>
-      </c>
-      <c r="M17">
-        <v>4.2</v>
-      </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
+        <v>1.775</v>
+      </c>
+      <c r="S17">
+        <v>2.025</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
         <v>1.9</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.9</v>
       </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.775</v>
-      </c>
-      <c r="V17">
-        <v>2.025</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB17">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6845236</v>
+        <v>6845233</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,73 +2034,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
+        <v>2.55</v>
+      </c>
+      <c r="O18">
+        <v>3.25</v>
+      </c>
+      <c r="P18">
         <v>2.7</v>
       </c>
-      <c r="O18">
-        <v>3.75</v>
-      </c>
-      <c r="P18">
-        <v>2.3</v>
-      </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,10 +2123,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6845235</v>
+        <v>6845236</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
         <v>2.025</v>
-      </c>
-      <c r="S20">
-        <v>1.775</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,10 +2301,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6845233</v>
+        <v>6845235</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,76 +2390,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
+        <v>2.025</v>
+      </c>
+      <c r="S22">
+        <v>1.775</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.975</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="S22">
-        <v>1.975</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.875</v>
-      </c>
       <c r="W22">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.3875</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.825</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.925</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2479,10 +2479,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845238</v>
+        <v>6845240</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,76 +2568,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>1.571</v>
+      </c>
+      <c r="L24">
         <v>4</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24">
-        <v>2.25</v>
-      </c>
-      <c r="L24">
-        <v>3.25</v>
-      </c>
       <c r="M24">
+        <v>4.333</v>
+      </c>
+      <c r="N24">
+        <v>1.55</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>5.25</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
+        <v>1.85</v>
+      </c>
+      <c r="T24">
         <v>2.75</v>
       </c>
-      <c r="N24">
-        <v>2.625</v>
-      </c>
-      <c r="O24">
-        <v>3.2</v>
-      </c>
-      <c r="P24">
-        <v>2.625</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845240</v>
+        <v>6845241</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N25">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
+        <v>1.875</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.85</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="S25">
-        <v>1.85</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
-      <c r="V25">
-        <v>1.85</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6845241</v>
+        <v>6845238</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,37 +2746,37 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
         <v>2.75</v>
       </c>
       <c r="N26">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2791,31 +2791,31 @@
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.875</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -2924,10 +2924,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
         <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6845247</v>
+        <v>6845245</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3016,46 +3016,46 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
         <v>1.95</v>
@@ -3064,25 +3064,25 @@
         <v>1.85</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845244</v>
+        <v>6845246</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,46 +3102,46 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.5</v>
@@ -3153,19 +3153,19 @@
         <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845245</v>
+        <v>6845247</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,49 +3191,49 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R31">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
         <v>1.95</v>
@@ -3242,25 +3242,25 @@
         <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z31">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6845246</v>
+        <v>6845244</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,46 +3280,46 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
         <v>1.825</v>
-      </c>
-      <c r="S32">
-        <v>2.025</v>
       </c>
       <c r="T32">
         <v>2.5</v>
@@ -3331,19 +3331,19 @@
         <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA32">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845251</v>
+        <v>6845252</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,73 +3369,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6845253</v>
+        <v>6845251</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,55 +3458,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
         <v>39</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2.8</v>
+      </c>
+      <c r="O34">
         <v>3.25</v>
       </c>
-      <c r="M34">
-        <v>3.4</v>
-      </c>
-      <c r="N34">
-        <v>2.2</v>
-      </c>
-      <c r="O34">
-        <v>3.2</v>
-      </c>
       <c r="P34">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3515,19 +3515,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845254</v>
+        <v>6845250</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3547,76 +3547,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>3</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35">
         <v>2</v>
       </c>
       <c r="L35">
+        <v>3.4</v>
+      </c>
+      <c r="M35">
         <v>3.25</v>
       </c>
-      <c r="M35">
-        <v>3.4</v>
-      </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
         <v>3.2</v>
       </c>
       <c r="P35">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845250</v>
+        <v>6845254</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3636,76 +3636,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>2</v>
       </c>
       <c r="L36">
+        <v>3.25</v>
+      </c>
+      <c r="M36">
         <v>3.4</v>
       </c>
-      <c r="M36">
-        <v>3.25</v>
-      </c>
       <c r="N36">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O36">
         <v>3.2</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845252</v>
+        <v>6845253</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,76 +3725,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M37">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N37">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
         <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6845258</v>
+        <v>6845255</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
         <v>34</v>
       </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6845259</v>
+        <v>6845258</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>41</v>
       </c>
       <c r="K39">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>3.6</v>
+      </c>
+      <c r="N39">
+        <v>2.2</v>
+      </c>
+      <c r="O39">
         <v>3.3</v>
       </c>
-      <c r="M39">
-        <v>2.45</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
       <c r="P39">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6845255</v>
+        <v>6845259</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,43 +3992,43 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N40">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O40">
         <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
         <v>1.95</v>
@@ -4037,31 +4037,31 @@
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4170,10 +4170,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
         <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6845262</v>
+        <v>6845264</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,55 +4259,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>39</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4316,19 +4316,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6845264</v>
+        <v>6845262</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4351,52 +4351,52 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>39</v>
       </c>
       <c r="K44">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
+        <v>3.5</v>
+      </c>
+      <c r="M44">
         <v>3.3</v>
       </c>
-      <c r="M44">
-        <v>2.55</v>
-      </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4405,19 +4405,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4526,10 +4526,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6845268</v>
+        <v>6845269</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4615,10 +4615,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4630,43 +4630,43 @@
         <v>40</v>
       </c>
       <c r="K47">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
         <v>3.4</v>
       </c>
-      <c r="M47">
-        <v>2.5</v>
-      </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4675,7 +4675,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4684,7 +4684,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6845266</v>
+        <v>6845268</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,46 +4704,46 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
         <v>37</v>
       </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
+        <v>2.5</v>
+      </c>
+      <c r="N48">
+        <v>2.15</v>
+      </c>
+      <c r="O48">
         <v>3.5</v>
       </c>
-      <c r="N48">
-        <v>2.2</v>
-      </c>
-      <c r="O48">
-        <v>3.2</v>
-      </c>
       <c r="P48">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
@@ -4752,28 +4752,28 @@
         <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6845269</v>
+        <v>6845266</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,34 +4793,34 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
         <v>3.1</v>
@@ -4832,37 +4832,37 @@
         <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6845273</v>
+        <v>6845274</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,70 +4885,70 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50">
+        <v>1.8</v>
+      </c>
+      <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>1.909</v>
+      </c>
+      <c r="O50">
+        <v>3.6</v>
+      </c>
+      <c r="P50">
+        <v>3.4</v>
+      </c>
+      <c r="Q50">
+        <v>-0.5</v>
+      </c>
+      <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
+        <v>1.85</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>1.8</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>2.6</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="J50" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50">
-        <v>3.1</v>
-      </c>
-      <c r="L50">
-        <v>3.3</v>
-      </c>
-      <c r="M50">
-        <v>2.15</v>
-      </c>
-      <c r="N50">
-        <v>2.8</v>
-      </c>
-      <c r="O50">
-        <v>3.1</v>
-      </c>
-      <c r="P50">
-        <v>2.45</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>2</v>
-      </c>
-      <c r="S50">
-        <v>1.8</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.95</v>
-      </c>
-      <c r="V50">
-        <v>1.85</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>1.45</v>
-      </c>
-      <c r="Z50">
-        <v>-1</v>
-      </c>
-      <c r="AA50">
-        <v>0.8</v>
-      </c>
-      <c r="AB50">
-        <v>0.95</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4959,7 +4959,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6845274</v>
+        <v>6845270</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4971,76 +4971,76 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
+        <v>1.85</v>
+      </c>
+      <c r="N51">
+        <v>5.25</v>
+      </c>
+      <c r="O51">
         <v>4</v>
       </c>
-      <c r="N51">
-        <v>1.909</v>
-      </c>
-      <c r="O51">
-        <v>3.6</v>
-      </c>
       <c r="P51">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R51">
+        <v>1.9</v>
+      </c>
+      <c r="S51">
         <v>1.95</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>2.75</v>
+      </c>
+      <c r="U51">
         <v>1.85</v>
       </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>2</v>
-      </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>1</v>
-      </c>
-      <c r="AC51">
-        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5048,7 +5048,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6845270</v>
+        <v>6845273</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5060,13 +5060,13 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -5075,41 +5075,41 @@
         <v>39</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
+        <v>2.15</v>
+      </c>
+      <c r="N52">
+        <v>2.8</v>
+      </c>
+      <c r="O52">
+        <v>3.1</v>
+      </c>
+      <c r="P52">
+        <v>2.45</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>1.8</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
+        <v>1.95</v>
+      </c>
+      <c r="V52">
         <v>1.85</v>
       </c>
-      <c r="N52">
-        <v>5.25</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
-      </c>
-      <c r="P52">
-        <v>1.533</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="R52">
-        <v>1.9</v>
-      </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
-      <c r="T52">
-        <v>2.75</v>
-      </c>
-      <c r="U52">
-        <v>1.85</v>
-      </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
@@ -5117,19 +5117,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
+        <v>0.8</v>
+      </c>
+      <c r="AB52">
         <v>0.95</v>
       </c>
-      <c r="AB52">
-        <v>-1</v>
-      </c>
       <c r="AC52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,10 +5149,10 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6845277</v>
+        <v>6845279</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5241,7 +5241,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5253,46 +5253,46 @@
         <v>41</v>
       </c>
       <c r="K54">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L54">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
+        <v>1.8</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
         <v>1.85</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>2</v>
-      </c>
-      <c r="V54">
-        <v>1.8</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5301,13 +5301,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.95</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6845275</v>
+        <v>6845277</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M55">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
         <v>1.8</v>
       </c>
-      <c r="V55">
-        <v>2</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.8</v>
-      </c>
-      <c r="AC55">
-        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5416,10 +5416,10 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6845279</v>
+        <v>6845275</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,76 +5505,76 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>2.2</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
         <v>3.5</v>
       </c>
-      <c r="M57">
-        <v>3.5</v>
-      </c>
-      <c r="N57">
+      <c r="P57">
+        <v>2.15</v>
+      </c>
+      <c r="Q57">
+        <v>0.25</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>1.975</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
         <v>1.8</v>
       </c>
-      <c r="O57">
-        <v>3.6</v>
-      </c>
-      <c r="P57">
-        <v>3.8</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.8</v>
-      </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,10 +5594,10 @@
         <v>45240.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6845280</v>
+        <v>6845282</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,58 +5683,58 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>40</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
         <v>3.25</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
+        <v>1.75</v>
+      </c>
+      <c r="S59">
+        <v>2.05</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
         <v>1.85</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.875</v>
-      </c>
-      <c r="V59">
-        <v>1.925</v>
-      </c>
       <c r="W59">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5743,16 +5743,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
+        <v>0.75</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+      <c r="AB59">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6845282</v>
+        <v>6845283</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,13 +5772,13 @@
         <v>45241.5</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -5787,43 +5787,43 @@
         <v>40</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N60">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>1.375</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5832,16 +5832,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6845283</v>
+        <v>6845284</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5861,76 +5861,76 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N61">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z61">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB61">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6845284</v>
+        <v>6845280</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62">
+        <v>2.2</v>
+      </c>
+      <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
         <v>3</v>
       </c>
-      <c r="J62" t="s">
-        <v>39</v>
-      </c>
-      <c r="K62">
-        <v>2.875</v>
-      </c>
-      <c r="L62">
-        <v>3.5</v>
-      </c>
-      <c r="M62">
+      <c r="N62">
         <v>2.15</v>
-      </c>
-      <c r="N62">
-        <v>2.75</v>
       </c>
       <c r="O62">
         <v>3.3</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>45248.5</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -6128,7 +6128,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6217,10 +6217,10 @@
         <v>45262.5</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6309,7 +6309,7 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6395,10 +6395,10 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6845290</v>
+        <v>6845293</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6487,43 +6487,43 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
         <v>39</v>
       </c>
       <c r="K68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
         <v>2.5</v>
@@ -6541,13 +6541,13 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
         <v>0.9750000000000001</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845291</v>
+        <v>6845290</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,10 +6573,10 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6588,40 +6588,40 @@
         <v>39</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P69">
+        <v>2.7</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
         <v>2.5</v>
       </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>2.025</v>
-      </c>
-      <c r="S69">
-        <v>1.775</v>
-      </c>
-      <c r="T69">
-        <v>2.25</v>
-      </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6630,16 +6630,16 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6662,10 +6662,10 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6845293</v>
+        <v>6845291</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,55 +6751,55 @@
         <v>45269.5</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>39</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
+        <v>2.025</v>
+      </c>
+      <c r="S71">
         <v>1.775</v>
       </c>
-      <c r="S71">
-        <v>2.025</v>
-      </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6808,16 +6808,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6840,7 +6840,7 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6932,7 +6932,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7018,10 +7018,10 @@
         <v>45276.5</v>
       </c>
       <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
         <v>37</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845296</v>
+        <v>6845299</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N75">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,10 +7196,10 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845298</v>
+        <v>6845296</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,55 +7285,55 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>1</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>39</v>
       </c>
       <c r="K77">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
         <v>4</v>
       </c>
       <c r="N77">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7342,19 +7342,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845299</v>
+        <v>6845298</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,76 +7374,76 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6845303</v>
+        <v>6845304</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7463,76 +7463,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s">
         <v>34</v>
       </c>
-      <c r="G79" t="s">
-        <v>38</v>
-      </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>41</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P79">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845304</v>
+        <v>6845303</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,76 +7552,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s">
         <v>35</v>
       </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>41</v>
       </c>
       <c r="K80">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N80">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6845302</v>
+        <v>6845301</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,10 +7641,10 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s">
         <v>31</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7656,31 +7656,31 @@
         <v>41</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L81">
+        <v>3.8</v>
+      </c>
+      <c r="M81">
+        <v>2.1</v>
+      </c>
+      <c r="N81">
         <v>3.75</v>
       </c>
-      <c r="M81">
-        <v>3.4</v>
-      </c>
-      <c r="N81">
-        <v>1.909</v>
-      </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.75</v>
@@ -7689,28 +7689,28 @@
         <v>2</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7730,10 +7730,10 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6845301</v>
+        <v>6845302</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7819,10 +7819,10 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7834,31 +7834,31 @@
         <v>41</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>3.4</v>
+      </c>
+      <c r="N83">
+        <v>1.909</v>
+      </c>
+      <c r="O83">
+        <v>3.6</v>
+      </c>
+      <c r="P83">
         <v>3.8</v>
       </c>
-      <c r="M83">
-        <v>2.1</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
+      <c r="Q83">
+        <v>-0.5</v>
+      </c>
+      <c r="R83">
         <v>1.85</v>
       </c>
-      <c r="Q83">
-        <v>0.5</v>
-      </c>
-      <c r="R83">
+      <c r="S83">
         <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>1.9</v>
       </c>
       <c r="T83">
         <v>2.75</v>
@@ -7867,28 +7867,28 @@
         <v>2</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>0.95</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,10 +7908,10 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7997,7 +7997,7 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6845308</v>
+        <v>6845305</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8089,70 +8089,70 @@
         <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
         <v>3.4</v>
       </c>
       <c r="M86">
+        <v>2.9</v>
+      </c>
+      <c r="N86">
         <v>2.375</v>
       </c>
-      <c r="N86">
-        <v>2.4</v>
-      </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y86">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8178,7 +8178,7 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845305</v>
+        <v>6845308</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,73 +8264,73 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
         <v>37</v>
       </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8353,7 +8353,7 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8442,10 +8442,10 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845310</v>
+        <v>6845312</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,76 +8531,76 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N91">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="O91">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>1.181</v>
+        <v>2.9</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
+        <v>1.9</v>
+      </c>
+      <c r="T91">
+        <v>2.5</v>
+      </c>
+      <c r="U91">
+        <v>1.925</v>
+      </c>
+      <c r="V91">
         <v>1.875</v>
       </c>
-      <c r="S91">
-        <v>1.925</v>
-      </c>
-      <c r="T91">
-        <v>3.25</v>
-      </c>
-      <c r="U91">
-        <v>1.95</v>
-      </c>
-      <c r="V91">
-        <v>1.85</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
         <v>0.925</v>
       </c>
-      <c r="AB91">
-        <v>-0.5</v>
-      </c>
       <c r="AC91">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845313</v>
+        <v>6845310</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,46 +8620,46 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <v>3</v>
       </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="N92">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>1.181</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R92">
         <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>3.25</v>
@@ -8668,28 +8668,28 @@
         <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
+        <v>0.925</v>
+      </c>
+      <c r="AB92">
         <v>-0.5</v>
       </c>
-      <c r="AA92">
-        <v>0.4875</v>
-      </c>
-      <c r="AB92">
-        <v>0.95</v>
-      </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845312</v>
+        <v>6845313</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8712,55 +8712,55 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>40</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
+        <v>1.875</v>
+      </c>
+      <c r="S93">
+        <v>1.975</v>
+      </c>
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
         <v>1.9</v>
       </c>
-      <c r="S93">
-        <v>1.9</v>
-      </c>
-      <c r="T93">
-        <v>2.5</v>
-      </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8769,13 +8769,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8798,10 +8798,10 @@
         <v>45296.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6845317</v>
+        <v>6845315</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,76 +8887,76 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
         <v>38</v>
       </c>
-      <c r="G95" t="s">
-        <v>33</v>
-      </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K95">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O95">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
         <v>1.9</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.9</v>
       </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.8</v>
-      </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB95">
-        <v>0.8</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6845315</v>
+        <v>6845317</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8976,76 +8976,76 @@
         <v>45297.5</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M96">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N96">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P96">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845316</v>
+        <v>6845318</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,73 +9065,73 @@
         <v>45297.5</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>40</v>
+      </c>
+      <c r="K97">
+        <v>1.571</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>4.333</v>
+      </c>
+      <c r="N97">
+        <v>1.3</v>
+      </c>
+      <c r="O97">
+        <v>5.25</v>
+      </c>
+      <c r="P97">
+        <v>8.5</v>
+      </c>
+      <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3.5</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>1.8</v>
+      </c>
+      <c r="W97">
+        <v>0.3</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.8</v>
+      </c>
+      <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
         <v>1</v>
-      </c>
-      <c r="I97">
-        <v>3</v>
-      </c>
-      <c r="J97" t="s">
-        <v>39</v>
-      </c>
-      <c r="K97">
-        <v>2.25</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>2.5</v>
-      </c>
-      <c r="N97">
-        <v>2.15</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>2.8</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.825</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
-      <c r="U97">
-        <v>1.85</v>
-      </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>1.8</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.825</v>
-      </c>
-      <c r="AB97">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845318</v>
+        <v>6845316</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,73 +9154,73 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.825</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
         <v>1.8</v>
       </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <v>3.5</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
-      <c r="V98">
-        <v>1.8</v>
-      </c>
-      <c r="W98">
-        <v>0.3</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9246,7 +9246,7 @@
         <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6845323</v>
+        <v>6845324</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,76 +9421,76 @@
         <v>45304.5</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K101">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P101">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R101">
         <v>1.825</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
         <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
         <v>-0</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6845324</v>
+        <v>6845323</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45304.5</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O102">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R102">
         <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9688,7 +9688,7 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -9777,10 +9777,10 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845327</v>
+        <v>6845326</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N106">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
         <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
         <v>2.025</v>
       </c>
       <c r="W106">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6845326</v>
+        <v>6845327</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,76 +9955,76 @@
         <v>45318.5</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K107">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L107">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <v>1.4</v>
+      </c>
+      <c r="O107">
+        <v>4.2</v>
+      </c>
+      <c r="P107">
         <v>7</v>
-      </c>
-      <c r="N107">
-        <v>1.363</v>
-      </c>
-      <c r="O107">
-        <v>4.75</v>
-      </c>
-      <c r="P107">
-        <v>7.5</v>
       </c>
       <c r="Q107">
         <v>-1.25</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
         <v>2.025</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X107">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10044,10 +10044,10 @@
         <v>45318.5</v>
       </c>
       <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s">
         <v>34</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10133,10 +10133,10 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
         <v>30</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6845333</v>
+        <v>6845331</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,76 +10222,76 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>39</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L110">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M110">
+        <v>1.533</v>
+      </c>
+      <c r="N110">
+        <v>4.75</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>1.6</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
         <v>2.75</v>
       </c>
-      <c r="N110">
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="O110">
-        <v>3.75</v>
-      </c>
-      <c r="P110">
-        <v>3.6</v>
-      </c>
-      <c r="Q110">
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>-0</v>
+      </c>
+      <c r="AB110">
+        <v>0.5</v>
+      </c>
+      <c r="AC110">
         <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.875</v>
-      </c>
-      <c r="S110">
-        <v>1.925</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
-      <c r="V110">
-        <v>1.95</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>2.6</v>
-      </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>0.925</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6845331</v>
+        <v>6845333</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,55 +10311,55 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
         <v>1</v>
-      </c>
-      <c r="I111">
-        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>39</v>
       </c>
       <c r="K111">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="N111">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10368,19 +10368,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,10 +10400,10 @@
         <v>45332.5</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10489,10 +10489,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F113" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s">
         <v>35</v>
-      </c>
-      <c r="G113" t="s">
-        <v>38</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6845338</v>
+        <v>6845335</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,76 +10578,76 @@
         <v>45339.5</v>
       </c>
       <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
         <v>34</v>
       </c>
-      <c r="G114" t="s">
-        <v>33</v>
-      </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M114">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z114">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6845336</v>
+        <v>6845338</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,55 +10667,55 @@
         <v>45339.5</v>
       </c>
       <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
         <v>30</v>
       </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>41</v>
       </c>
       <c r="K115">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N115">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O115">
         <v>3.6</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10727,16 +10727,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10833,7 +10833,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6845335</v>
+        <v>6845336</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10845,52 +10845,52 @@
         <v>45339.5</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
         <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
         <v>1.9</v>
@@ -10899,10 +10899,10 @@
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
@@ -10911,10 +10911,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,10 +10934,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F118" t="s">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s">
         <v>31</v>
-      </c>
-      <c r="G118" t="s">
-        <v>30</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11011,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6845343</v>
+        <v>6845341</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11023,73 +11023,73 @@
         <v>45346.5</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <v>3.5</v>
+      </c>
+      <c r="M119">
+        <v>1.8</v>
+      </c>
+      <c r="N119">
+        <v>2.7</v>
+      </c>
+      <c r="O119">
+        <v>3.25</v>
+      </c>
+      <c r="P119">
+        <v>2.45</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>2.025</v>
+      </c>
+      <c r="S119">
+        <v>1.825</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>1.85</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>1.45</v>
+      </c>
+      <c r="Z119">
+        <v>-1</v>
+      </c>
+      <c r="AA119">
+        <v>0.825</v>
+      </c>
+      <c r="AB119">
         <v>1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>40</v>
-      </c>
-      <c r="K119">
-        <v>2.2</v>
-      </c>
-      <c r="L119">
-        <v>3.3</v>
-      </c>
-      <c r="M119">
-        <v>3</v>
-      </c>
-      <c r="N119">
-        <v>2</v>
-      </c>
-      <c r="O119">
-        <v>3.3</v>
-      </c>
-      <c r="P119">
-        <v>3.5</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>2</v>
-      </c>
-      <c r="S119">
-        <v>1.8</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.975</v>
-      </c>
-      <c r="V119">
-        <v>1.825</v>
-      </c>
-      <c r="W119">
-        <v>1</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>1</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6845341</v>
+        <v>6845340</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,76 +11112,76 @@
         <v>45346.5</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N120">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11201,10 +11201,10 @@
         <v>45346.5</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845340</v>
+        <v>6845343</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45346.5</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K122">
+        <v>2.2</v>
+      </c>
+      <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
         <v>3</v>
       </c>
-      <c r="L122">
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
         <v>3.5</v>
       </c>
-      <c r="M122">
-        <v>2.1</v>
-      </c>
-      <c r="N122">
-        <v>3.5</v>
-      </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
-      <c r="P122">
-        <v>1.909</v>
-      </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11367,7 +11367,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6845348</v>
+        <v>6845346</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11379,76 +11379,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N123">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P123">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845347</v>
+        <v>6845348</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.95</v>
-      </c>
-      <c r="V124">
-        <v>1.9</v>
-      </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X124">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6845346</v>
+        <v>6853957</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11560,73 +11560,73 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N125">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O125">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11646,10 +11646,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6853957</v>
+        <v>6845347</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,10 +11735,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11750,61 +11750,61 @@
         <v>41</v>
       </c>
       <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>3.4</v>
+      </c>
+      <c r="N127">
+        <v>2.3</v>
+      </c>
+      <c r="O127">
+        <v>3.2</v>
+      </c>
+      <c r="P127">
+        <v>2.9</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
         <v>1.8</v>
       </c>
-      <c r="L127">
-        <v>3.6</v>
-      </c>
-      <c r="M127">
-        <v>3.8</v>
-      </c>
-      <c r="N127">
-        <v>2.4</v>
-      </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>2.625</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1.8</v>
-      </c>
-      <c r="S127">
-        <v>2</v>
-      </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
         <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11827,7 +11827,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11913,10 +11913,10 @@
         <v>45353.5</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12002,10 +12002,10 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12091,7 +12091,7 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>32</v>
@@ -12180,10 +12180,10 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
         <v>36</v>
-      </c>
-      <c r="G132" t="s">
-        <v>34</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7158590</v>
+        <v>7888759</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,55 +12269,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>39</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N133">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12326,19 +12326,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7888759</v>
+        <v>7158590</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12361,52 +12361,52 @@
         <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>39</v>
       </c>
       <c r="K134">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="L134">
         <v>3.3</v>
       </c>
       <c r="M134">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12415,19 +12415,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12450,7 +12450,7 @@
         <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -12462,31 +12462,31 @@
         <v>3.6</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
         <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12521,10 +12521,10 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K136">
         <v>2.875</v>
@@ -12536,31 +12536,31 @@
         <v>2.15</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q136">
         <v>0.25</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12595,10 +12595,10 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K137">
         <v>1.5</v>
@@ -12610,31 +12610,31 @@
         <v>5.75</v>
       </c>
       <c r="N137">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12669,7 +12669,7 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -12690,25 +12690,25 @@
         <v>7.5</v>
       </c>
       <c r="P138">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q138">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>3.25</v>
       </c>
       <c r="U138">
+        <v>1.875</v>
+      </c>
+      <c r="V138">
         <v>1.975</v>
-      </c>
-      <c r="V138">
-        <v>1.875</v>
       </c>
       <c r="W138">
         <v>0</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -118,6 +118,9 @@
     <t>Dunfermline</t>
   </si>
   <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
     <t>Raith</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>Ayr</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
   </si>
   <si>
     <t>Dundee Utd</t>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845227</v>
+        <v>6845226</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,55 +1058,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>1.375</v>
+        <v>0.7</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1115,16 +1115,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845223</v>
+        <v>6845227</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,55 +1147,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
         <v>3.3</v>
       </c>
       <c r="P8">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
         <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1204,16 +1204,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845224</v>
+        <v>6845223</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,73 +1236,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
       </c>
       <c r="K9">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N9">
+        <v>3.3</v>
+      </c>
+      <c r="O9">
+        <v>3.3</v>
+      </c>
+      <c r="P9">
+        <v>2.05</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9">
+        <v>2.05</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
         <v>1.95</v>
       </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>3.4</v>
-      </c>
-      <c r="Q9">
+      <c r="V9">
+        <v>1.9</v>
+      </c>
+      <c r="W9">
+        <v>2.3</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.8</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>0.475</v>
+      </c>
+      <c r="AC9">
         <v>-0.5</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.8</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.925</v>
-      </c>
-      <c r="V9">
-        <v>1.875</v>
-      </c>
-      <c r="W9">
-        <v>0.95</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845226</v>
+        <v>6845224</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,55 +1325,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
       </c>
       <c r="K10">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N10">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
         <v>1.925</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.875</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.975</v>
-      </c>
-      <c r="V10">
-        <v>1.825</v>
-      </c>
       <c r="W10">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1382,16 +1382,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -1681,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1945,7 +1945,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2390,10 +2390,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
         <v>34</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2479,7 +2479,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845242</v>
+        <v>6845241</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2571,73 +2571,73 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845241</v>
+        <v>6845242</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6845238</v>
+        <v>6845240</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <v>1.571</v>
+      </c>
+      <c r="L26">
         <v>4</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26">
-        <v>2.25</v>
-      </c>
-      <c r="L26">
-        <v>3.25</v>
-      </c>
       <c r="M26">
+        <v>4.333</v>
+      </c>
+      <c r="N26">
+        <v>1.55</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>5.25</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+      <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>1.85</v>
+      </c>
+      <c r="T26">
         <v>2.75</v>
       </c>
-      <c r="N26">
-        <v>2.625</v>
-      </c>
-      <c r="O26">
-        <v>3.2</v>
-      </c>
-      <c r="P26">
-        <v>2.625</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
-        <v>1.875</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6845240</v>
+        <v>6845238</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,10 +2924,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
         <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3013,10 +3013,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
         <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3461,7 +3461,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3550,7 +3550,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3814,10 +3814,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6845257</v>
+        <v>6845258</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,10 +3903,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3918,25 +3918,25 @@
         <v>40</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
         <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>2.025</v>
@@ -3948,10 +3948,10 @@
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3963,16 +3963,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6845258</v>
+        <v>6845257</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,10 +3992,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4007,25 +4007,25 @@
         <v>40</v>
       </c>
       <c r="K40">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="O40">
         <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>2.025</v>
@@ -4037,10 +4037,10 @@
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4052,16 +4052,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4170,10 +4170,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
@@ -4615,7 +4615,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -4707,7 +4707,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -4882,7 +4882,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
@@ -4974,7 +4974,7 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6845279</v>
+        <v>6845277</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,10 +5238,10 @@
         <v>45234.5</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5253,46 +5253,46 @@
         <v>40</v>
       </c>
       <c r="K54">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M54">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N54">
+        <v>1.363</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>7.5</v>
+      </c>
+      <c r="Q54">
+        <v>-1.25</v>
+      </c>
+      <c r="R54">
+        <v>1.85</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
         <v>1.8</v>
       </c>
-      <c r="O54">
-        <v>3.6</v>
-      </c>
-      <c r="P54">
-        <v>3.8</v>
-      </c>
-      <c r="Q54">
-        <v>-0.5</v>
-      </c>
-      <c r="R54">
-        <v>1.8</v>
-      </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.85</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5301,13 +5301,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6845277</v>
+        <v>6845279</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,10 +5327,10 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5342,46 +5342,46 @@
         <v>40</v>
       </c>
       <c r="K55">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L55">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
+        <v>1.8</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
-      </c>
-      <c r="V55">
-        <v>1.8</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.95</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5505,10 +5505,10 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5683,10 +5683,10 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5950,7 +5950,7 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6220,7 +6220,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6309,7 +6309,7 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -6484,7 +6484,7 @@
         <v>45269.5</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845290</v>
+        <v>6845291</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,10 +6573,10 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6588,40 +6588,40 @@
         <v>39</v>
       </c>
       <c r="K69">
+        <v>2.15</v>
+      </c>
+      <c r="L69">
+        <v>3.5</v>
+      </c>
+      <c r="M69">
+        <v>3.2</v>
+      </c>
+      <c r="N69">
+        <v>2.875</v>
+      </c>
+      <c r="O69">
+        <v>3.25</v>
+      </c>
+      <c r="P69">
         <v>2.5</v>
       </c>
-      <c r="L69">
-        <v>3.2</v>
-      </c>
-      <c r="M69">
-        <v>2.875</v>
-      </c>
-      <c r="N69">
-        <v>2.9</v>
-      </c>
-      <c r="O69">
-        <v>3</v>
-      </c>
-      <c r="P69">
-        <v>2.7</v>
-      </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6630,16 +6630,16 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6845291</v>
+        <v>6845290</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6662,10 +6662,10 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6677,40 +6677,40 @@
         <v>39</v>
       </c>
       <c r="K70">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N70">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P70">
+        <v>2.7</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
+        <v>1.825</v>
+      </c>
+      <c r="T70">
         <v>2.5</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>2.025</v>
-      </c>
-      <c r="S70">
-        <v>1.775</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6719,16 +6719,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6754,7 +6754,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6845298</v>
+        <v>6845299</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7018,76 +7018,76 @@
         <v>45276.5</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845297</v>
+        <v>6845298</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,10 +7107,10 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7122,41 +7122,41 @@
         <v>39</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L75">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N75">
+        <v>1.571</v>
+      </c>
+      <c r="O75">
+        <v>3.8</v>
+      </c>
+      <c r="P75">
+        <v>5</v>
+      </c>
+      <c r="Q75">
+        <v>-1</v>
+      </c>
+      <c r="R75">
+        <v>2.025</v>
+      </c>
+      <c r="S75">
+        <v>1.775</v>
+      </c>
+      <c r="T75">
         <v>2.5</v>
       </c>
-      <c r="O75">
-        <v>3.25</v>
-      </c>
-      <c r="P75">
-        <v>2.6</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>1.875</v>
-      </c>
-      <c r="S75">
+      <c r="U75">
+        <v>1.825</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.875</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7164,19 +7164,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845296</v>
+        <v>6845297</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,55 +7196,55 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>39</v>
       </c>
       <c r="K76">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N76">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7253,19 +7253,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845295</v>
+        <v>6845296</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
         <v>35</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>1.7</v>
+      </c>
+      <c r="O77">
+        <v>3.4</v>
+      </c>
+      <c r="P77">
+        <v>4.5</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>1.8</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
         <v>3.5</v>
       </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>2.2</v>
-      </c>
-      <c r="O77">
-        <v>3.2</v>
-      </c>
-      <c r="P77">
-        <v>3.1</v>
-      </c>
-      <c r="Q77">
-        <v>-0.25</v>
-      </c>
-      <c r="R77">
-        <v>2</v>
-      </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>2.025</v>
-      </c>
-      <c r="V77">
-        <v>1.825</v>
-      </c>
-      <c r="W77">
-        <v>1.2</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>-1</v>
-      </c>
       <c r="Z77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845299</v>
+        <v>6845295</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,10 +7374,10 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7389,43 +7389,43 @@
         <v>41</v>
       </c>
       <c r="K78">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q78">
         <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W78">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7434,7 +7434,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7443,7 +7443,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7463,7 +7463,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>38</v>
@@ -7552,10 +7552,10 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7641,7 +7641,7 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -8086,7 +8086,7 @@
         <v>45290.5</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8175,7 +8175,7 @@
         <v>45290.5</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>29</v>
@@ -8264,10 +8264,10 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845310</v>
+        <v>6845313</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,46 +8353,46 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>1.181</v>
+        <v>5.75</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
         <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
         <v>3.25</v>
@@ -8401,28 +8401,28 @@
         <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845313</v>
+        <v>6845310</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,46 +8442,46 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K90">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>1.181</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R90">
         <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>3.25</v>
@@ -8490,28 +8490,28 @@
         <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.925</v>
+      </c>
+      <c r="AB90">
         <v>-0.5</v>
       </c>
-      <c r="AA90">
-        <v>0.4875</v>
-      </c>
-      <c r="AB90">
-        <v>0.95</v>
-      </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8620,7 +8620,7 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -8712,7 +8712,7 @@
         <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8798,7 +8798,7 @@
         <v>45296.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -8887,10 +8887,10 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s">
         <v>35</v>
-      </c>
-      <c r="G95" t="s">
-        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8976,7 +8976,7 @@
         <v>45297.5</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9424,7 +9424,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9510,10 +9510,10 @@
         <v>45304.5</v>
       </c>
       <c r="F102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" t="s">
         <v>34</v>
-      </c>
-      <c r="G102" t="s">
-        <v>37</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9599,7 +9599,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9688,7 +9688,7 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -9777,10 +9777,10 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
         <v>37</v>
-      </c>
-      <c r="G105" t="s">
-        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9866,7 +9866,7 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10225,7 +10225,7 @@
         <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10311,7 +10311,7 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10403,7 +10403,7 @@
         <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10578,7 +10578,7 @@
         <v>45339.5</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10667,10 +10667,10 @@
         <v>45339.5</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11023,10 +11023,10 @@
         <v>45346.5</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11204,7 +11204,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11293,7 +11293,7 @@
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11367,7 +11367,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6845347</v>
+        <v>6853957</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11379,10 +11379,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11394,61 +11394,61 @@
         <v>40</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L123">
+        <v>3.6</v>
+      </c>
+      <c r="M123">
+        <v>3.8</v>
+      </c>
+      <c r="N123">
+        <v>2.4</v>
+      </c>
+      <c r="O123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>3.4</v>
-      </c>
-      <c r="N123">
-        <v>2.3</v>
-      </c>
-      <c r="O123">
-        <v>3.2</v>
-      </c>
       <c r="P123">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
         <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845346</v>
+        <v>6845348</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6853957</v>
+        <v>6845346</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P125">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6845348</v>
+        <v>6845347</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O126">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>1.8</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.9</v>
       </c>
-      <c r="S126">
-        <v>1.9</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
-      <c r="V126">
-        <v>1.8</v>
-      </c>
       <c r="W126">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>-0.5</v>
+      </c>
+      <c r="AA126">
+        <v>0.4</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>1</v>
-      </c>
-      <c r="AC126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,7 +11735,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -11827,7 +11827,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11901,7 +11901,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6922469</v>
+        <v>6922470</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11913,76 +11913,76 @@
         <v>45353.5</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K129">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
+        <v>3.75</v>
+      </c>
+      <c r="M129">
+        <v>1.909</v>
+      </c>
+      <c r="N129">
         <v>3.4</v>
       </c>
-      <c r="M129">
-        <v>2.8</v>
-      </c>
-      <c r="N129">
-        <v>2.25</v>
-      </c>
       <c r="O129">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
+        <v>1.85</v>
+      </c>
+      <c r="Q129">
+        <v>0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.9</v>
+      </c>
+      <c r="T129">
         <v>2.75</v>
       </c>
-      <c r="Q129">
-        <v>-0.25</v>
-      </c>
-      <c r="R129">
-        <v>2.05</v>
-      </c>
-      <c r="S129">
-        <v>1.8</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6922470</v>
+        <v>6922469</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,76 +12002,76 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X130">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,10 +12091,10 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12361,7 +12361,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12447,7 +12447,7 @@
         <v>45360.5</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
         <v>33</v>
@@ -12628,7 +12628,7 @@
         <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12714,7 +12714,7 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12806,7 +12806,7 @@
         <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12981,7 +12981,7 @@
         <v>45367.5</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
@@ -13162,7 +13162,7 @@
         <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13248,10 +13248,10 @@
         <v>45367.5</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13604,10 +13604,10 @@
         <v>45374.5</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13693,10 +13693,10 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F149" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" t="s">
         <v>36</v>
-      </c>
-      <c r="G149" t="s">
-        <v>35</v>
       </c>
       <c r="K149">
         <v>2.4</v>
@@ -13708,22 +13708,22 @@
         <v>2.625</v>
       </c>
       <c r="N149">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O149">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P149">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q149">
         <v>0</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
         <v>2.25</v>
@@ -13844,7 +13844,7 @@
         <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K151">
         <v>1.666</v>
@@ -13903,7 +13903,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7024072</v>
+        <v>7024061</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13915,46 +13915,46 @@
         <v>45381.5</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K152">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P152">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
         <v>2.5</v>
       </c>
       <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
         <v>1.875</v>
-      </c>
-      <c r="V152">
-        <v>1.975</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -13977,7 +13977,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024061</v>
+        <v>7024072</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -13989,46 +13989,46 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K153">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N153">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q153">
         <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
         <v>1.975</v>
-      </c>
-      <c r="V153">
-        <v>1.875</v>
       </c>
       <c r="W153">
         <v>0</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Dunfermline</t>
   </si>
   <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
     <t>Raith</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Dundee Utd</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
   </si>
   <si>
     <t>A</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845226</v>
+        <v>6845227</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,55 +1058,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>1.75</v>
+      </c>
+      <c r="S7">
+        <v>2.05</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
         <v>1.925</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>0.7</v>
+        <v>1.375</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1115,16 +1115,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845227</v>
+        <v>6845223</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,55 +1147,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O8">
         <v>3.3</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
         <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1204,16 +1204,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845223</v>
+        <v>6845224</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,55 +1236,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
       </c>
       <c r="K9">
+        <v>1.85</v>
+      </c>
+      <c r="L9">
         <v>3.5</v>
       </c>
-      <c r="L9">
-        <v>3.25</v>
-      </c>
       <c r="M9">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>1.8</v>
       </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>2.3</v>
+        <v>0.95</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1293,16 +1293,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845224</v>
+        <v>6845225</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,40 +1325,40 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M10">
+        <v>4.75</v>
+      </c>
+      <c r="N10">
+        <v>1.75</v>
+      </c>
+      <c r="O10">
         <v>3.75</v>
       </c>
-      <c r="N10">
-        <v>1.95</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
         <v>1.8</v>
@@ -1367,31 +1367,31 @@
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845225</v>
+        <v>6845226</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,73 +1414,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q11">
         <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -1681,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1945,10 +1945,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2123,10 +2123,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2390,10 +2390,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2479,7 +2479,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
@@ -2568,7 +2568,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2657,7 +2657,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2746,7 +2746,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -2838,7 +2838,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2924,10 +2924,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3013,10 +3013,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3194,7 +3194,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
         <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3550,7 +3550,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3814,10 +3814,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6845258</v>
+        <v>6845257</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,10 +3903,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3918,25 +3918,25 @@
         <v>40</v>
       </c>
       <c r="K39">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="O39">
         <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>2.025</v>
@@ -3948,10 +3948,10 @@
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3963,16 +3963,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6845257</v>
+        <v>6845258</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,10 +3992,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4007,25 +4007,25 @@
         <v>40</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N40">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
         <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.025</v>
@@ -4037,10 +4037,10 @@
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4052,16 +4052,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4081,10 +4081,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4170,10 +4170,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4526,7 +4526,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
@@ -4615,7 +4615,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -4707,7 +4707,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -4882,10 +4882,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5238,7 +5238,7 @@
         <v>45234.5</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5327,10 +5327,10 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
         <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5505,10 +5505,10 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5597,7 +5597,7 @@
         <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5683,10 +5683,10 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
         <v>34</v>
-      </c>
-      <c r="G59" t="s">
-        <v>35</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5950,7 +5950,7 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6220,7 +6220,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6309,7 +6309,7 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -6484,7 +6484,7 @@
         <v>45269.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845291</v>
+        <v>6845290</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,10 +6573,10 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6588,40 +6588,40 @@
         <v>39</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6630,16 +6630,16 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6845290</v>
+        <v>6845291</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6662,10 +6662,10 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6677,40 +6677,40 @@
         <v>39</v>
       </c>
       <c r="K70">
+        <v>2.15</v>
+      </c>
+      <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
+        <v>3.2</v>
+      </c>
+      <c r="N70">
+        <v>2.875</v>
+      </c>
+      <c r="O70">
+        <v>3.25</v>
+      </c>
+      <c r="P70">
         <v>2.5</v>
-      </c>
-      <c r="L70">
-        <v>3.2</v>
-      </c>
-      <c r="M70">
-        <v>2.875</v>
-      </c>
-      <c r="N70">
-        <v>2.9</v>
-      </c>
-      <c r="O70">
-        <v>3</v>
-      </c>
-      <c r="P70">
-        <v>2.7</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6719,16 +6719,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6751,10 +6751,10 @@
         <v>45269.5</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7021,7 +7021,7 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7285,10 +7285,10 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7374,10 +7374,10 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6845303</v>
+        <v>6845304</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,73 +7466,73 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>40</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P79">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845304</v>
+        <v>6845303</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,76 +7552,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>40</v>
       </c>
       <c r="K80">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N80">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7908,7 +7908,7 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8086,7 +8086,7 @@
         <v>45290.5</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8175,7 +8175,7 @@
         <v>45290.5</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>29</v>
@@ -8264,10 +8264,10 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845313</v>
+        <v>6845314</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,58 +8353,58 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8413,16 +8413,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
+        <v>0.75</v>
+      </c>
+      <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
         <v>-0.5</v>
       </c>
-      <c r="AA89">
-        <v>0.4875</v>
-      </c>
-      <c r="AB89">
-        <v>0.95</v>
-      </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845310</v>
+        <v>6845312</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>3</v>
-      </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.181</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.9</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
         <v>1.875</v>
       </c>
-      <c r="S90">
-        <v>1.925</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.85</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>0.925</v>
       </c>
-      <c r="AB90">
-        <v>-0.5</v>
-      </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845314</v>
+        <v>6845310</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,76 +8620,76 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K92">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M92">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="N92">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="O92">
+        <v>6</v>
+      </c>
+      <c r="P92">
+        <v>1.181</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
+        <v>1.925</v>
+      </c>
+      <c r="T92">
         <v>3.25</v>
       </c>
-      <c r="P92">
-        <v>2.7</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.75</v>
-      </c>
-      <c r="S92">
-        <v>2.05</v>
-      </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
         <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>0.4625</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845312</v>
+        <v>6845313</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,58 +8709,58 @@
         <v>45293.5</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
+        <v>1.875</v>
+      </c>
+      <c r="S93">
+        <v>1.975</v>
+      </c>
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
         <v>1.9</v>
       </c>
-      <c r="S93">
-        <v>1.9</v>
-      </c>
-      <c r="T93">
-        <v>2.5</v>
-      </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8769,13 +8769,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8798,7 +8798,7 @@
         <v>45296.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -8887,10 +8887,10 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8976,7 +8976,7 @@
         <v>45297.5</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9154,7 +9154,7 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>31</v>
@@ -9246,7 +9246,7 @@
         <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9510,10 +9510,10 @@
         <v>45304.5</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9599,7 +9599,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9688,7 +9688,7 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -9777,10 +9777,10 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845325</v>
+        <v>6845326</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>40</v>
       </c>
       <c r="K106">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N106">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
+        <v>1.775</v>
+      </c>
+      <c r="V106">
         <v>2.025</v>
       </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.85</v>
-      </c>
-      <c r="V106">
-        <v>2</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6845326</v>
+        <v>6845325</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,76 +9955,76 @@
         <v>45318.5</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O107">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10311,10 +10311,10 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
         <v>37</v>
-      </c>
-      <c r="G111" t="s">
-        <v>38</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10403,7 +10403,7 @@
         <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10489,10 +10489,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10578,7 +10578,7 @@
         <v>45339.5</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10667,10 +10667,10 @@
         <v>45339.5</v>
       </c>
       <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
         <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>37</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11023,10 +11023,10 @@
         <v>45346.5</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11204,7 +11204,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11290,10 +11290,10 @@
         <v>45346.5</v>
       </c>
       <c r="F122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s">
         <v>38</v>
-      </c>
-      <c r="G122" t="s">
-        <v>34</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11379,7 +11379,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845348</v>
+        <v>6845346</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P124">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6845346</v>
+        <v>6845347</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N125">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
+        <v>1.8</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
         <v>1.95</v>
       </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
-      <c r="U125">
-        <v>1.875</v>
-      </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y125">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6845347</v>
+        <v>6845348</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
         <v>1.8</v>
       </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
-      <c r="V126">
-        <v>1.9</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,7 +11735,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -11827,7 +11827,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11901,7 +11901,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6922470</v>
+        <v>6922469</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11913,76 +11913,76 @@
         <v>45353.5</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X129">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6922469</v>
+        <v>6922470</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,76 +12002,76 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>37</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K130">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L130">
+        <v>3.75</v>
+      </c>
+      <c r="M130">
+        <v>1.909</v>
+      </c>
+      <c r="N130">
         <v>3.4</v>
       </c>
-      <c r="M130">
-        <v>2.8</v>
-      </c>
-      <c r="N130">
-        <v>2.25</v>
-      </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
+        <v>1.85</v>
+      </c>
+      <c r="Q130">
+        <v>0.5</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
         <v>2.75</v>
       </c>
-      <c r="Q130">
-        <v>-0.25</v>
-      </c>
-      <c r="R130">
-        <v>2.05</v>
-      </c>
-      <c r="S130">
-        <v>1.8</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,10 +12091,10 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12272,7 +12272,7 @@
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12361,7 +12361,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12447,7 +12447,7 @@
         <v>45360.5</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>33</v>
@@ -12536,7 +12536,7 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12628,7 +12628,7 @@
         <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12714,7 +12714,7 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12806,7 +12806,7 @@
         <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -12981,7 +12981,7 @@
         <v>45367.5</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
@@ -13162,7 +13162,7 @@
         <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13248,10 +13248,10 @@
         <v>45367.5</v>
       </c>
       <c r="F144" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" t="s">
         <v>34</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13337,7 +13337,7 @@
         <v>45374.5</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
@@ -13604,10 +13604,10 @@
         <v>45374.5</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13674,376 +13674,6 @@
       </c>
       <c r="AC148">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>7060359</v>
-      </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="2">
-        <v>45380.69791666666</v>
-      </c>
-      <c r="F149" t="s">
-        <v>37</v>
-      </c>
-      <c r="G149" t="s">
-        <v>36</v>
-      </c>
-      <c r="K149">
-        <v>2.4</v>
-      </c>
-      <c r="L149">
-        <v>3.4</v>
-      </c>
-      <c r="M149">
-        <v>2.625</v>
-      </c>
-      <c r="N149">
-        <v>2.625</v>
-      </c>
-      <c r="O149">
-        <v>3.3</v>
-      </c>
-      <c r="P149">
-        <v>2.4</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-      <c r="R149">
-        <v>2.025</v>
-      </c>
-      <c r="S149">
-        <v>1.825</v>
-      </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>2.025</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>7020832</v>
-      </c>
-      <c r="C150" t="s">
-        <v>28</v>
-      </c>
-      <c r="D150" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F150" t="s">
-        <v>29</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
-      </c>
-      <c r="K150">
-        <v>3.75</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>1.833</v>
-      </c>
-      <c r="N150">
-        <v>4</v>
-      </c>
-      <c r="O150">
-        <v>3.6</v>
-      </c>
-      <c r="P150">
-        <v>1.8</v>
-      </c>
-      <c r="Q150">
-        <v>0.5</v>
-      </c>
-      <c r="R150">
-        <v>2.05</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>2.5</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.925</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
-        <v>0</v>
-      </c>
-      <c r="Z150">
-        <v>0</v>
-      </c>
-      <c r="AA150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>7020833</v>
-      </c>
-      <c r="C151" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F151" t="s">
-        <v>38</v>
-      </c>
-      <c r="G151" t="s">
-        <v>35</v>
-      </c>
-      <c r="K151">
-        <v>1.666</v>
-      </c>
-      <c r="L151">
-        <v>3.75</v>
-      </c>
-      <c r="M151">
-        <v>4.333</v>
-      </c>
-      <c r="N151">
-        <v>1.7</v>
-      </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
-      <c r="P151">
-        <v>4.2</v>
-      </c>
-      <c r="Q151">
-        <v>-0.75</v>
-      </c>
-      <c r="R151">
-        <v>2.025</v>
-      </c>
-      <c r="S151">
-        <v>1.825</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.975</v>
-      </c>
-      <c r="V151">
-        <v>1.875</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>7024061</v>
-      </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>31</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
-      </c>
-      <c r="K152">
-        <v>1.909</v>
-      </c>
-      <c r="L152">
-        <v>3.4</v>
-      </c>
-      <c r="M152">
-        <v>3.6</v>
-      </c>
-      <c r="N152">
-        <v>1.909</v>
-      </c>
-      <c r="O152">
-        <v>3.4</v>
-      </c>
-      <c r="P152">
-        <v>3.6</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>2</v>
-      </c>
-      <c r="S152">
-        <v>1.85</v>
-      </c>
-      <c r="T152">
-        <v>2.5</v>
-      </c>
-      <c r="U152">
-        <v>1.975</v>
-      </c>
-      <c r="V152">
-        <v>1.875</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>7024072</v>
-      </c>
-      <c r="C153" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>30</v>
-      </c>
-      <c r="G153" t="s">
-        <v>32</v>
-      </c>
-      <c r="K153">
-        <v>1.727</v>
-      </c>
-      <c r="L153">
-        <v>3.5</v>
-      </c>
-      <c r="M153">
-        <v>4.333</v>
-      </c>
-      <c r="N153">
-        <v>1.8</v>
-      </c>
-      <c r="O153">
-        <v>3.5</v>
-      </c>
-      <c r="P153">
-        <v>4</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>2.025</v>
-      </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
-      <c r="U153">
-        <v>1.875</v>
-      </c>
-      <c r="V153">
-        <v>1.975</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6845275</v>
+        <v>6845277</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45234.5</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M54">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
         <v>1.8</v>
       </c>
-      <c r="V54">
-        <v>2</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y54">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6845279</v>
+        <v>6845275</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.2</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
         <v>3.5</v>
       </c>
-      <c r="M55">
-        <v>3.5</v>
-      </c>
-      <c r="N55">
+      <c r="P55">
+        <v>2.15</v>
+      </c>
+      <c r="Q55">
+        <v>0.25</v>
+      </c>
+      <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
         <v>1.8</v>
       </c>
-      <c r="O55">
-        <v>3.6</v>
-      </c>
-      <c r="P55">
-        <v>3.8</v>
-      </c>
-      <c r="Q55">
-        <v>-0.5</v>
-      </c>
-      <c r="R55">
-        <v>1.8</v>
-      </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.85</v>
-      </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6845276</v>
+        <v>6845279</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,76 +5416,76 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>41</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
         <v>3.5</v>
       </c>
       <c r="M56">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
+        <v>1.85</v>
+      </c>
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AC56">
-        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6845277</v>
+        <v>6845276</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,76 +5505,76 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N57">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
+        <v>-0</v>
+      </c>
+      <c r="AB57">
         <v>0.95</v>
       </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845295</v>
+        <v>6845298</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845298</v>
+        <v>6845297</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,10 +7196,10 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7211,40 +7211,40 @@
         <v>39</v>
       </c>
       <c r="K76">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N76">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7253,19 +7253,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845297</v>
+        <v>6845296</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,55 +7285,55 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>1</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>39</v>
       </c>
       <c r="K77">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N77">
+        <v>1.7</v>
+      </c>
+      <c r="O77">
+        <v>3.4</v>
+      </c>
+      <c r="P77">
+        <v>4.5</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>2.6</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7342,19 +7342,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845296</v>
+        <v>6845295</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,76 +7374,76 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78">
+        <v>2.1</v>
+      </c>
+      <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>2.2</v>
+      </c>
+      <c r="O78">
+        <v>3.2</v>
+      </c>
+      <c r="P78">
+        <v>3.1</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
+        <v>2.25</v>
+      </c>
+      <c r="U78">
+        <v>2.025</v>
+      </c>
+      <c r="V78">
+        <v>1.825</v>
+      </c>
+      <c r="W78">
+        <v>1.2</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
         <v>1</v>
       </c>
-      <c r="J78" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78">
-        <v>1.8</v>
-      </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>4</v>
-      </c>
-      <c r="N78">
-        <v>1.7</v>
-      </c>
-      <c r="O78">
-        <v>3.4</v>
-      </c>
-      <c r="P78">
-        <v>4.5</v>
-      </c>
-      <c r="Q78">
-        <v>-0.75</v>
-      </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-      <c r="S78">
-        <v>1.8</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-      <c r="V78">
-        <v>1.8</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>3.5</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845310</v>
+        <v>6845311</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,56 +8353,56 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>39</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="N89">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
         <v>1.875</v>
       </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
-      <c r="V89">
-        <v>1.85</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
@@ -8410,19 +8410,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.181</v>
+        <v>1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
+        <v>0.4625</v>
+      </c>
+      <c r="AC89">
         <v>-0.5</v>
-      </c>
-      <c r="AC89">
-        <v>0.425</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845313</v>
+        <v>6845314</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,58 +8442,58 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>40</v>
       </c>
       <c r="K90">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8502,16 +8502,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
+        <v>0.75</v>
+      </c>
+      <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>-0.5</v>
       </c>
-      <c r="AA90">
-        <v>0.4875</v>
-      </c>
-      <c r="AB90">
-        <v>0.95</v>
-      </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845314</v>
+        <v>6845313</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,58 +8531,58 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>40</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N91">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
+        <v>1.975</v>
+      </c>
+      <c r="T91">
         <v>3.25</v>
       </c>
-      <c r="P91">
-        <v>2.7</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.75</v>
-      </c>
-      <c r="S91">
-        <v>2.05</v>
-      </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8591,16 +8591,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845311</v>
+        <v>6845312</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,49 +8620,49 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N92">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
         <v>1.925</v>
@@ -8671,25 +8671,25 @@
         <v>1.875</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845312</v>
+        <v>6845310</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,76 +8709,76 @@
         <v>45293.5</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>3</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M93">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N93">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>1.181</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6845317</v>
+        <v>6845318</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,73 +8887,73 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K95">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O95">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P95">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6845315</v>
+        <v>6845317</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8976,76 +8976,76 @@
         <v>45297.5</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M96">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N96">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P96">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845316</v>
+        <v>6845315</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,76 +9065,76 @@
         <v>45297.5</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N97">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845318</v>
+        <v>6845316</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,73 +9154,73 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.825</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
         <v>1.8</v>
       </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <v>3.5</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
-      <c r="V98">
-        <v>1.8</v>
-      </c>
-      <c r="W98">
-        <v>0.3</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -11367,7 +11367,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6845347</v>
+        <v>6853957</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11379,10 +11379,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11394,61 +11394,61 @@
         <v>41</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L123">
+        <v>3.6</v>
+      </c>
+      <c r="M123">
+        <v>3.8</v>
+      </c>
+      <c r="N123">
+        <v>2.4</v>
+      </c>
+      <c r="O123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>3.4</v>
-      </c>
-      <c r="N123">
-        <v>2.3</v>
-      </c>
-      <c r="O123">
-        <v>3.2</v>
-      </c>
       <c r="P123">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
         <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6853957</v>
+        <v>6845348</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K124">
+        <v>1.727</v>
+      </c>
+      <c r="L124">
+        <v>3.75</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>1.7</v>
+      </c>
+      <c r="O124">
+        <v>3.8</v>
+      </c>
+      <c r="P124">
+        <v>4</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="L124">
-        <v>3.6</v>
-      </c>
-      <c r="M124">
-        <v>3.8</v>
-      </c>
-      <c r="N124">
-        <v>2.4</v>
-      </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>2.625</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.95</v>
-      </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6845348</v>
+        <v>6845347</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N125">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
+        <v>1.8</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
         <v>1.9</v>
       </c>
-      <c r="S125">
-        <v>1.9</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.8</v>
-      </c>
       <c r="W125">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>-0.5</v>
+      </c>
+      <c r="AA125">
+        <v>0.4</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>1</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6845345</v>
+        <v>6845346</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P126">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6845346</v>
+        <v>6845345</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,76 +11735,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K127">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L127">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N127">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O127">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11901,7 +11901,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6922469</v>
+        <v>6922470</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11913,76 +11913,76 @@
         <v>45353.5</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
+        <v>3.75</v>
+      </c>
+      <c r="M129">
+        <v>1.909</v>
+      </c>
+      <c r="N129">
         <v>3.4</v>
       </c>
-      <c r="M129">
-        <v>2.8</v>
-      </c>
-      <c r="N129">
-        <v>2.25</v>
-      </c>
       <c r="O129">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
+        <v>1.85</v>
+      </c>
+      <c r="Q129">
+        <v>0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.9</v>
+      </c>
+      <c r="T129">
         <v>2.75</v>
       </c>
-      <c r="Q129">
-        <v>-0.25</v>
-      </c>
-      <c r="R129">
-        <v>2.05</v>
-      </c>
-      <c r="S129">
-        <v>1.8</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6922451</v>
+        <v>6922469</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,46 +12002,46 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>2</v>
-      </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
         <v>3.4</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N130">
+        <v>2.25</v>
+      </c>
+      <c r="O130">
+        <v>3.3</v>
+      </c>
+      <c r="P130">
+        <v>2.75</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
         <v>1.8</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
-      <c r="P130">
-        <v>4</v>
-      </c>
-      <c r="Q130">
-        <v>-0.5</v>
-      </c>
-      <c r="R130">
-        <v>1.85</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.25</v>
@@ -12050,28 +12050,28 @@
         <v>1.8</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6922126</v>
+        <v>6922451</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
         <v>3.4</v>
       </c>
       <c r="M131">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
         <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB131">
         <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6922470</v>
+        <v>6922126</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,10 +12180,10 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12195,61 +12195,61 @@
         <v>41</v>
       </c>
       <c r="K132">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N132">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7158590</v>
+        <v>7888759</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,55 +12269,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>39</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N133">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12326,19 +12326,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7888759</v>
+        <v>7158590</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,55 +12358,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>39</v>
       </c>
       <c r="K134">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="L134">
         <v>3.3</v>
       </c>
       <c r="M134">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12415,19 +12415,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12435,7 +12435,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6957815</v>
+        <v>6937666</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12447,13 +12447,13 @@
         <v>45360.5</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -12462,43 +12462,43 @@
         <v>40</v>
       </c>
       <c r="K135">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>19</v>
+        <v>5.75</v>
       </c>
       <c r="N135">
-        <v>1.181</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="Q135">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
+        <v>1.875</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.875</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="T135">
-        <v>3.25</v>
-      </c>
-      <c r="U135">
-        <v>1.975</v>
-      </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>0.181</v>
+        <v>0.909</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12507,16 +12507,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12524,7 +12524,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6937666</v>
+        <v>6957815</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12536,13 +12536,13 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -12551,43 +12551,43 @@
         <v>40</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M136">
-        <v>5.75</v>
+        <v>19</v>
       </c>
       <c r="N136">
-        <v>1.909</v>
+        <v>1.181</v>
       </c>
       <c r="O136">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
         <v>1.975</v>
       </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.909</v>
+        <v>0.181</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12596,16 +12596,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>0.825</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>-0.5</v>
-      </c>
       <c r="AC136">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13859,7 +13859,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7024061</v>
+        <v>7020832</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13871,76 +13871,76 @@
         <v>45381.5</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
+        <v>1.833</v>
+      </c>
+      <c r="N151">
+        <v>4.333</v>
+      </c>
+      <c r="O151">
         <v>3.6</v>
       </c>
-      <c r="N151">
-        <v>1.95</v>
-      </c>
-      <c r="O151">
-        <v>3.4</v>
-      </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
         <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z151">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13948,7 +13948,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7024072</v>
+        <v>7024061</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13960,13 +13960,13 @@
         <v>45381.5</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13975,31 +13975,31 @@
         <v>40</v>
       </c>
       <c r="K152">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O152">
         <v>3.4</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
         <v>2.5</v>
@@ -14011,7 +14011,7 @@
         <v>1.825</v>
       </c>
       <c r="W152">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14020,7 +14020,7 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7020832</v>
+        <v>7024072</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14049,76 +14049,76 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K153">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L153">
         <v>3.5</v>
       </c>
       <c r="M153">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="N153">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q153">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14328,19 +14328,19 @@
         <v>0</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
         <v>2.75</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14393,28 +14393,28 @@
         <v>2.7</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
         <v>2.3</v>
       </c>
       <c r="Q157">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
         <v>1.775</v>
-      </c>
-      <c r="S157">
-        <v>2.1</v>
       </c>
       <c r="T157">
         <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14476,10 +14476,10 @@
         <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T158">
         <v>2.5</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6845277</v>
+        <v>6845275</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45234.5</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K54">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="L54">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="N54">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6845275</v>
+        <v>6845279</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6845279</v>
+        <v>6845276</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,76 +5416,76 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>41</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L56">
         <v>3.5</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N56">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6845276</v>
+        <v>6845277</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,76 +5505,76 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M57">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N57">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845298</v>
+        <v>6845295</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>1.85</v>
+      </c>
+      <c r="T75">
+        <v>2.25</v>
+      </c>
+      <c r="U75">
         <v>2.025</v>
       </c>
-      <c r="S75">
-        <v>1.775</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>0.825</v>
-      </c>
-      <c r="AC75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845297</v>
+        <v>6845298</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,10 +7196,10 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7211,41 +7211,41 @@
         <v>39</v>
       </c>
       <c r="K76">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L76">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N76">
+        <v>1.571</v>
+      </c>
+      <c r="O76">
+        <v>3.8</v>
+      </c>
+      <c r="P76">
+        <v>5</v>
+      </c>
+      <c r="Q76">
+        <v>-1</v>
+      </c>
+      <c r="R76">
+        <v>2.025</v>
+      </c>
+      <c r="S76">
+        <v>1.775</v>
+      </c>
+      <c r="T76">
         <v>2.5</v>
       </c>
-      <c r="O76">
-        <v>3.25</v>
-      </c>
-      <c r="P76">
-        <v>2.6</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
+      <c r="U76">
+        <v>1.825</v>
+      </c>
+      <c r="V76">
         <v>1.975</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.875</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
@@ -7253,19 +7253,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845296</v>
+        <v>6845297</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,55 +7285,55 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>39</v>
       </c>
       <c r="K77">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N77">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7342,19 +7342,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845295</v>
+        <v>6845296</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,76 +7374,76 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>1.7</v>
+      </c>
+      <c r="O78">
+        <v>3.4</v>
+      </c>
+      <c r="P78">
+        <v>4.5</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78">
+        <v>1.8</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>3.5</v>
       </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>2.2</v>
-      </c>
-      <c r="O78">
-        <v>3.2</v>
-      </c>
-      <c r="P78">
-        <v>3.1</v>
-      </c>
-      <c r="Q78">
-        <v>-0.25</v>
-      </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-      <c r="S78">
-        <v>1.85</v>
-      </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>2.025</v>
-      </c>
-      <c r="V78">
-        <v>1.825</v>
-      </c>
-      <c r="W78">
-        <v>1.2</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
       <c r="Z78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845311</v>
+        <v>6845310</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,55 +8353,55 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
         <v>39</v>
       </c>
       <c r="K89">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8410,19 +8410,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>0.181</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845314</v>
+        <v>6845313</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,58 +8442,58 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>40</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N90">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
+        <v>4.75</v>
+      </c>
+      <c r="P90">
+        <v>5.75</v>
+      </c>
+      <c r="Q90">
+        <v>-1.25</v>
+      </c>
+      <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
         <v>3.25</v>
       </c>
-      <c r="P90">
-        <v>2.7</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.75</v>
-      </c>
-      <c r="S90">
-        <v>2.05</v>
-      </c>
-      <c r="T90">
-        <v>2.25</v>
-      </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8502,16 +8502,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845313</v>
+        <v>6845314</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,58 +8531,58 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>40</v>
       </c>
       <c r="K91">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8591,16 +8591,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
+        <v>0.75</v>
+      </c>
+      <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
         <v>-0.5</v>
       </c>
-      <c r="AA91">
-        <v>0.4875</v>
-      </c>
-      <c r="AB91">
-        <v>0.95</v>
-      </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845312</v>
+        <v>6845311</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,49 +8620,49 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N92">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
         <v>1.925</v>
@@ -8671,25 +8671,25 @@
         <v>1.875</v>
       </c>
       <c r="W92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6845310</v>
+        <v>6845312</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,76 +8709,76 @@
         <v>45293.5</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N93">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="O93">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.181</v>
+        <v>2.9</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
         <v>1.875</v>
       </c>
-      <c r="S93">
-        <v>1.925</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
         <v>0.925</v>
       </c>
-      <c r="AB93">
-        <v>-0.5</v>
-      </c>
       <c r="AC93">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6845318</v>
+        <v>6845317</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,73 +8887,73 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K95">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N95">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
+        <v>5.5</v>
+      </c>
+      <c r="P95">
         <v>5.25</v>
       </c>
-      <c r="P95">
-        <v>8.5</v>
-      </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
+        <v>1.9</v>
+      </c>
+      <c r="S95">
+        <v>1.9</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
         <v>1.8</v>
       </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
-      <c r="T95">
-        <v>3.5</v>
-      </c>
-      <c r="U95">
-        <v>2</v>
-      </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB95">
         <v>0.8</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>1</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6845317</v>
+        <v>6845315</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8976,76 +8976,76 @@
         <v>45297.5</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O96">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
+        <v>1.85</v>
+      </c>
+      <c r="T96">
+        <v>2.25</v>
+      </c>
+      <c r="U96">
         <v>1.9</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.9</v>
       </c>
-      <c r="T96">
-        <v>2.5</v>
-      </c>
-      <c r="U96">
-        <v>1.8</v>
-      </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB96">
-        <v>0.8</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845315</v>
+        <v>6845316</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,76 +9065,76 @@
         <v>45297.5</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845316</v>
+        <v>6845318</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,73 +9154,73 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>40</v>
+      </c>
+      <c r="K98">
+        <v>1.571</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>4.333</v>
+      </c>
+      <c r="N98">
+        <v>1.3</v>
+      </c>
+      <c r="O98">
+        <v>5.25</v>
+      </c>
+      <c r="P98">
+        <v>8.5</v>
+      </c>
+      <c r="Q98">
+        <v>-1.5</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>3.5</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>1.8</v>
+      </c>
+      <c r="W98">
+        <v>0.3</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.8</v>
+      </c>
+      <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
         <v>1</v>
-      </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
-      <c r="J98" t="s">
-        <v>39</v>
-      </c>
-      <c r="K98">
-        <v>2.25</v>
-      </c>
-      <c r="L98">
-        <v>3.75</v>
-      </c>
-      <c r="M98">
-        <v>2.5</v>
-      </c>
-      <c r="N98">
-        <v>2.15</v>
-      </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
-      <c r="P98">
-        <v>2.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.825</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>1.8</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>0.825</v>
-      </c>
-      <c r="AB98">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -11367,7 +11367,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6853957</v>
+        <v>6845347</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11379,10 +11379,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11394,61 +11394,61 @@
         <v>41</v>
       </c>
       <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>3.4</v>
+      </c>
+      <c r="N123">
+        <v>2.3</v>
+      </c>
+      <c r="O123">
+        <v>3.2</v>
+      </c>
+      <c r="P123">
+        <v>2.9</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
         <v>1.8</v>
       </c>
-      <c r="L123">
-        <v>3.6</v>
-      </c>
-      <c r="M123">
-        <v>3.8</v>
-      </c>
-      <c r="N123">
-        <v>2.4</v>
-      </c>
-      <c r="O123">
-        <v>3.4</v>
-      </c>
-      <c r="P123">
-        <v>2.625</v>
-      </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>1.8</v>
-      </c>
-      <c r="S123">
-        <v>2</v>
-      </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
         <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845348</v>
+        <v>6853957</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N124">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6845347</v>
+        <v>6845348</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N125">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.95</v>
-      </c>
-      <c r="V125">
-        <v>1.9</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X125">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6845346</v>
+        <v>6845345</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L126">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N126">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O126">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6845345</v>
+        <v>6845346</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,76 +11735,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M127">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P127">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11901,7 +11901,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6922470</v>
+        <v>6922469</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11913,76 +11913,76 @@
         <v>45353.5</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K129">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X129">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6922469</v>
+        <v>6922451</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,46 +12002,46 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K130">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
         <v>3.4</v>
       </c>
       <c r="M130">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.25</v>
@@ -12050,28 +12050,28 @@
         <v>1.8</v>
       </c>
       <c r="V130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
         <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.5249999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6922451</v>
+        <v>6922126</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L131">
         <v>3.4</v>
       </c>
       <c r="M131">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N131">
+        <v>2.25</v>
+      </c>
+      <c r="O131">
+        <v>3.2</v>
+      </c>
+      <c r="P131">
+        <v>3</v>
+      </c>
+      <c r="Q131">
+        <v>-0.25</v>
+      </c>
+      <c r="R131">
+        <v>2.05</v>
+      </c>
+      <c r="S131">
         <v>1.8</v>
-      </c>
-      <c r="O131">
-        <v>3.5</v>
-      </c>
-      <c r="P131">
-        <v>4</v>
-      </c>
-      <c r="Q131">
-        <v>-0.5</v>
-      </c>
-      <c r="R131">
-        <v>1.85</v>
-      </c>
-      <c r="S131">
-        <v>1.95</v>
       </c>
       <c r="T131">
         <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y131">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB131">
         <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6922126</v>
+        <v>6922470</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,10 +12180,10 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12195,61 +12195,61 @@
         <v>41</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
+        <v>3.75</v>
+      </c>
+      <c r="M132">
+        <v>1.909</v>
+      </c>
+      <c r="N132">
         <v>3.4</v>
       </c>
-      <c r="M132">
-        <v>3.3</v>
-      </c>
-      <c r="N132">
-        <v>2.25</v>
-      </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7888759</v>
+        <v>7158590</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,55 +12269,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>39</v>
       </c>
       <c r="K133">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12326,19 +12326,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7158590</v>
+        <v>7888759</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,55 +12358,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>39</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L134">
         <v>3.3</v>
       </c>
       <c r="M134">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N134">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12415,19 +12415,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12435,7 +12435,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6937666</v>
+        <v>6957815</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12447,13 +12447,13 @@
         <v>45360.5</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -12462,43 +12462,43 @@
         <v>40</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M135">
-        <v>5.75</v>
+        <v>19</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>1.181</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P135">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
         <v>1.975</v>
       </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.909</v>
+        <v>0.181</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12507,16 +12507,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.825</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>-0.5</v>
-      </c>
       <c r="AC135">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12524,7 +12524,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6957815</v>
+        <v>6937666</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12536,13 +12536,13 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -12551,43 +12551,43 @@
         <v>40</v>
       </c>
       <c r="K136">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>19</v>
+        <v>5.75</v>
       </c>
       <c r="N136">
-        <v>1.181</v>
+        <v>1.909</v>
       </c>
       <c r="O136">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P136">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.875</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="T136">
-        <v>3.25</v>
-      </c>
-      <c r="U136">
-        <v>1.975</v>
-      </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
       <c r="W136">
-        <v>0.181</v>
+        <v>0.909</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12596,16 +12596,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13859,7 +13859,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7020832</v>
+        <v>7024061</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13871,76 +13871,76 @@
         <v>45381.5</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K151">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
+        <v>3.6</v>
+      </c>
+      <c r="N151">
+        <v>1.95</v>
+      </c>
+      <c r="O151">
+        <v>3.4</v>
+      </c>
+      <c r="P151">
         <v>3.5</v>
       </c>
-      <c r="M151">
-        <v>1.833</v>
-      </c>
-      <c r="N151">
-        <v>4.333</v>
-      </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
-      <c r="P151">
-        <v>1.7</v>
-      </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
         <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13948,7 +13948,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7024061</v>
+        <v>7024072</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13960,13 +13960,13 @@
         <v>45381.5</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13975,31 +13975,31 @@
         <v>40</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O152">
         <v>3.4</v>
       </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>2.5</v>
@@ -14011,7 +14011,7 @@
         <v>1.825</v>
       </c>
       <c r="W152">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14020,7 +14020,7 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024072</v>
+        <v>7020832</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14049,76 +14049,76 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K153">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
         <v>3.5</v>
       </c>
       <c r="M153">
+        <v>1.833</v>
+      </c>
+      <c r="N153">
         <v>4.333</v>
       </c>
-      <c r="N153">
-        <v>1.8</v>
-      </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14215,7 +14215,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7060360</v>
+        <v>7060358</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14227,46 +14227,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K155">
+        <v>1.666</v>
+      </c>
+      <c r="L155">
+        <v>3.8</v>
+      </c>
+      <c r="M155">
+        <v>4.333</v>
+      </c>
+      <c r="N155">
+        <v>1.5</v>
+      </c>
+      <c r="O155">
+        <v>4.2</v>
+      </c>
+      <c r="P155">
         <v>6</v>
       </c>
-      <c r="L155">
-        <v>4.333</v>
-      </c>
-      <c r="M155">
-        <v>1.444</v>
-      </c>
-      <c r="N155">
-        <v>5</v>
-      </c>
-      <c r="O155">
-        <v>4</v>
-      </c>
-      <c r="P155">
-        <v>1.55</v>
-      </c>
       <c r="Q155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14289,7 +14289,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7060948</v>
+        <v>7060360</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14301,46 +14301,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K156">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M156">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="N156">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R156">
+        <v>1.875</v>
+      </c>
+      <c r="S156">
         <v>1.975</v>
-      </c>
-      <c r="S156">
-        <v>1.875</v>
       </c>
       <c r="T156">
         <v>2.75</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14363,7 +14363,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7128587</v>
+        <v>7060948</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14375,46 +14375,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K157">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
         <v>3.4</v>
       </c>
       <c r="M157">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N157">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14437,7 +14437,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7128579</v>
+        <v>7128587</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14449,60 +14449,134 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F158" t="s">
+        <v>37</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158">
+        <v>2.4</v>
+      </c>
+      <c r="L158">
+        <v>3.4</v>
+      </c>
+      <c r="M158">
+        <v>2.625</v>
+      </c>
+      <c r="N158">
+        <v>2.7</v>
+      </c>
+      <c r="O158">
+        <v>3.5</v>
+      </c>
+      <c r="P158">
+        <v>2.3</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
+        <v>1.775</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
+        <v>1.875</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7128579</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F159" t="s">
         <v>34</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G159" t="s">
         <v>36</v>
       </c>
-      <c r="K158">
+      <c r="K159">
         <v>1.615</v>
       </c>
-      <c r="L158">
+      <c r="L159">
         <v>4.1</v>
       </c>
-      <c r="M158">
+      <c r="M159">
         <v>4.333</v>
       </c>
-      <c r="N158">
-        <v>1.615</v>
-      </c>
-      <c r="O158">
+      <c r="N159">
+        <v>1.727</v>
+      </c>
+      <c r="O159">
         <v>4</v>
       </c>
-      <c r="P158">
-        <v>4.2</v>
-      </c>
-      <c r="Q158">
+      <c r="P159">
+        <v>3.8</v>
+      </c>
+      <c r="Q159">
         <v>-0.75</v>
       </c>
-      <c r="R158">
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
         <v>1.85</v>
       </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
+      <c r="T159">
         <v>2.5</v>
       </c>
-      <c r="U158">
+      <c r="U159">
         <v>1.85</v>
       </c>
-      <c r="V158">
-        <v>2</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
+      <c r="V159">
+        <v>2</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -118,19 +118,19 @@
     <t>Inverness CT</t>
   </si>
   <si>
-    <t>Airdrieonians</t>
+    <t>Dundee Utd</t>
+  </si>
+  <si>
+    <t>Ayr</t>
   </si>
   <si>
     <t>Queens Park</t>
   </si>
   <si>
-    <t>Dundee Utd</t>
-  </si>
-  <si>
     <t>Raith</t>
   </si>
   <si>
-    <t>Ayr</t>
+    <t>Airdrieonians</t>
   </si>
   <si>
     <t>A</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845223</v>
+        <v>6845225</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,73 +1058,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N7">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
+        <v>4.2</v>
+      </c>
+      <c r="Q7">
+        <v>-0.75</v>
+      </c>
+      <c r="R7">
         <v>2.05</v>
       </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2.05</v>
-      </c>
       <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1.85</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
         <v>2.75</v>
       </c>
-      <c r="U7">
-        <v>1.95</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
-      <c r="W7">
-        <v>2.3</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845226</v>
+        <v>6845224</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,55 +1147,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
       </c>
       <c r="K8">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
         <v>1.925</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.875</v>
       </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
       <c r="W8">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1204,16 +1204,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845225</v>
+        <v>6845226</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,73 +1236,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q9">
         <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845224</v>
+        <v>6845223</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,73 +1414,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N11">
+        <v>3.3</v>
+      </c>
+      <c r="O11">
+        <v>3.3</v>
+      </c>
+      <c r="P11">
+        <v>2.05</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2.05</v>
+      </c>
+      <c r="T11">
+        <v>2.75</v>
+      </c>
+      <c r="U11">
         <v>1.95</v>
       </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>3.4</v>
-      </c>
-      <c r="Q11">
+      <c r="V11">
+        <v>1.9</v>
+      </c>
+      <c r="W11">
+        <v>2.3</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>0.8</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>0.475</v>
+      </c>
+      <c r="AC11">
         <v>-0.5</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1.8</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.925</v>
-      </c>
-      <c r="V11">
-        <v>1.875</v>
-      </c>
-      <c r="W11">
-        <v>0.95</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1589,10 +1589,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845230</v>
+        <v>6845231</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,55 +1678,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1735,19 +1735,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6845231</v>
+        <v>6845230</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,55 +1767,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1824,19 +1824,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>4.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1948,7 +1948,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2126,7 +2126,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2215,7 +2215,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2390,10 +2390,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2479,7 +2479,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845240</v>
+        <v>6845242</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,76 +2568,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>2.8</v>
+      </c>
+      <c r="N24">
+        <v>1.8</v>
+      </c>
+      <c r="O24">
+        <v>3.75</v>
+      </c>
+      <c r="P24">
         <v>4</v>
       </c>
-      <c r="M24">
-        <v>4.333</v>
-      </c>
-      <c r="N24">
-        <v>1.55</v>
-      </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
-      <c r="P24">
-        <v>5.25</v>
-      </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X24">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845241</v>
+        <v>6845240</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M25">
+        <v>4.333</v>
+      </c>
+      <c r="N25">
+        <v>1.55</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>5.25</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
+        <v>1.95</v>
+      </c>
+      <c r="S25">
+        <v>1.85</v>
+      </c>
+      <c r="T25">
         <v>2.75</v>
       </c>
-      <c r="N25">
-        <v>2.55</v>
-      </c>
-      <c r="O25">
-        <v>3.4</v>
-      </c>
-      <c r="P25">
-        <v>2.5</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
       <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
         <v>1.85</v>
       </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y25">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2749,7 +2749,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6845242</v>
+        <v>6845241</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,76 +2835,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27">
+        <v>2.2</v>
+      </c>
+      <c r="L27">
+        <v>3.4</v>
+      </c>
+      <c r="M27">
+        <v>2.75</v>
+      </c>
+      <c r="N27">
+        <v>2.55</v>
+      </c>
+      <c r="O27">
+        <v>3.4</v>
+      </c>
+      <c r="P27">
+        <v>2.5</v>
+      </c>
+      <c r="Q27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27">
-        <v>2.1</v>
-      </c>
-      <c r="L27">
-        <v>3.5</v>
-      </c>
-      <c r="M27">
-        <v>2.8</v>
-      </c>
-      <c r="N27">
-        <v>1.8</v>
-      </c>
-      <c r="O27">
-        <v>3.75</v>
-      </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-      <c r="Q27">
-        <v>-0.5</v>
-      </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,10 +2924,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
         <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3016,7 +3016,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
@@ -3458,7 +3458,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3547,10 +3547,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
         <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3639,7 +3639,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
@@ -3995,7 +3995,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4081,10 +4081,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4170,10 +4170,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4526,7 +4526,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6845269</v>
+        <v>6845268</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4615,10 +4615,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4630,43 +4630,43 @@
         <v>40</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4675,7 +4675,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4684,7 +4684,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6845266</v>
+        <v>6845269</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,34 +4704,34 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
+        <v>3.6</v>
+      </c>
+      <c r="M48">
+        <v>3.4</v>
+      </c>
+      <c r="N48">
+        <v>2.1</v>
+      </c>
+      <c r="O48">
         <v>3.25</v>
-      </c>
-      <c r="M48">
-        <v>3.5</v>
-      </c>
-      <c r="N48">
-        <v>2.2</v>
-      </c>
-      <c r="O48">
-        <v>3.2</v>
       </c>
       <c r="P48">
         <v>3.1</v>
@@ -4743,37 +4743,37 @@
         <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6845268</v>
+        <v>6845266</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,46 +4793,46 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K49">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
         <v>2.5</v>
@@ -4841,28 +4841,28 @@
         <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z49">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4885,7 +4885,7 @@
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5060,10 +5060,10 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
         <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5327,10 +5327,10 @@
         <v>45234.5</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5416,7 +5416,7 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5508,7 +5508,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5683,7 +5683,7 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>37</v>
@@ -5864,7 +5864,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5950,7 +5950,7 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6309,7 +6309,7 @@
         <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6573,10 +6573,10 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6751,7 +6751,7 @@
         <v>45269.5</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7018,10 +7018,10 @@
         <v>45276.5</v>
       </c>
       <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
         <v>38</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7107,7 +7107,7 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7377,7 +7377,7 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7552,10 +7552,10 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
         <v>30</v>
@@ -7908,7 +7908,7 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8086,10 +8086,10 @@
         <v>45290.5</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845307</v>
+        <v>6845305</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,76 +8175,76 @@
         <v>45290.5</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>41</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
         <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845305</v>
+        <v>6845307</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,76 +8264,76 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>41</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U88">
         <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>45293.5</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8445,7 +8445,7 @@
         <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8534,7 +8534,7 @@
         <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>45296.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -8887,7 +8887,7 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9065,7 +9065,7 @@
         <v>45297.5</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>33</v>
@@ -9154,7 +9154,7 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>37</v>
@@ -9246,7 +9246,7 @@
         <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9424,7 +9424,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9688,10 +9688,10 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" t="s">
         <v>35</v>
-      </c>
-      <c r="G104" t="s">
-        <v>38</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9866,7 +9866,7 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
@@ -9955,7 +9955,7 @@
         <v>45318.5</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>
@@ -10136,7 +10136,7 @@
         <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10311,10 +10311,10 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10403,7 +10403,7 @@
         <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10492,7 +10492,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10756,7 +10756,7 @@
         <v>45339.5</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>30</v>
@@ -10845,10 +10845,10 @@
         <v>45339.5</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11026,7 +11026,7 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11112,10 +11112,10 @@
         <v>45346.5</v>
       </c>
       <c r="F120" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
         <v>36</v>
-      </c>
-      <c r="G120" t="s">
-        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6845341</v>
+        <v>6845340</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,76 +11201,76 @@
         <v>45346.5</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N121">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y121">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845340</v>
+        <v>6845341</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45346.5</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L122">
         <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N122">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>2</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC122">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11379,10 +11379,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11468,7 +11468,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6845347</v>
+        <v>6845348</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
         <v>1.8</v>
       </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
-      <c r="V126">
-        <v>1.9</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6845348</v>
+        <v>6845347</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,76 +11735,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O127">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
+        <v>1.8</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
         <v>1.9</v>
       </c>
-      <c r="S127">
-        <v>1.9</v>
-      </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
-      <c r="V127">
-        <v>1.8</v>
-      </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>-0.5</v>
+      </c>
+      <c r="AA127">
+        <v>0.4</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>1</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11916,7 +11916,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12005,7 +12005,7 @@
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12091,10 +12091,10 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12272,7 +12272,7 @@
         <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12361,7 +12361,7 @@
         <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12450,7 +12450,7 @@
         <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>31</v>
@@ -12625,7 +12625,7 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>29</v>
@@ -12895,7 +12895,7 @@
         <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13070,7 +13070,7 @@
         <v>45367.5</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>37</v>
@@ -13162,7 +13162,7 @@
         <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>45367.5</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13515,10 +13515,10 @@
         <v>45374.5</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13604,7 +13604,7 @@
         <v>45374.5</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>33</v>
@@ -13693,10 +13693,10 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F149" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149" t="s">
         <v>38</v>
-      </c>
-      <c r="G149" t="s">
-        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13785,7 +13785,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13948,7 +13948,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7024072</v>
+        <v>7020833</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13960,13 +13960,13 @@
         <v>45381.5</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13975,31 +13975,31 @@
         <v>40</v>
       </c>
       <c r="K152">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
         <v>2.5</v>
@@ -14011,7 +14011,7 @@
         <v>1.825</v>
       </c>
       <c r="W152">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14020,7 +14020,7 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7020833</v>
+        <v>7024072</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14049,13 +14049,13 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14064,31 +14064,31 @@
         <v>40</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
         <v>4.333</v>
       </c>
       <c r="N153">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q153">
         <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
         <v>2.5</v>
@@ -14100,7 +14100,7 @@
         <v>1.825</v>
       </c>
       <c r="W153">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14109,7 +14109,7 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA153">
         <v>-1</v>
@@ -14141,7 +14141,7 @@
         <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14215,7 +14215,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7060948</v>
+        <v>7939128</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14224,13 +14224,13 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45388.45833333334</v>
+        <v>45391.65625</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K155">
         <v>2.5</v>
@@ -14242,31 +14242,31 @@
         <v>2.5</v>
       </c>
       <c r="N155">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14289,7 +14289,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7128587</v>
+        <v>7842490</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14298,34 +14298,34 @@
         <v>28</v>
       </c>
       <c r="E156" s="2">
-        <v>45388.45833333334</v>
+        <v>45391.65625</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K156">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N156">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
         <v>1.975</v>
@@ -14337,10 +14337,10 @@
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14363,7 +14363,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7128579</v>
+        <v>7128581</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14372,49 +14372,49 @@
         <v>28</v>
       </c>
       <c r="E157" s="2">
-        <v>45388.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L157">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N157">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14429,154 +14429,6 @@
         <v>0</v>
       </c>
       <c r="AA157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>7060360</v>
-      </c>
-      <c r="C158" t="s">
-        <v>28</v>
-      </c>
-      <c r="D158" t="s">
-        <v>28</v>
-      </c>
-      <c r="E158" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F158" t="s">
-        <v>35</v>
-      </c>
-      <c r="G158" t="s">
-        <v>36</v>
-      </c>
-      <c r="K158">
-        <v>6</v>
-      </c>
-      <c r="L158">
-        <v>4.333</v>
-      </c>
-      <c r="M158">
-        <v>1.444</v>
-      </c>
-      <c r="N158">
-        <v>5</v>
-      </c>
-      <c r="O158">
-        <v>4</v>
-      </c>
-      <c r="P158">
-        <v>1.55</v>
-      </c>
-      <c r="Q158">
-        <v>1</v>
-      </c>
-      <c r="R158">
-        <v>1.875</v>
-      </c>
-      <c r="S158">
-        <v>1.975</v>
-      </c>
-      <c r="T158">
-        <v>2.75</v>
-      </c>
-      <c r="U158">
-        <v>1.925</v>
-      </c>
-      <c r="V158">
-        <v>1.925</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>7060358</v>
-      </c>
-      <c r="C159" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" t="s">
-        <v>28</v>
-      </c>
-      <c r="E159" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F159" t="s">
-        <v>33</v>
-      </c>
-      <c r="G159" t="s">
-        <v>29</v>
-      </c>
-      <c r="K159">
-        <v>1.666</v>
-      </c>
-      <c r="L159">
-        <v>3.8</v>
-      </c>
-      <c r="M159">
-        <v>4.333</v>
-      </c>
-      <c r="N159">
-        <v>1.5</v>
-      </c>
-      <c r="O159">
-        <v>4.2</v>
-      </c>
-      <c r="P159">
-        <v>6</v>
-      </c>
-      <c r="Q159">
-        <v>-1</v>
-      </c>
-      <c r="R159">
-        <v>1.85</v>
-      </c>
-      <c r="S159">
-        <v>2</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.85</v>
-      </c>
-      <c r="V159">
-        <v>2</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <v>0</v>
-      </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-      <c r="Z159">
-        <v>0</v>
-      </c>
-      <c r="AA159">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Arbroath</t>
   </si>
   <si>
-    <t>Morton</t>
+    <t>Partick</t>
   </si>
   <si>
-    <t>Partick</t>
+    <t>Morton</t>
   </si>
   <si>
     <t>Inverness CT</t>
@@ -136,10 +136,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC165"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6845221</v>
+        <v>6845222</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,13 +702,13 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
@@ -723,49 +723,49 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6845222</v>
+        <v>6845221</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,13 +791,13 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -812,49 +812,49 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X4">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>1.666</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>1.85</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>3.5</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>1.571</v>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>1.7</v>
@@ -1414,7 +1414,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>2.25</v>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>2.15</v>
@@ -1856,7 +1856,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
@@ -1945,7 +1945,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>2.45</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2301,10 +2301,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
         <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>2.375</v>
@@ -2482,7 +2482,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>2.1</v>
@@ -2749,7 +2749,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>1.571</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>29</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>2.5</v>
@@ -3283,7 +3283,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845252</v>
+        <v>6845254</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>3.25</v>
+      </c>
+      <c r="M33">
+        <v>3.4</v>
+      </c>
+      <c r="N33">
+        <v>2.3</v>
+      </c>
+      <c r="O33">
+        <v>3.2</v>
+      </c>
+      <c r="P33">
+        <v>2.875</v>
+      </c>
+      <c r="Q33">
+        <v>-0.25</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>2.75</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>1.8</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
         <v>1</v>
       </c>
-      <c r="J33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33">
-        <v>1.7</v>
-      </c>
-      <c r="L33">
-        <v>3.6</v>
-      </c>
-      <c r="M33">
-        <v>4.2</v>
-      </c>
-      <c r="N33">
-        <v>1.533</v>
-      </c>
-      <c r="O33">
-        <v>4</v>
-      </c>
-      <c r="P33">
-        <v>5.5</v>
-      </c>
-      <c r="Q33">
-        <v>-1</v>
-      </c>
-      <c r="R33">
-        <v>1.875</v>
-      </c>
-      <c r="S33">
-        <v>1.975</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.975</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
-      <c r="W33">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>-1</v>
-      </c>
-      <c r="Z33">
-        <v>0.875</v>
-      </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6845250</v>
+        <v>6845252</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,73 +3458,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34">
+        <v>1.7</v>
+      </c>
+      <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
+        <v>4.2</v>
+      </c>
+      <c r="N34">
+        <v>1.533</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>5.5</v>
+      </c>
+      <c r="Q34">
+        <v>-1</v>
+      </c>
+      <c r="R34">
+        <v>1.875</v>
+      </c>
+      <c r="S34">
+        <v>1.975</v>
+      </c>
+      <c r="T34">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>3.4</v>
-      </c>
-      <c r="M34">
-        <v>3.25</v>
-      </c>
-      <c r="N34">
-        <v>2.25</v>
-      </c>
-      <c r="O34">
-        <v>3.2</v>
-      </c>
-      <c r="P34">
-        <v>2.9</v>
-      </c>
-      <c r="Q34">
-        <v>-0.25</v>
-      </c>
-      <c r="R34">
+      <c r="U34">
         <v>1.975</v>
       </c>
-      <c r="S34">
-        <v>1.825</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
-      <c r="U34">
-        <v>1.775</v>
-      </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845251</v>
+        <v>6845250</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3547,55 +3547,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>39</v>
       </c>
       <c r="K35">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N35">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3604,16 +3604,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845253</v>
+        <v>6845251</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3636,55 +3636,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>39</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L36">
+        <v>3.4</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>2.8</v>
+      </c>
+      <c r="O36">
         <v>3.25</v>
       </c>
-      <c r="M36">
-        <v>3.4</v>
-      </c>
-      <c r="N36">
-        <v>2.2</v>
-      </c>
-      <c r="O36">
-        <v>3.2</v>
-      </c>
       <c r="P36">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3693,19 +3693,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845254</v>
+        <v>6845253</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3728,16 +3728,16 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3749,52 +3749,52 @@
         <v>3.4</v>
       </c>
       <c r="N37">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O37">
         <v>3.2</v>
       </c>
       <c r="P37">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB37">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38">
         <v>2.45</v>
@@ -3995,7 +3995,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4084,7 +4084,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>1.833</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K45">
         <v>1.5</v>
@@ -4529,7 +4529,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>3.1</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>1.909</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K48">
         <v>2.5</v>
@@ -4796,7 +4796,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>34</v>
@@ -4894,7 +4894,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>1.8</v>
@@ -4971,7 +4971,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -5149,7 +5149,7 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5241,7 +5241,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>1.363</v>
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K57">
         <v>1.909</v>
@@ -5683,10 +5683,10 @@
         <v>45241.5</v>
       </c>
       <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
         <v>31</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K59">
         <v>1.666</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K60">
         <v>2.2</v>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K62">
         <v>2.5</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>2.2</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K64">
         <v>1.909</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6845287</v>
+        <v>6845289</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,76 +6217,76 @@
         <v>45262.5</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
       <c r="J65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K65">
+        <v>1.727</v>
+      </c>
+      <c r="L65">
+        <v>3.8</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>1.8</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>3.6</v>
+      </c>
+      <c r="Q65">
+        <v>-0.5</v>
+      </c>
+      <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
         <v>2.75</v>
       </c>
-      <c r="L65">
-        <v>3.5</v>
-      </c>
-      <c r="M65">
-        <v>2.25</v>
-      </c>
-      <c r="N65">
-        <v>2.75</v>
-      </c>
-      <c r="O65">
-        <v>3</v>
-      </c>
-      <c r="P65">
-        <v>2.5</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
-      <c r="T65">
-        <v>2</v>
-      </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6845289</v>
+        <v>6845287</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6306,76 +6306,76 @@
         <v>45262.5</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L66">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.825</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>1.925</v>
+      </c>
+      <c r="V66">
         <v>1.875</v>
       </c>
-      <c r="S66">
-        <v>1.925</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.925</v>
-      </c>
       <c r="W66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6407,7 +6407,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K67">
         <v>2.375</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K69">
         <v>1.4</v>
@@ -6665,7 +6665,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6840,7 +6840,7 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6852,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K72">
         <v>2.7</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K76">
         <v>2.1</v>
@@ -7288,7 +7288,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7374,7 +7374,7 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K78">
         <v>2.375</v>
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6845304</v>
+        <v>6845303</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7463,76 +7463,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K79">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M79">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N79">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P79">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845303</v>
+        <v>6845304</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,76 +7552,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K80">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L80">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N80">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q80">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7653,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7733,7 +7733,7 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>2.6</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>3.1</v>
@@ -7911,7 +7911,7 @@
         <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>1.833</v>
@@ -8009,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>2.1</v>
@@ -8089,7 +8089,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K86">
         <v>2.2</v>
@@ -8187,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.444</v>
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845313</v>
+        <v>6845312</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8356,55 +8356,55 @@
         <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
         <v>1.875</v>
       </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
-      <c r="V89">
-        <v>1.9</v>
-      </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8413,13 +8413,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845310</v>
+        <v>6845313</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,46 +8442,46 @@
         <v>45293.5</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="N90">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>1.181</v>
+        <v>5.75</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
         <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
         <v>3.25</v>
@@ -8490,28 +8490,28 @@
         <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845312</v>
+        <v>6845311</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,49 +8531,49 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N91">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
         <v>1.925</v>
@@ -8582,25 +8582,25 @@
         <v>1.875</v>
       </c>
       <c r="W91">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845311</v>
+        <v>6845310</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,55 +8620,55 @@
         <v>45293.5</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>39</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M92">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="N92">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P92">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8677,19 +8677,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1</v>
+        <v>0.181</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K93">
         <v>2.2</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -8890,7 +8890,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>3.75</v>
@@ -9154,7 +9154,7 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.571</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6845320</v>
+        <v>6845323</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,76 +9421,76 @@
         <v>45304.5</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K101">
+        <v>2.75</v>
+      </c>
+      <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
         <v>2.25</v>
       </c>
-      <c r="L101">
-        <v>3.75</v>
-      </c>
-      <c r="M101">
+      <c r="N101">
+        <v>2.375</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
         <v>2.6</v>
       </c>
-      <c r="N101">
-        <v>2.875</v>
-      </c>
-      <c r="O101">
-        <v>4</v>
-      </c>
-      <c r="P101">
-        <v>2</v>
-      </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6845323</v>
+        <v>6845320</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45304.5</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K103">
         <v>1.833</v>
@@ -9869,7 +9869,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K107">
         <v>1.333</v>
@@ -10044,7 +10044,7 @@
         <v>45318.5</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K108">
         <v>1.727</v>
@@ -10225,7 +10225,7 @@
         <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>3.25</v>
@@ -10581,7 +10581,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K114">
         <v>2.4</v>
@@ -10670,7 +10670,7 @@
         <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10679,7 +10679,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K115">
         <v>2.6</v>
@@ -10768,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K116">
         <v>1.5</v>
@@ -10934,7 +10934,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11023,7 +11023,7 @@
         <v>45346.5</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>35</v>
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K119">
         <v>2.2</v>
@@ -11124,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K120">
         <v>1.333</v>
@@ -11302,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K122">
         <v>3</v>
@@ -11382,7 +11382,7 @@
         <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11391,7 +11391,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K123">
         <v>3</v>
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845346</v>
+        <v>6845348</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6845347</v>
+        <v>6845346</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P125">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K126">
         <v>1.8</v>
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6845348</v>
+        <v>6845347</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,13 +11735,13 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11750,61 +11750,61 @@
         <v>40</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O127">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
+        <v>1.8</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
         <v>1.9</v>
       </c>
-      <c r="S127">
-        <v>1.9</v>
-      </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
-      <c r="V127">
-        <v>1.8</v>
-      </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>-0.5</v>
+      </c>
+      <c r="AA127">
+        <v>0.4</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>1</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K128">
         <v>4.333</v>
@@ -11901,7 +11901,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6922126</v>
+        <v>6922451</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11913,76 +11913,76 @@
         <v>45353.5</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
         <v>3.4</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N129">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
         <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6922451</v>
+        <v>6922469</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,46 +12002,46 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
         <v>3.4</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N130">
+        <v>2.25</v>
+      </c>
+      <c r="O130">
+        <v>3.3</v>
+      </c>
+      <c r="P130">
+        <v>2.75</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
         <v>1.8</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
-      <c r="P130">
-        <v>4</v>
-      </c>
-      <c r="Q130">
-        <v>-0.5</v>
-      </c>
-      <c r="R130">
-        <v>1.85</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.25</v>
@@ -12050,28 +12050,28 @@
         <v>1.8</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6922469</v>
+        <v>6922470</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>40</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
+        <v>3.75</v>
+      </c>
+      <c r="M131">
+        <v>1.909</v>
+      </c>
+      <c r="N131">
         <v>3.4</v>
       </c>
-      <c r="M131">
-        <v>2.8</v>
-      </c>
-      <c r="N131">
-        <v>2.25</v>
-      </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
+        <v>1.85</v>
+      </c>
+      <c r="Q131">
+        <v>0.5</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
         <v>2.75</v>
       </c>
-      <c r="Q131">
-        <v>-0.25</v>
-      </c>
-      <c r="R131">
-        <v>2.05</v>
-      </c>
-      <c r="S131">
-        <v>1.8</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6922470</v>
+        <v>6922126</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,10 +12180,10 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12192,64 +12192,64 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K132">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N132">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12269,7 +12269,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>36</v>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K135">
         <v>1.125</v>
@@ -12539,7 +12539,7 @@
         <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K136">
         <v>2.875</v>
@@ -12637,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12726,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K138">
         <v>1.5</v>
@@ -12803,7 +12803,7 @@
         <v>45363.69791666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>38</v>
@@ -12904,7 +12904,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K140">
         <v>4</v>
@@ -12969,7 +12969,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6975418</v>
+        <v>6957817</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12981,76 +12981,76 @@
         <v>45367.5</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>41</v>
       </c>
       <c r="K141">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="N141">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O141">
         <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
+        <v>1.775</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
         <v>1.9</v>
       </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X141">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13058,7 +13058,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6957817</v>
+        <v>6975418</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13070,76 +13070,76 @@
         <v>45367.5</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>40</v>
       </c>
       <c r="K142">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
         <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>1.909</v>
@@ -13337,7 +13337,7 @@
         <v>45374.5</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>33</v>
@@ -13429,7 +13429,7 @@
         <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13616,7 +13616,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K148">
         <v>1.333</v>
@@ -13705,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K149">
         <v>2.4</v>
@@ -13871,7 +13871,7 @@
         <v>45381.5</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>37</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K151">
         <v>1.909</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K152">
         <v>1.666</v>
@@ -14049,7 +14049,7 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
         <v>32</v>
@@ -14061,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K153">
         <v>1.727</v>
@@ -14230,7 +14230,7 @@
         <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14239,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K155">
         <v>2.4</v>
@@ -14328,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K156">
         <v>1.615</v>
@@ -14408,7 +14408,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K157">
         <v>2.5</v>
@@ -14482,7 +14482,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7060358</v>
+        <v>7060360</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14494,76 +14494,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K158">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M158">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="N158">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P158">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB158">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14571,7 +14571,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7060360</v>
+        <v>7060358</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14583,76 +14583,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K159">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L159">
+        <v>3.8</v>
+      </c>
+      <c r="M159">
         <v>4.333</v>
       </c>
-      <c r="M159">
-        <v>1.444</v>
-      </c>
       <c r="N159">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P159">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="Q159">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14764,7 +14764,7 @@
         <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14773,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14850,7 +14850,7 @@
         <v>45394.65625</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>36</v>
@@ -14865,31 +14865,31 @@
         <v>2</v>
       </c>
       <c r="N162">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="Q162">
         <v>0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -14912,7 +14912,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7128581</v>
+        <v>7128580</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14924,46 +14924,46 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K163">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N163">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -14986,7 +14986,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7128580</v>
+        <v>7128581</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -14998,46 +14998,46 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N164">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
+        <v>1.975</v>
+      </c>
+      <c r="V164">
         <v>1.875</v>
-      </c>
-      <c r="V164">
-        <v>1.975</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15087,7 +15087,7 @@
         <v>2.8</v>
       </c>
       <c r="N165">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
         <v>3.4</v>
@@ -15126,6 +15126,80 @@
         <v>0</v>
       </c>
       <c r="AA165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7158591</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F166" t="s">
+        <v>38</v>
+      </c>
+      <c r="G166" t="s">
+        <v>30</v>
+      </c>
+      <c r="K166">
+        <v>2.1</v>
+      </c>
+      <c r="L166">
+        <v>3.4</v>
+      </c>
+      <c r="M166">
+        <v>3.1</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
+        <v>3.3</v>
+      </c>
+      <c r="Q166">
+        <v>-0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.8</v>
+      </c>
+      <c r="S166">
+        <v>2.05</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>1.875</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -112,10 +112,10 @@
     <t>Morton</t>
   </si>
   <si>
-    <t>Dunfermline</t>
+    <t>Inverness CT</t>
   </si>
   <si>
-    <t>Inverness CT</t>
+    <t>Dunfermline</t>
   </si>
   <si>
     <t>Airdrieonians</t>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6845219</v>
+        <v>6845220</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,37 +880,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
         <v>1.975</v>
@@ -919,34 +919,34 @@
         <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6845220</v>
+        <v>6845219</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,37 +969,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L6">
+        <v>3.6</v>
+      </c>
+      <c r="M6">
+        <v>4.5</v>
+      </c>
+      <c r="N6">
+        <v>1.909</v>
+      </c>
+      <c r="O6">
+        <v>3.3</v>
+      </c>
+      <c r="P6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.75</v>
-      </c>
-      <c r="N6">
-        <v>2.15</v>
-      </c>
-      <c r="O6">
-        <v>3.5</v>
-      </c>
-      <c r="P6">
-        <v>2.875</v>
-      </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.975</v>
@@ -1008,34 +1008,34 @@
         <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845229</v>
+        <v>6845228</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,73 +1589,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>2.15</v>
+      </c>
+      <c r="L13">
+        <v>3.4</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13">
-        <v>2.3</v>
-      </c>
-      <c r="L13">
-        <v>3.3</v>
-      </c>
-      <c r="M13">
-        <v>2.8</v>
-      </c>
       <c r="N13">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
+        <v>2.05</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
         <v>1.875</v>
       </c>
-      <c r="S13">
-        <v>1.925</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845230</v>
+        <v>6845229</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,55 +1678,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
         <v>3.3</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N14">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O14">
         <v>3.4</v>
       </c>
       <c r="P14">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.925</v>
+      </c>
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="S14">
-        <v>2.05</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
-      <c r="U14">
-        <v>2.05</v>
-      </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1735,19 +1735,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6845231</v>
+        <v>6845230</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,55 +1767,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1824,19 +1824,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>4.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6845232</v>
+        <v>6845231</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,73 +1856,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
         <v>1.775</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>2.025</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
       <c r="W16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB16">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6845228</v>
+        <v>6845232</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,13 +1945,13 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1960,43 +1960,43 @@
         <v>41</v>
       </c>
       <c r="K17">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
       <c r="N17">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
         <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2005,13 +2005,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6845234</v>
+        <v>6845235</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O19">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
+        <v>2.025</v>
+      </c>
+      <c r="S19">
+        <v>1.775</v>
+      </c>
+      <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
         <v>1.975</v>
       </c>
-      <c r="S19">
-        <v>1.875</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.95</v>
-      </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6845235</v>
+        <v>6845234</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
+        <v>4.5</v>
+      </c>
+      <c r="N20">
+        <v>1.533</v>
+      </c>
+      <c r="O20">
+        <v>4.5</v>
+      </c>
+      <c r="P20">
+        <v>5.5</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>1.975</v>
+      </c>
+      <c r="S20">
+        <v>1.875</v>
+      </c>
+      <c r="T20">
         <v>2.75</v>
       </c>
-      <c r="N20">
-        <v>2.375</v>
-      </c>
-      <c r="O20">
-        <v>3.1</v>
-      </c>
-      <c r="P20">
-        <v>3.1</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>2.025</v>
-      </c>
-      <c r="S20">
-        <v>1.775</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6845236</v>
+        <v>6845237</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,73 +2301,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
         <v>2.6</v>
       </c>
       <c r="N21">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6845237</v>
+        <v>6845236</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,73 +2390,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
         <v>2.6</v>
       </c>
       <c r="N22">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2571,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845245</v>
+        <v>6845246</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3105,40 +3105,40 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
         <v>2.025</v>
@@ -3147,31 +3147,31 @@
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845244</v>
+        <v>6845245</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,58 +3191,58 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>41</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N31">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.775</v>
+      </c>
+      <c r="S31">
         <v>2.025</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3251,16 +3251,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6845246</v>
+        <v>6845244</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,46 +3280,46 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
         <v>1.825</v>
-      </c>
-      <c r="S32">
-        <v>2.025</v>
       </c>
       <c r="T32">
         <v>2.5</v>
@@ -3331,19 +3331,19 @@
         <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA32">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845250</v>
+        <v>6845254</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3636,76 +3636,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>2</v>
       </c>
       <c r="L36">
+        <v>3.25</v>
+      </c>
+      <c r="M36">
         <v>3.4</v>
       </c>
-      <c r="M36">
-        <v>3.25</v>
-      </c>
       <c r="N36">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O36">
         <v>3.2</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845254</v>
+        <v>6845250</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,76 +3725,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
       <c r="L37">
+        <v>3.4</v>
+      </c>
+      <c r="M37">
         <v>3.25</v>
       </c>
-      <c r="M37">
-        <v>3.4</v>
-      </c>
       <c r="N37">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O37">
         <v>3.2</v>
       </c>
       <c r="P37">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4259,7 +4259,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
@@ -4618,7 +4618,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4704,7 +4704,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -5152,7 +5152,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5419,7 +5419,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>45240.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5861,7 +5861,7 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -6039,10 +6039,10 @@
         <v>45248.5</v>
       </c>
       <c r="F63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s">
         <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6217,7 +6217,7 @@
         <v>45262.5</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>38</v>
@@ -6576,7 +6576,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6665,7 +6665,7 @@
         <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6843,7 +6843,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845298</v>
+        <v>6845299</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N76">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7285,7 +7285,7 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845299</v>
+        <v>6845298</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,76 +7374,76 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K78">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6845303</v>
+        <v>6845304</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7463,76 +7463,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>40</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P79">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845304</v>
+        <v>6845303</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,76 +7552,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>40</v>
       </c>
       <c r="K80">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N80">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6845302</v>
+        <v>6845301</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,7 +7641,7 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -7656,31 +7656,31 @@
         <v>40</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L81">
+        <v>3.8</v>
+      </c>
+      <c r="M81">
+        <v>2.1</v>
+      </c>
+      <c r="N81">
         <v>3.75</v>
       </c>
-      <c r="M81">
-        <v>3.4</v>
-      </c>
-      <c r="N81">
-        <v>1.909</v>
-      </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.75</v>
@@ -7689,28 +7689,28 @@
         <v>2</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6845301</v>
+        <v>6845300</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,40 +7730,40 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>40</v>
       </c>
       <c r="K82">
+        <v>2.6</v>
+      </c>
+      <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>2.2</v>
+      </c>
+      <c r="O82">
+        <v>3.6</v>
+      </c>
+      <c r="P82">
         <v>3.1</v>
       </c>
-      <c r="L82">
-        <v>3.8</v>
-      </c>
-      <c r="M82">
-        <v>2.1</v>
-      </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>1.85</v>
-      </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
         <v>1.95</v>
@@ -7772,34 +7772,34 @@
         <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6845300</v>
+        <v>6845302</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7819,55 +7819,55 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>40</v>
       </c>
       <c r="K83">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O83">
         <v>3.6</v>
       </c>
       <c r="P83">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.85</v>
+      </c>
+      <c r="S83">
         <v>1.95</v>
       </c>
-      <c r="S83">
-        <v>1.9</v>
-      </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7879,16 +7879,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>31</v>
@@ -8267,7 +8267,7 @@
         <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8531,7 +8531,7 @@
         <v>45293.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8623,7 +8623,7 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8801,7 +8801,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845317</v>
+        <v>6845316</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,13 +9065,13 @@
         <v>45297.5</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>3</v>
@@ -9080,58 +9080,58 @@
         <v>39</v>
       </c>
       <c r="K97">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
         <v>1.8</v>
       </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>4.25</v>
-      </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845316</v>
+        <v>6845317</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,13 +9154,13 @@
         <v>45297.5</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -9169,40 +9169,40 @@
         <v>39</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M98">
+        <v>7</v>
+      </c>
+      <c r="N98">
+        <v>1.4</v>
+      </c>
+      <c r="O98">
+        <v>5.5</v>
+      </c>
+      <c r="P98">
+        <v>5.25</v>
+      </c>
+      <c r="Q98">
+        <v>-1.25</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
         <v>2.5</v>
       </c>
-      <c r="N98">
-        <v>2.15</v>
-      </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
-      <c r="P98">
-        <v>2.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.825</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9211,16 +9211,16 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9243,7 +9243,7 @@
         <v>45303.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6845326</v>
+        <v>6845325</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,76 +9777,76 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>40</v>
       </c>
       <c r="K105">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P105">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA105">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845325</v>
+        <v>6845326</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>40</v>
       </c>
       <c r="K106">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N106">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
+        <v>1.775</v>
+      </c>
+      <c r="V106">
         <v>2.025</v>
       </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.85</v>
-      </c>
-      <c r="V106">
-        <v>2</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10133,7 +10133,7 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10222,7 +10222,7 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10400,7 +10400,7 @@
         <v>45332.5</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10667,7 +10667,7 @@
         <v>45339.5</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -10756,7 +10756,7 @@
         <v>45339.5</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>30</v>
@@ -10937,7 +10937,7 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11204,7 +11204,7 @@
         <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11557,10 +11557,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s">
         <v>33</v>
-      </c>
-      <c r="G125" t="s">
-        <v>32</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12180,7 +12180,7 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>35</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7888759</v>
+        <v>7158590</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,55 +12269,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>39</v>
       </c>
       <c r="K133">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12326,19 +12326,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7158590</v>
+        <v>7888759</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,55 +12358,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>39</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L134">
         <v>3.3</v>
       </c>
       <c r="M134">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N134">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12415,19 +12415,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>45360.5</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12628,7 +12628,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12892,7 +12892,7 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
         <v>36</v>
@@ -13248,7 +13248,7 @@
         <v>45367.5</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13340,7 +13340,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13874,7 +13874,7 @@
         <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14052,7 +14052,7 @@
         <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14227,7 +14227,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>29</v>
@@ -14494,7 +14494,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14927,7 +14927,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7158591</v>
+        <v>7158589</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14939,76 +14939,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L163">
         <v>3.4</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X163">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA163">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15016,7 +15016,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7158589</v>
+        <v>7158591</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15028,76 +15028,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K164">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
         <v>3.4</v>
       </c>
       <c r="M164">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N164">
+        <v>2.1</v>
+      </c>
+      <c r="O164">
+        <v>3.3</v>
+      </c>
+      <c r="P164">
+        <v>3.1</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>2.025</v>
+      </c>
+      <c r="V164">
+        <v>1.825</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
         <v>2.3</v>
       </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>2.7</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>1.75</v>
-      </c>
-      <c r="S164">
-        <v>2.05</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>1.825</v>
-      </c>
-      <c r="V164">
-        <v>1.975</v>
-      </c>
-      <c r="W164">
-        <v>1.3</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.825</v>
-      </c>
-      <c r="AC164">
-        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15120,7 +15120,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15295,7 +15295,7 @@
         <v>45401.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>38</v>
@@ -15372,7 +15372,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7190970</v>
+        <v>7222794</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15381,49 +15381,49 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45402.45833333334</v>
+        <v>45408.65625</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K168">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="N168">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O168">
         <v>3.4</v>
       </c>
       <c r="P168">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T168">
         <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15446,7 +15446,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7172242</v>
+        <v>7222795</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15455,49 +15455,49 @@
         <v>28</v>
       </c>
       <c r="E169" s="2">
-        <v>45402.45833333334</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K169">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="L169">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M169">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N169">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O169">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>2.15</v>
       </c>
       <c r="S169">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
         <v>0</v>
@@ -15520,7 +15520,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7158593</v>
+        <v>7219425</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15529,49 +15529,49 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45402.45833333334</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K170">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N170">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P170">
         <v>3.1</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15594,7 +15594,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7158592</v>
+        <v>7222797</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15603,49 +15603,49 @@
         <v>28</v>
       </c>
       <c r="E171" s="2">
-        <v>45402.45833333334</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K171">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="L171">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="N171">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
         <v>0</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -97,16 +97,16 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7190953</t>
+    <t>7222798</t>
   </si>
   <si>
-    <t>7222797</t>
+    <t>7248178</t>
   </si>
   <si>
-    <t>7222795</t>
+    <t>7251789</t>
   </si>
   <si>
-    <t>7219425</t>
+    <t>7251790</t>
   </si>
   <si>
     <t>Scotland Championship</t>
@@ -1722,7 +1722,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6845230</v>
+        <v>6845229</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1731,55 +1731,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>42</v>
       </c>
       <c r="J15">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K15">
         <v>3.3</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M15">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N15">
         <v>3.4</v>
       </c>
       <c r="O15">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q15">
+        <v>1.875</v>
+      </c>
+      <c r="R15">
+        <v>1.925</v>
+      </c>
+      <c r="S15">
+        <v>2.25</v>
+      </c>
+      <c r="T15">
         <v>1.8</v>
       </c>
-      <c r="R15">
-        <v>2.05</v>
-      </c>
-      <c r="S15">
-        <v>2.5</v>
-      </c>
-      <c r="T15">
-        <v>2.05</v>
-      </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <v>-1</v>
@@ -1788,19 +1788,19 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1894,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6845229</v>
+        <v>6845230</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1903,56 +1903,56 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>42</v>
       </c>
       <c r="J17">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K17">
         <v>3.3</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N17">
         <v>3.4</v>
       </c>
       <c r="O17">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S17">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T17">
+        <v>2.05</v>
+      </c>
+      <c r="U17">
         <v>1.8</v>
       </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
       <c r="V17">
         <v>-1</v>
       </c>
@@ -1960,19 +1960,19 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>0.8</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1980,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6845236</v>
+        <v>6845237</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1989,73 +1989,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J18">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
         <v>2.6</v>
       </c>
       <c r="M18">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q18">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R18">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2066,7 +2066,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6845237</v>
+        <v>6845236</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -2075,73 +2075,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J19">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="K19">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L19">
         <v>2.6</v>
       </c>
       <c r="M19">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="P19">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q19">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
         <v>-1</v>
@@ -2496,7 +2496,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845241</v>
+        <v>6845242</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -2505,76 +2505,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M24">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O24">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>2.5</v>
       </c>
       <c r="T24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2582,7 +2582,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845240</v>
+        <v>6845241</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -2591,76 +2591,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M25">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O25">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.925</v>
+      </c>
+      <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
+        <v>2.5</v>
+      </c>
+      <c r="T25">
+        <v>1.85</v>
+      </c>
+      <c r="U25">
         <v>1.95</v>
       </c>
-      <c r="R25">
-        <v>1.85</v>
-      </c>
-      <c r="S25">
-        <v>2.75</v>
-      </c>
-      <c r="T25">
-        <v>1.95</v>
-      </c>
-      <c r="U25">
-        <v>1.85</v>
-      </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2668,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6845238</v>
+        <v>6845240</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -2677,76 +2677,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26">
+        <v>1.571</v>
+      </c>
+      <c r="K26">
         <v>4</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26">
-        <v>2.25</v>
-      </c>
-      <c r="K26">
-        <v>3.25</v>
-      </c>
       <c r="L26">
+        <v>4.333</v>
+      </c>
+      <c r="M26">
+        <v>1.55</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>5.25</v>
+      </c>
+      <c r="P26">
+        <v>-1</v>
+      </c>
+      <c r="Q26">
+        <v>1.95</v>
+      </c>
+      <c r="R26">
+        <v>1.85</v>
+      </c>
+      <c r="S26">
         <v>2.75</v>
       </c>
-      <c r="M26">
-        <v>2.625</v>
-      </c>
-      <c r="N26">
-        <v>3.2</v>
-      </c>
-      <c r="O26">
-        <v>2.625</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1.925</v>
-      </c>
-      <c r="R26">
-        <v>1.875</v>
-      </c>
-      <c r="S26">
-        <v>2.5</v>
-      </c>
       <c r="T26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2754,7 +2754,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6845242</v>
+        <v>6845238</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -2763,13 +2763,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2778,31 +2778,31 @@
         <v>44</v>
       </c>
       <c r="J27">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L27">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M27">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N27">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="P27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
         <v>2.5</v>
@@ -2814,7 +2814,7 @@
         <v>1.925</v>
       </c>
       <c r="V27">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2823,16 +2823,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -6796,7 +6796,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6845296</v>
+        <v>6845295</v>
       </c>
       <c r="C74" t="s">
         <v>31</v>
@@ -6805,76 +6805,76 @@
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74">
+        <v>2.1</v>
+      </c>
+      <c r="K74">
+        <v>3.5</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>2.2</v>
+      </c>
+      <c r="N74">
+        <v>3.2</v>
+      </c>
+      <c r="O74">
+        <v>3.1</v>
+      </c>
+      <c r="P74">
+        <v>-0.25</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>2.25</v>
+      </c>
+      <c r="T74">
+        <v>2.025</v>
+      </c>
+      <c r="U74">
+        <v>1.825</v>
+      </c>
+      <c r="V74">
+        <v>1.2</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
         <v>1</v>
       </c>
-      <c r="I74" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74">
-        <v>1.8</v>
-      </c>
-      <c r="K74">
-        <v>3.4</v>
-      </c>
-      <c r="L74">
-        <v>4</v>
-      </c>
-      <c r="M74">
-        <v>1.7</v>
-      </c>
-      <c r="N74">
-        <v>3.4</v>
-      </c>
-      <c r="O74">
-        <v>4.5</v>
-      </c>
-      <c r="P74">
-        <v>-0.75</v>
-      </c>
-      <c r="Q74">
-        <v>2</v>
-      </c>
-      <c r="R74">
-        <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2.5</v>
-      </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>-1</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>3.5</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845298</v>
+        <v>6845296</v>
       </c>
       <c r="C76" t="s">
         <v>31</v>
@@ -6977,55 +6977,55 @@
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
       </c>
       <c r="I76" t="s">
         <v>42</v>
       </c>
       <c r="J76">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
         <v>4</v>
       </c>
       <c r="M76">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="N76">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P76">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q76">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
         <v>2.5</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
         <v>-1</v>
@@ -7034,19 +7034,19 @@
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7140,7 +7140,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845295</v>
+        <v>6845298</v>
       </c>
       <c r="C78" t="s">
         <v>31</v>
@@ -7149,76 +7149,76 @@
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J78">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="N78">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P78">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T78">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7226,7 +7226,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6845303</v>
+        <v>6845304</v>
       </c>
       <c r="C79" t="s">
         <v>31</v>
@@ -7235,76 +7235,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79" t="s">
         <v>43</v>
       </c>
       <c r="J79">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="K79">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L79">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="N79">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O79">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="P79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q79">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
         <v>-1</v>
       </c>
       <c r="W79">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7312,7 +7312,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845304</v>
+        <v>6845303</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
@@ -7321,76 +7321,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
         <v>43</v>
       </c>
       <c r="J80">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="M80">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O80">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="P80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Q80">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7742,7 +7742,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6845307</v>
+        <v>6845309</v>
       </c>
       <c r="C85" t="s">
         <v>31</v>
@@ -7751,52 +7751,52 @@
         <v>45290.5</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
         <v>43</v>
       </c>
       <c r="J85">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L85">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M85">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="N85">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P85">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q85">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U85">
         <v>1.9</v>
@@ -7805,22 +7805,22 @@
         <v>-1</v>
       </c>
       <c r="W85">
-        <v>2.1</v>
+        <v>3.333</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7828,7 +7828,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6845305</v>
+        <v>6845307</v>
       </c>
       <c r="C86" t="s">
         <v>31</v>
@@ -7837,76 +7837,76 @@
         <v>45290.5</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
         <v>43</v>
       </c>
       <c r="J86">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K86">
         <v>3.4</v>
       </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M86">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N86">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O86">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q86">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>1.95</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7914,7 +7914,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845308</v>
+        <v>6845305</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
@@ -7923,73 +7923,73 @@
         <v>45290.5</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J87">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="K87">
         <v>3.4</v>
       </c>
       <c r="L87">
+        <v>2.9</v>
+      </c>
+      <c r="M87">
         <v>2.375</v>
       </c>
-      <c r="M87">
-        <v>2.4</v>
-      </c>
       <c r="N87">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O87">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
         <v>2.5</v>
       </c>
       <c r="T87">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
         <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X87">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
         <v>-1</v>
@@ -8000,7 +8000,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845309</v>
+        <v>6845308</v>
       </c>
       <c r="C88" t="s">
         <v>31</v>
@@ -8009,73 +8009,73 @@
         <v>45290.5</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J88">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="K88">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L88">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="M88">
+        <v>2.4</v>
+      </c>
+      <c r="N88">
+        <v>3.4</v>
+      </c>
+      <c r="O88">
+        <v>2.4</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>1.9</v>
+      </c>
+      <c r="R88">
+        <v>1.9</v>
+      </c>
+      <c r="S88">
+        <v>2.5</v>
+      </c>
+      <c r="T88">
+        <v>1.875</v>
+      </c>
+      <c r="U88">
+        <v>1.925</v>
+      </c>
+      <c r="V88">
+        <v>-1</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
         <v>1.4</v>
       </c>
-      <c r="N88">
-        <v>4.333</v>
-      </c>
-      <c r="O88">
-        <v>6</v>
-      </c>
-      <c r="P88">
-        <v>-1.25</v>
-      </c>
-      <c r="Q88">
-        <v>1.875</v>
-      </c>
-      <c r="R88">
-        <v>1.925</v>
-      </c>
-      <c r="S88">
-        <v>3</v>
-      </c>
-      <c r="T88">
-        <v>1.9</v>
-      </c>
-      <c r="U88">
-        <v>1.9</v>
-      </c>
-      <c r="V88">
-        <v>-1</v>
-      </c>
-      <c r="W88">
-        <v>3.333</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8086,7 +8086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845314</v>
+        <v>6845312</v>
       </c>
       <c r="C89" t="s">
         <v>31</v>
@@ -8095,13 +8095,13 @@
         <v>45293.5</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8110,43 +8110,43 @@
         <v>44</v>
       </c>
       <c r="J89">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K89">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N89">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O89">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
         <v>1.925</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8172,7 +8172,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845312</v>
+        <v>6845314</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
@@ -8181,13 +8181,13 @@
         <v>45293.5</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8196,43 +8196,43 @@
         <v>44</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K90">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="M90">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N90">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P90">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T90">
         <v>1.925</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8258,7 +8258,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845313</v>
+        <v>6845311</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -8267,76 +8267,76 @@
         <v>45293.5</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J91">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="K91">
+        <v>3.5</v>
+      </c>
+      <c r="L91">
+        <v>2.25</v>
+      </c>
+      <c r="M91">
+        <v>3.2</v>
+      </c>
+      <c r="N91">
         <v>3.75</v>
       </c>
-      <c r="L91">
-        <v>4</v>
-      </c>
-      <c r="M91">
-        <v>1.4</v>
-      </c>
-      <c r="N91">
-        <v>4.75</v>
-      </c>
       <c r="O91">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>1.8</v>
+      </c>
+      <c r="S91">
+        <v>2.75</v>
+      </c>
+      <c r="T91">
+        <v>1.925</v>
+      </c>
+      <c r="U91">
         <v>1.875</v>
       </c>
-      <c r="R91">
-        <v>1.975</v>
-      </c>
-      <c r="S91">
-        <v>3.25</v>
-      </c>
-      <c r="T91">
-        <v>1.95</v>
-      </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
       <c r="V91">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
+        <v>0.8</v>
+      </c>
+      <c r="AA91">
+        <v>0.4625</v>
+      </c>
+      <c r="AB91">
         <v>-0.5</v>
-      </c>
-      <c r="Z91">
-        <v>0.4875</v>
-      </c>
-      <c r="AA91">
-        <v>0.95</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8344,7 +8344,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845311</v>
+        <v>6845313</v>
       </c>
       <c r="C92" t="s">
         <v>31</v>
@@ -8353,76 +8353,76 @@
         <v>45293.5</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J92">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="K92">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L92">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O92">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="P92">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA92">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -10322,7 +10322,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6845338</v>
+        <v>6845336</v>
       </c>
       <c r="C115" t="s">
         <v>31</v>
@@ -10331,55 +10331,55 @@
         <v>45339.5</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
         <v>43</v>
       </c>
       <c r="J115">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="N115">
         <v>3.6</v>
       </c>
       <c r="O115">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q115">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
         <v>2.5</v>
       </c>
       <c r="T115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
         <v>-1</v>
@@ -10391,16 +10391,16 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10408,7 +10408,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6845336</v>
+        <v>6845337</v>
       </c>
       <c r="C116" t="s">
         <v>31</v>
@@ -10417,76 +10417,76 @@
         <v>45339.5</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116" t="s">
         <v>43</v>
       </c>
       <c r="J116">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="N116">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O116">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="P116">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
         <v>2.5</v>
       </c>
       <c r="T116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
         <v>-1</v>
       </c>
       <c r="W116">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10494,7 +10494,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6845337</v>
+        <v>6845338</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -10503,40 +10503,40 @@
         <v>45339.5</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
         <v>43</v>
       </c>
       <c r="J117">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
         <v>2.4</v>
       </c>
       <c r="M117">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O117">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q117">
         <v>1.975</v>
@@ -10548,31 +10548,31 @@
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -12730,7 +12730,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6975416</v>
+        <v>6957817</v>
       </c>
       <c r="C143" t="s">
         <v>31</v>
@@ -12739,46 +12739,46 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
         <v>1</v>
       </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J143">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M143">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N143">
         <v>3.1</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P143">
         <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
         <v>2.25</v>
@@ -12790,19 +12790,19 @@
         <v>1.9</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
         <v>0.8999999999999999</v>
@@ -12816,7 +12816,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6957817</v>
+        <v>6975416</v>
       </c>
       <c r="C144" t="s">
         <v>31</v>
@@ -12825,46 +12825,46 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J144">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K144">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N144">
         <v>3.1</v>
       </c>
       <c r="O144">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
         <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
         <v>2.25</v>
@@ -12876,19 +12876,19 @@
         <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
         <v>0.8999999999999999</v>
@@ -12902,7 +12902,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6975419</v>
+        <v>6994673</v>
       </c>
       <c r="C145" t="s">
         <v>31</v>
@@ -12911,10 +12911,10 @@
         <v>45374.5</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12926,40 +12926,40 @@
         <v>42</v>
       </c>
       <c r="J145">
+        <v>4.2</v>
+      </c>
+      <c r="K145">
+        <v>4</v>
+      </c>
+      <c r="L145">
+        <v>1.6</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>4.333</v>
+      </c>
+      <c r="O145">
+        <v>1.45</v>
+      </c>
+      <c r="P145">
+        <v>1.25</v>
+      </c>
+      <c r="Q145">
+        <v>1.825</v>
+      </c>
+      <c r="R145">
+        <v>1.975</v>
+      </c>
+      <c r="S145">
+        <v>3</v>
+      </c>
+      <c r="T145">
         <v>1.8</v>
       </c>
-      <c r="K145">
-        <v>3.5</v>
-      </c>
-      <c r="L145">
-        <v>3.5</v>
-      </c>
-      <c r="M145">
-        <v>2.1</v>
-      </c>
-      <c r="N145">
-        <v>3.25</v>
-      </c>
-      <c r="O145">
-        <v>3</v>
-      </c>
-      <c r="P145">
-        <v>-0.25</v>
-      </c>
-      <c r="Q145">
-        <v>1.95</v>
-      </c>
-      <c r="R145">
-        <v>1.85</v>
-      </c>
-      <c r="S145">
-        <v>2.25</v>
-      </c>
-      <c r="T145">
-        <v>1.95</v>
-      </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V145">
         <v>-1</v>
@@ -12968,19 +12968,19 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z145">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13160,7 +13160,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6994673</v>
+        <v>6975419</v>
       </c>
       <c r="C148" t="s">
         <v>31</v>
@@ -13169,10 +13169,10 @@
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13184,40 +13184,40 @@
         <v>42</v>
       </c>
       <c r="J148">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L148">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="O148">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="P148">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q148">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
         <v>-1</v>
@@ -13226,19 +13226,19 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="Y148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13332,7 +13332,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7024061</v>
+        <v>7024072</v>
       </c>
       <c r="C150" t="s">
         <v>31</v>
@@ -13341,13 +13341,13 @@
         <v>45381.5</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13356,31 +13356,31 @@
         <v>44</v>
       </c>
       <c r="J150">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M150">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N150">
         <v>3.4</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
         <v>-0.5</v>
       </c>
       <c r="Q150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
         <v>2.5</v>
@@ -13392,7 +13392,7 @@
         <v>1.825</v>
       </c>
       <c r="V150">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13401,7 +13401,7 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z150">
         <v>-1</v>
@@ -13418,7 +13418,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7020832</v>
+        <v>7024061</v>
       </c>
       <c r="C151" t="s">
         <v>31</v>
@@ -13427,76 +13427,76 @@
         <v>45381.5</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>2</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J151">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="K151">
+        <v>3.4</v>
+      </c>
+      <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>1.95</v>
+      </c>
+      <c r="N151">
+        <v>3.4</v>
+      </c>
+      <c r="O151">
         <v>3.5</v>
       </c>
-      <c r="L151">
-        <v>1.833</v>
-      </c>
-      <c r="M151">
-        <v>4.333</v>
-      </c>
-      <c r="N151">
-        <v>3.6</v>
-      </c>
-      <c r="O151">
-        <v>1.7</v>
-      </c>
       <c r="P151">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
         <v>2.5</v>
       </c>
       <c r="T151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z151">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13504,7 +13504,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7020833</v>
+        <v>7020832</v>
       </c>
       <c r="C152" t="s">
         <v>31</v>
@@ -13513,76 +13513,76 @@
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>2</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J152">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L152">
+        <v>1.833</v>
+      </c>
+      <c r="M152">
         <v>4.333</v>
-      </c>
-      <c r="M152">
-        <v>1.75</v>
       </c>
       <c r="N152">
         <v>3.6</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="P152">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q152">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
         <v>2.5</v>
       </c>
       <c r="T152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y152">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13590,7 +13590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024072</v>
+        <v>7020833</v>
       </c>
       <c r="C153" t="s">
         <v>31</v>
@@ -13599,13 +13599,13 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -13614,31 +13614,31 @@
         <v>44</v>
       </c>
       <c r="J153">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
         <v>4.333</v>
       </c>
       <c r="M153">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N153">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P153">
         <v>-0.5</v>
       </c>
       <c r="Q153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
         <v>2.5</v>
@@ -13650,7 +13650,7 @@
         <v>1.825</v>
       </c>
       <c r="V153">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13659,7 +13659,7 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z153">
         <v>-1</v>
@@ -15316,49 +15316,49 @@
         <v>31</v>
       </c>
       <c r="D173" s="2">
-        <v>45409.45833333334</v>
+        <v>45415.65625</v>
       </c>
       <c r="E173" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" t="s">
         <v>32</v>
       </c>
-      <c r="F173" t="s">
-        <v>41</v>
-      </c>
       <c r="J173">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="K173">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L173">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="M173">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N173">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O173">
-        <v>1.55</v>
+        <v>8</v>
       </c>
       <c r="P173">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q173">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
         <v>3</v>
       </c>
       <c r="T173">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U173">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
         <v>0</v>
@@ -15381,49 +15381,49 @@
         <v>31</v>
       </c>
       <c r="D174" s="2">
-        <v>45409.45833333334</v>
+        <v>45415.65625</v>
       </c>
       <c r="E174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" t="s">
         <v>36</v>
       </c>
-      <c r="F174" t="s">
-        <v>35</v>
-      </c>
       <c r="J174">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L174">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M174">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O174">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="P174">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q174">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
         <v>0</v>
@@ -15446,49 +15446,49 @@
         <v>31</v>
       </c>
       <c r="D175" s="2">
-        <v>45409.45833333334</v>
+        <v>45415.65625</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J175">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="K175">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L175">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="M175">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="N175">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O175">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
         <v>1.85</v>
-      </c>
-      <c r="U175">
-        <v>2</v>
       </c>
       <c r="V175">
         <v>0</v>
@@ -15511,19 +15511,19 @@
         <v>31</v>
       </c>
       <c r="D176" s="2">
-        <v>45409.45833333334</v>
+        <v>45415.65625</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J176">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K176">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L176">
         <v>3.1</v>
@@ -15532,28 +15532,28 @@
         <v>2.05</v>
       </c>
       <c r="N176">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
         <v>-0.25</v>
       </c>
       <c r="Q176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S176">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="V176">
         <v>0</v>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>7222798</t>
+  </si>
+  <si>
+    <t>7222796</t>
   </si>
   <si>
     <t>7251790</t>
@@ -510,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +610,16 @@
         <v>6845218</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45142.65625</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -625,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -693,16 +696,16 @@
         <v>6845221</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -711,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -779,16 +782,16 @@
         <v>6845222</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -797,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -865,16 +868,16 @@
         <v>6845219</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -883,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>1.666</v>
@@ -951,16 +954,16 @@
         <v>6845220</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -969,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>2.25</v>
@@ -1037,16 +1040,16 @@
         <v>6845224</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1.85</v>
@@ -1123,16 +1126,16 @@
         <v>6845227</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1141,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1209,16 +1212,16 @@
         <v>6845223</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1227,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1295,16 +1298,16 @@
         <v>6845226</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1313,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>1.7</v>
@@ -1381,16 +1384,16 @@
         <v>6845225</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1399,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1467,16 +1470,16 @@
         <v>7062236</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>2.6</v>
@@ -1553,16 +1556,16 @@
         <v>6845228</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1571,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>2.15</v>
@@ -1639,16 +1642,16 @@
         <v>6845229</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1657,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2.3</v>
@@ -1725,16 +1728,16 @@
         <v>6845231</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1743,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.75</v>
@@ -1811,16 +1814,16 @@
         <v>6845230</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1829,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1897,16 +1900,16 @@
         <v>6845232</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1915,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1983,16 +1986,16 @@
         <v>6845237</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2001,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>2.375</v>
@@ -2069,16 +2072,16 @@
         <v>6845236</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2087,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>2.3</v>
@@ -2155,16 +2158,16 @@
         <v>6845235</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
         <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2173,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>2.45</v>
@@ -2241,16 +2244,16 @@
         <v>6845234</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2259,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>1.666</v>
@@ -2327,16 +2330,16 @@
         <v>6845233</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2345,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -2413,16 +2416,16 @@
         <v>6845239</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45184.65625</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2431,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>2.625</v>
@@ -2499,16 +2502,16 @@
         <v>6845242</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2517,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2585,16 +2588,16 @@
         <v>6845241</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2603,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2671,16 +2674,16 @@
         <v>6845240</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2689,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>1.571</v>
@@ -2757,16 +2760,16 @@
         <v>6845238</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2775,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>2.25</v>
@@ -2843,16 +2846,16 @@
         <v>6845243</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45191.65625</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2861,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2929,16 +2932,16 @@
         <v>6845246</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2947,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>3.3</v>
@@ -3015,16 +3018,16 @@
         <v>6845245</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3033,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3101,16 +3104,16 @@
         <v>6845244</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
         <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3119,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>2.5</v>
@@ -3187,16 +3190,16 @@
         <v>6845247</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3205,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>1.727</v>
@@ -3273,16 +3276,16 @@
         <v>6845254</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3291,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3359,16 +3362,16 @@
         <v>6845253</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3377,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -3442,82 +3445,82 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845252</v>
+        <v>6845250</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" t="s">
         <v>43</v>
       </c>
       <c r="J35">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L35">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O35">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="P35">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T35">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V35">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3528,82 +3531,82 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845251</v>
+        <v>6845252</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J36">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="K36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="N36">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="P36">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R36">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z36">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3614,64 +3617,64 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845250</v>
+        <v>6845251</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K37">
         <v>3.4</v>
       </c>
       <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2.8</v>
+      </c>
+      <c r="N37">
         <v>3.25</v>
       </c>
-      <c r="M37">
-        <v>2.25</v>
-      </c>
-      <c r="N37">
-        <v>3.2</v>
-      </c>
       <c r="O37">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="P37">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q37">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T37">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U37">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
         <v>-1</v>
@@ -3680,16 +3683,16 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA37">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB37">
         <v>-1</v>
@@ -3703,16 +3706,16 @@
         <v>6845255</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3721,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3789,16 +3792,16 @@
         <v>6845258</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3807,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>1.833</v>
@@ -3875,16 +3878,16 @@
         <v>6845257</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3893,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -3961,16 +3964,16 @@
         <v>6845259</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3979,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>2.45</v>
@@ -4047,16 +4050,16 @@
         <v>6845260</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45219.65625</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4065,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -4133,16 +4136,16 @@
         <v>6845264</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4151,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J43">
         <v>2.375</v>
@@ -4219,16 +4222,16 @@
         <v>6845262</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4237,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1.909</v>
@@ -4302,10 +4305,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6845267</v>
+        <v>6845265</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45226.65625</v>
@@ -4314,70 +4317,70 @@
         <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J45">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="M45">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="N45">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="P45">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q45">
+        <v>1.85</v>
+      </c>
+      <c r="R45">
+        <v>1.95</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>1.975</v>
+      </c>
+      <c r="U45">
         <v>1.825</v>
       </c>
-      <c r="R45">
-        <v>1.975</v>
-      </c>
-      <c r="S45">
-        <v>2.75</v>
-      </c>
-      <c r="T45">
-        <v>1.9</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
       <c r="V45">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4388,82 +4391,82 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6845265</v>
+        <v>6845267</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45226.65625</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>44</v>
       </c>
       <c r="J46">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="K46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="N46">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O46">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="P46">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4477,16 +4480,16 @@
         <v>6845269</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4495,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>1.909</v>
@@ -4563,16 +4566,16 @@
         <v>6845268</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4581,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>2.5</v>
@@ -4649,16 +4652,16 @@
         <v>6845266</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4667,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4735,16 +4738,16 @@
         <v>6845274</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45230.69791666666</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4753,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>1.8</v>
@@ -4821,16 +4824,16 @@
         <v>6845273</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45230.69791666666</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4839,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>3.1</v>
@@ -4907,16 +4910,16 @@
         <v>6845270</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45230.69791666666</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4925,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>3.75</v>
@@ -4993,16 +4996,16 @@
         <v>6845278</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45233.69791666666</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5011,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>2.55</v>
@@ -5079,16 +5082,16 @@
         <v>6845275</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45234.5</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5097,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J54">
         <v>2.875</v>
@@ -5165,16 +5168,16 @@
         <v>6845276</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45234.5</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5183,7 +5186,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5251,16 +5254,16 @@
         <v>6845277</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45234.5</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5269,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>1.363</v>
@@ -5337,16 +5340,16 @@
         <v>6845279</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45234.5</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5355,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J57">
         <v>1.909</v>
@@ -5423,16 +5426,16 @@
         <v>6845281</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45240.69791666666</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5441,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5509,16 +5512,16 @@
         <v>6845280</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45241.5</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5527,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5595,16 +5598,16 @@
         <v>6845282</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45241.5</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5613,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5681,16 +5684,16 @@
         <v>6845283</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
         <v>34</v>
-      </c>
-      <c r="F61" t="s">
-        <v>33</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5699,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>1.666</v>
@@ -5767,16 +5770,16 @@
         <v>6845284</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45241.5</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5785,7 +5788,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>2.875</v>
@@ -5853,16 +5856,16 @@
         <v>7267558</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45248.5</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5939,16 +5942,16 @@
         <v>7451474</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45258.69791666666</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5957,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6025,16 +6028,16 @@
         <v>6845287</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45262.5</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6043,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J65">
         <v>2.75</v>
@@ -6111,16 +6114,16 @@
         <v>6845289</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45262.5</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6129,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>1.727</v>
@@ -6197,16 +6200,16 @@
         <v>6845294</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45268.69791666666</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6215,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>2.375</v>
@@ -6283,16 +6286,16 @@
         <v>6845293</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45269.5</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6301,7 +6304,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>2.25</v>
@@ -6369,16 +6372,16 @@
         <v>6845292</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6387,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>1.4</v>
@@ -6455,16 +6458,16 @@
         <v>6845291</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45269.5</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6473,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>2.15</v>
@@ -6541,16 +6544,16 @@
         <v>6845290</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45269.5</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6559,7 +6562,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6627,16 +6630,16 @@
         <v>7396354</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45272.69791666666</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6645,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>2.7</v>
@@ -6713,16 +6716,16 @@
         <v>7459807</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45273.69791666666</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6731,7 +6734,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -6799,16 +6802,16 @@
         <v>6845295</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6817,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>2.1</v>
@@ -6882,85 +6885,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845298</v>
+        <v>6845299</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45276.5</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J75">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="K75">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M75">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N75">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6971,16 +6974,16 @@
         <v>6845297</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
         <v>35</v>
-      </c>
-      <c r="F76" t="s">
-        <v>34</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6989,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>2.7</v>
@@ -7057,16 +7060,16 @@
         <v>6845296</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7075,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J77">
         <v>1.8</v>
@@ -7140,85 +7143,85 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845299</v>
+        <v>6845298</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
         <v>33</v>
-      </c>
-      <c r="F78" t="s">
-        <v>40</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="s">
         <v>43</v>
       </c>
       <c r="J78">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="K78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N78">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P78">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T78">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7229,16 +7232,16 @@
         <v>6845303</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45282.69791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7247,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>6</v>
@@ -7315,16 +7318,16 @@
         <v>6845304</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45282.69791666666</v>
       </c>
       <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s">
         <v>38</v>
-      </c>
-      <c r="F80" t="s">
-        <v>37</v>
       </c>
       <c r="G80">
         <v>4</v>
@@ -7333,7 +7336,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>1.666</v>
@@ -7401,16 +7404,16 @@
         <v>6845301</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45283.5</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7419,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7487,16 +7490,16 @@
         <v>6845300</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7505,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J82">
         <v>2.6</v>
@@ -7573,16 +7576,16 @@
         <v>6845302</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7591,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7659,16 +7662,16 @@
         <v>6845306</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45289.69791666666</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7677,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>1.833</v>
@@ -7745,16 +7748,16 @@
         <v>6845309</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45290.5</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7763,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J85">
         <v>1.444</v>
@@ -7828,85 +7831,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6845307</v>
+        <v>6845305</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45290.5</v>
       </c>
       <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
         <v>36</v>
       </c>
-      <c r="F86" t="s">
-        <v>33</v>
-      </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J86">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K86">
         <v>3.4</v>
       </c>
       <c r="L86">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M86">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N86">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="P86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T86">
         <v>1.95</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z86">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7914,82 +7917,82 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845305</v>
+        <v>6845308</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45290.5</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J87">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="K87">
         <v>3.4</v>
       </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="M87">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O87">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
         <v>2.5</v>
       </c>
       <c r="T87">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
         <v>-1</v>
       </c>
       <c r="W87">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
         <v>-1</v>
@@ -8000,85 +8003,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845308</v>
+        <v>6845307</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45290.5</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J88">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="K88">
         <v>3.4</v>
       </c>
       <c r="L88">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O88">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q88">
+        <v>2.025</v>
+      </c>
+      <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>1.95</v>
+      </c>
+      <c r="U88">
         <v>1.9</v>
       </c>
-      <c r="R88">
-        <v>1.9</v>
-      </c>
-      <c r="S88">
-        <v>2.5</v>
-      </c>
-      <c r="T88">
-        <v>1.875</v>
-      </c>
-      <c r="U88">
-        <v>1.925</v>
-      </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X88">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z88">
+        <v>0.4125</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA88">
-        <v>0.875</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8089,16 +8092,16 @@
         <v>6845310</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45293.5</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8107,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8175,16 +8178,16 @@
         <v>6845311</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45293.5</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8193,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>2.6</v>
@@ -8261,16 +8264,16 @@
         <v>6845313</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45293.5</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8279,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8347,16 +8350,16 @@
         <v>6845314</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45293.5</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8365,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8433,16 +8436,16 @@
         <v>6845312</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45293.5</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>3</v>
@@ -8451,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>2</v>
@@ -8519,16 +8522,16 @@
         <v>6845319</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45296.69791666666</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8537,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8605,16 +8608,16 @@
         <v>6845316</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45297.5</v>
       </c>
       <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
         <v>37</v>
-      </c>
-      <c r="F95" t="s">
-        <v>36</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8623,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>2.25</v>
@@ -8691,16 +8694,16 @@
         <v>6845317</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45297.5</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8709,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>1.25</v>
@@ -8777,16 +8780,16 @@
         <v>6845315</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45297.5</v>
       </c>
       <c r="E97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
         <v>39</v>
-      </c>
-      <c r="F97" t="s">
-        <v>38</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8795,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>3.75</v>
@@ -8863,16 +8866,16 @@
         <v>6845318</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45297.5</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8881,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>1.571</v>
@@ -8949,16 +8952,16 @@
         <v>6845322</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45303.69791666666</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8967,7 +8970,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9035,16 +9038,16 @@
         <v>6845320</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9053,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J100">
         <v>2.25</v>
@@ -9121,16 +9124,16 @@
         <v>6845324</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45304.5</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9139,7 +9142,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>1.333</v>
@@ -9207,16 +9210,16 @@
         <v>6845323</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45304.5</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9225,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J102">
         <v>2.75</v>
@@ -9293,16 +9296,16 @@
         <v>7594725</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45314.69791666666</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9311,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>1.833</v>
@@ -9376,85 +9379,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845327</v>
+        <v>6845326</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J104">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="K104">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M104">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N104">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O104">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
         <v>-1.25</v>
       </c>
       <c r="Q104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T104">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U104">
         <v>2.025</v>
       </c>
       <c r="V104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9462,85 +9465,85 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6845326</v>
+        <v>6845325</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45318.5</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
         <v>35</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J105">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="K105">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L105">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="M105">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="P105">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T105">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V105">
         <v>-1</v>
       </c>
       <c r="W105">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9548,10 +9551,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845325</v>
+        <v>6845329</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45318.5</v>
@@ -9560,73 +9563,73 @@
         <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J106">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="K106">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="N106">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O106">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q106">
         <v>1.825</v>
       </c>
       <c r="R106">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
         <v>2.25</v>
       </c>
       <c r="T106">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
         <v>-1</v>
       </c>
       <c r="W106">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9634,28 +9637,28 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6845329</v>
+        <v>6845327</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45318.5</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>1.727</v>
@@ -9667,49 +9670,49 @@
         <v>4</v>
       </c>
       <c r="M107">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="N107">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O107">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P107">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q107">
+        <v>1.975</v>
+      </c>
+      <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
+        <v>2.5</v>
+      </c>
+      <c r="T107">
         <v>1.825</v>
-      </c>
-      <c r="R107">
-        <v>1.975</v>
-      </c>
-      <c r="S107">
-        <v>2.25</v>
-      </c>
-      <c r="T107">
-        <v>1.775</v>
       </c>
       <c r="U107">
         <v>2.025</v>
       </c>
       <c r="V107">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB107">
         <v>-1</v>
@@ -9723,16 +9726,16 @@
         <v>6845328</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45318.5</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9741,7 +9744,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>2.2</v>
@@ -9809,16 +9812,16 @@
         <v>6845333</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9827,7 +9830,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9895,16 +9898,16 @@
         <v>6845331</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9913,7 +9916,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>5</v>
@@ -9981,16 +9984,16 @@
         <v>6845332</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45325.5</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9999,7 +10002,7 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>2.05</v>
@@ -10067,16 +10070,16 @@
         <v>7746605</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45332.5</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10085,7 +10088,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>2</v>
@@ -10153,16 +10156,16 @@
         <v>6845339</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45338.69791666666</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10171,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>3.25</v>
@@ -10239,16 +10242,16 @@
         <v>6845337</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45339.5</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10257,7 +10260,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>2.6</v>
@@ -10325,16 +10328,16 @@
         <v>6845338</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45339.5</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10343,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>2.4</v>
@@ -10411,16 +10414,16 @@
         <v>6845335</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45339.5</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10429,7 +10432,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>2.1</v>
@@ -10497,16 +10500,16 @@
         <v>6845336</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45339.5</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10515,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>1.5</v>
@@ -10583,16 +10586,16 @@
         <v>6845344</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45345.69791666666</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10601,7 +10604,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10669,16 +10672,16 @@
         <v>6845341</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45346.5</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10687,7 +10690,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>4</v>
@@ -10755,16 +10758,16 @@
         <v>6845340</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45346.5</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10773,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J120">
         <v>3</v>
@@ -10841,16 +10844,16 @@
         <v>6845343</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45346.5</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10859,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>2.2</v>
@@ -10927,16 +10930,16 @@
         <v>6845342</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45346.5</v>
       </c>
       <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
         <v>41</v>
-      </c>
-      <c r="F122" t="s">
-        <v>40</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10945,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>1.333</v>
@@ -11013,16 +11016,16 @@
         <v>6853957</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11031,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J123">
         <v>1.8</v>
@@ -11099,16 +11102,16 @@
         <v>6845345</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>4</v>
@@ -11117,7 +11120,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -11185,16 +11188,16 @@
         <v>6845346</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11203,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>1.4</v>
@@ -11271,17 +11274,17 @@
         <v>6845347</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" t="s">
         <v>36</v>
       </c>
-      <c r="F126" t="s">
-        <v>35</v>
-      </c>
       <c r="G126">
         <v>0</v>
       </c>
@@ -11289,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>2</v>
@@ -11357,16 +11360,16 @@
         <v>6845348</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>6</v>
@@ -11375,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11443,16 +11446,16 @@
         <v>6922450</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45352.69791666666</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11461,7 +11464,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>4.333</v>
@@ -11529,16 +11532,16 @@
         <v>6922470</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45353.5</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11547,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J129">
         <v>3.25</v>
@@ -11615,16 +11618,16 @@
         <v>6922451</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11633,7 +11636,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>2.1</v>
@@ -11701,16 +11704,16 @@
         <v>6922126</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11719,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J131">
         <v>2</v>
@@ -11787,16 +11790,16 @@
         <v>6922469</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11805,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11873,16 +11876,16 @@
         <v>7888759</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11891,7 +11894,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11959,16 +11962,16 @@
         <v>7158590</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11977,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>4</v>
@@ -12045,16 +12048,16 @@
         <v>6937666</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45360.5</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12063,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12131,16 +12134,16 @@
         <v>6937664</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45360.5</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12149,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>2</v>
@@ -12217,16 +12220,16 @@
         <v>6937665</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12235,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12303,16 +12306,16 @@
         <v>6957815</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>4</v>
@@ -12321,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>1.125</v>
@@ -12389,16 +12392,16 @@
         <v>7842492</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45363.69791666666</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12407,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>1.8</v>
@@ -12475,16 +12478,16 @@
         <v>6957816</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45366.69791666666</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12493,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>4</v>
@@ -12561,16 +12564,16 @@
         <v>6975418</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45367.5</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12579,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>3.25</v>
@@ -12647,16 +12650,16 @@
         <v>6975417</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12665,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12733,16 +12736,16 @@
         <v>6975416</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12751,7 +12754,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>2.1</v>
@@ -12819,16 +12822,16 @@
         <v>6957817</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
+        <v>35</v>
+      </c>
+      <c r="F144" t="s">
         <v>34</v>
-      </c>
-      <c r="F144" t="s">
-        <v>33</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12837,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>1.8</v>
@@ -12905,16 +12908,16 @@
         <v>6994675</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45374.5</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12923,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>1.333</v>
@@ -12991,16 +12994,16 @@
         <v>6994674</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45374.5</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13009,7 +13012,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>2.1</v>
@@ -13077,16 +13080,16 @@
         <v>6994673</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13095,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>4.2</v>
@@ -13163,16 +13166,16 @@
         <v>6975419</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13181,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13249,16 +13252,16 @@
         <v>7060359</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45380.69791666666</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13267,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>2.4</v>
@@ -13335,16 +13338,16 @@
         <v>7024061</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45381.5</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13353,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13421,16 +13424,16 @@
         <v>7020833</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45381.5</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13439,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>1.666</v>
@@ -13507,16 +13510,16 @@
         <v>7020832</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13525,7 +13528,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>3.75</v>
@@ -13593,16 +13596,16 @@
         <v>7024072</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13611,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>1.727</v>
@@ -13679,16 +13682,16 @@
         <v>7842491</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45384.65625</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>4.333</v>
@@ -13765,16 +13768,16 @@
         <v>7060948</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E155" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" t="s">
         <v>35</v>
-      </c>
-      <c r="F155" t="s">
-        <v>34</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13783,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13851,16 +13854,16 @@
         <v>7060360</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13869,7 +13872,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>6</v>
@@ -13937,16 +13940,16 @@
         <v>7128579</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" t="s">
         <v>38</v>
-      </c>
-      <c r="F157" t="s">
-        <v>37</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13955,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>1.615</v>
@@ -14023,16 +14026,16 @@
         <v>7128587</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14041,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>2.4</v>
@@ -14109,16 +14112,16 @@
         <v>7060358</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14127,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14192,10 +14195,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7842490</v>
+        <v>7939128</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45391.65625</v>
@@ -14204,73 +14207,73 @@
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J160">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="K160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="M160">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N160">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="P160">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q160">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
         <v>2.25</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
         <v>-1</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X160">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14278,85 +14281,85 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7939128</v>
+        <v>7842490</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45391.65625</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J161">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="K161">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L161">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N161">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O161">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="P161">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q161">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S161">
         <v>2.25</v>
       </c>
       <c r="T161">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
         <v>-1</v>
       </c>
       <c r="W161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB161">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14367,16 +14370,16 @@
         <v>8060991</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45394.65625</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14385,7 +14388,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>3.3</v>
@@ -14453,16 +14456,16 @@
         <v>7128580</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>5</v>
@@ -14471,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>1.571</v>
@@ -14539,16 +14542,16 @@
         <v>7128581</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14557,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J164">
         <v>2.375</v>
@@ -14625,16 +14628,16 @@
         <v>7158589</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14643,7 +14646,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14711,16 +14714,16 @@
         <v>7158591</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14729,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J166">
         <v>2.1</v>
@@ -14797,16 +14800,16 @@
         <v>7190969</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45401.65625</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14815,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J167">
         <v>3.2</v>
@@ -14883,16 +14886,16 @@
         <v>7158592</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14901,7 +14904,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J168">
         <v>5.25</v>
@@ -14969,16 +14972,16 @@
         <v>7158593</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14987,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J169">
         <v>2.1</v>
@@ -15055,16 +15058,16 @@
         <v>7172242</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15073,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>1.3</v>
@@ -15141,16 +15144,16 @@
         <v>7190970</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15159,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J171">
         <v>2.1</v>
@@ -15227,16 +15230,16 @@
         <v>7222794</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45408.65625</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15245,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J172">
         <v>4.333</v>
@@ -15313,16 +15316,16 @@
         <v>7219425</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15331,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15396,64 +15399,64 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7222795</v>
+        <v>7222797</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J174">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="K174">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M174">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N174">
         <v>3.3</v>
       </c>
       <c r="O174">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="P174">
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
         <v>2.25</v>
       </c>
       <c r="T174">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V174">
         <v>-1</v>
@@ -15471,10 +15474,10 @@
         <v>0</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15482,85 +15485,85 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7190953</v>
+        <v>7222795</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J175">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="K175">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L175">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M175">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N175">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O175">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="P175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q175">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S175">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
         <v>-1</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X175">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15568,85 +15571,85 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7222797</v>
+        <v>7190953</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>5</v>
+      </c>
+      <c r="I176" t="s">
+        <v>43</v>
+      </c>
+      <c r="J176">
+        <v>3.1</v>
+      </c>
+      <c r="K176">
+        <v>3.75</v>
+      </c>
+      <c r="L176">
+        <v>1.909</v>
+      </c>
+      <c r="M176">
+        <v>4.2</v>
+      </c>
+      <c r="N176">
+        <v>4.2</v>
+      </c>
+      <c r="O176">
+        <v>1.55</v>
+      </c>
+      <c r="P176">
         <v>1</v>
       </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
-      <c r="I176" t="s">
-        <v>44</v>
-      </c>
-      <c r="J176">
-        <v>2.4</v>
-      </c>
-      <c r="K176">
-        <v>3.5</v>
-      </c>
-      <c r="L176">
-        <v>2.4</v>
-      </c>
-      <c r="M176">
-        <v>2.7</v>
-      </c>
-      <c r="N176">
-        <v>3.3</v>
-      </c>
-      <c r="O176">
-        <v>2.375</v>
-      </c>
-      <c r="P176">
-        <v>0</v>
-      </c>
       <c r="Q176">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T176">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
         <v>-1</v>
       </c>
       <c r="W176">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -15657,16 +15660,16 @@
         <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
         <v>45415.65625</v>
       </c>
       <c r="E177" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J177">
         <v>1.363</v>
@@ -15690,19 +15693,19 @@
         <v>-1.5</v>
       </c>
       <c r="Q177">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S177">
         <v>3</v>
       </c>
       <c r="T177">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -15722,52 +15725,52 @@
         <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2">
         <v>45415.65625</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J178">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K178">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L178">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M178">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="N178">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
         <v>-0.5</v>
       </c>
       <c r="Q178">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S178">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T178">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U178">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
         <v>0</v>
@@ -15787,52 +15790,52 @@
         <v>29</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D179" s="2">
         <v>45415.65625</v>
       </c>
       <c r="E179" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
         <v>34</v>
       </c>
       <c r="J179">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="K179">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L179">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M179">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="N179">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O179">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P179">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q179">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T179">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
         <v>0</v>
@@ -15852,60 +15855,125 @@
         <v>30</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D180" s="2">
         <v>45415.65625</v>
       </c>
       <c r="E180" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F180" t="s">
         <v>35</v>
       </c>
       <c r="J180">
+        <v>1.444</v>
+      </c>
+      <c r="K180">
+        <v>4.2</v>
+      </c>
+      <c r="L180">
+        <v>6</v>
+      </c>
+      <c r="M180">
+        <v>1.45</v>
+      </c>
+      <c r="N180">
+        <v>4.2</v>
+      </c>
+      <c r="O180">
+        <v>5.75</v>
+      </c>
+      <c r="P180">
+        <v>-1.25</v>
+      </c>
+      <c r="Q180">
+        <v>2.05</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>3</v>
+      </c>
+      <c r="T180">
+        <v>2.05</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45415.65625</v>
+      </c>
+      <c r="E181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" t="s">
+        <v>36</v>
+      </c>
+      <c r="J181">
         <v>2.5</v>
       </c>
-      <c r="K180">
+      <c r="K181">
         <v>3.4</v>
       </c>
-      <c r="L180">
+      <c r="L181">
         <v>2.5</v>
       </c>
-      <c r="M180">
-        <v>2.2</v>
-      </c>
-      <c r="N180">
-        <v>3.4</v>
-      </c>
-      <c r="O180">
-        <v>2.875</v>
-      </c>
-      <c r="P180">
-        <v>-0.25</v>
-      </c>
-      <c r="Q180">
-        <v>1.975</v>
-      </c>
-      <c r="R180">
-        <v>1.875</v>
-      </c>
-      <c r="S180">
-        <v>2.5</v>
-      </c>
-      <c r="T180">
+      <c r="M181">
+        <v>1.85</v>
+      </c>
+      <c r="N181">
+        <v>3.6</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>-0.5</v>
+      </c>
+      <c r="Q181">
+        <v>1.9</v>
+      </c>
+      <c r="R181">
         <v>1.95</v>
       </c>
-      <c r="U180">
+      <c r="S181">
+        <v>2.75</v>
+      </c>
+      <c r="T181">
+        <v>1.95</v>
+      </c>
+      <c r="U181">
         <v>1.9</v>
       </c>
-      <c r="V180">
-        <v>0</v>
-      </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-      <c r="X180">
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
         <v>0</v>
       </c>
     </row>

--- a/Scotland Championship/Scotland Championship.xlsx
+++ b/Scotland Championship/Scotland Championship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -95,21 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7222798</t>
-  </si>
-  <si>
-    <t>7222796</t>
-  </si>
-  <si>
-    <t>7251790</t>
-  </si>
-  <si>
-    <t>7251789</t>
-  </si>
-  <si>
-    <t>7248178</t>
   </si>
   <si>
     <t>Scotland Championship</t>
@@ -513,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +595,16 @@
         <v>6845218</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45142.65625</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -628,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -696,16 +681,16 @@
         <v>6845221</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -714,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>2.1</v>
@@ -782,16 +767,16 @@
         <v>6845222</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -800,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -868,16 +853,16 @@
         <v>6845219</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -886,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>1.666</v>
@@ -954,16 +939,16 @@
         <v>6845220</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -972,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.25</v>
@@ -1040,16 +1025,16 @@
         <v>6845224</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1058,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>1.85</v>
@@ -1126,16 +1111,16 @@
         <v>6845227</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1144,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1212,16 +1197,16 @@
         <v>6845223</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1230,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1298,16 +1283,16 @@
         <v>6845226</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1316,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>1.7</v>
@@ -1384,16 +1369,16 @@
         <v>6845225</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1402,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1470,16 +1455,16 @@
         <v>7062236</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1488,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.6</v>
@@ -1556,16 +1541,16 @@
         <v>6845228</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1574,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>2.15</v>
@@ -1642,16 +1627,16 @@
         <v>6845229</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1660,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>2.3</v>
@@ -1728,16 +1713,16 @@
         <v>6845231</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1746,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>1.75</v>
@@ -1814,16 +1799,16 @@
         <v>6845230</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1832,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1900,16 +1885,16 @@
         <v>6845232</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1918,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1986,16 +1971,16 @@
         <v>6845237</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2004,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>2.375</v>
@@ -2072,16 +2057,16 @@
         <v>6845236</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2090,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>2.3</v>
@@ -2158,16 +2143,16 @@
         <v>6845235</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2176,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>2.45</v>
@@ -2244,16 +2229,16 @@
         <v>6845234</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2262,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>1.666</v>
@@ -2330,17 +2315,17 @@
         <v>6845233</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
       <c r="G22">
         <v>2</v>
       </c>
@@ -2348,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -2416,16 +2401,16 @@
         <v>6845239</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45184.65625</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2434,7 +2419,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J23">
         <v>2.625</v>
@@ -2502,25 +2487,25 @@
         <v>6845242</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
         <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>44</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2588,16 +2573,16 @@
         <v>6845241</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2606,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2674,16 +2659,16 @@
         <v>6845240</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2692,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.571</v>
@@ -2760,16 +2745,16 @@
         <v>6845238</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2778,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J27">
         <v>2.25</v>
@@ -2846,16 +2831,16 @@
         <v>6845243</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45191.65625</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2864,7 +2849,7 @@
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2932,17 +2917,17 @@
         <v>6845246</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>37</v>
       </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -2950,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J29">
         <v>3.3</v>
@@ -3018,16 +3003,16 @@
         <v>6845245</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3036,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3104,25 +3089,25 @@
         <v>6845244</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
         <v>39</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>44</v>
       </c>
       <c r="J31">
         <v>2.5</v>
@@ -3190,16 +3175,16 @@
         <v>6845247</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3208,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>1.727</v>
@@ -3276,16 +3261,16 @@
         <v>6845254</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3294,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3362,16 +3347,16 @@
         <v>6845253</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3380,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -3445,82 +3430,82 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845250</v>
+        <v>6845252</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35">
+        <v>1.7</v>
+      </c>
+      <c r="K35">
+        <v>3.6</v>
+      </c>
+      <c r="L35">
+        <v>4.2</v>
+      </c>
+      <c r="M35">
+        <v>1.533</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>5.5</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>1.875</v>
+      </c>
+      <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
         <v>3</v>
       </c>
-      <c r="I35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <v>3.4</v>
-      </c>
-      <c r="L35">
-        <v>3.25</v>
-      </c>
-      <c r="M35">
-        <v>2.25</v>
-      </c>
-      <c r="N35">
-        <v>3.2</v>
-      </c>
-      <c r="O35">
-        <v>2.9</v>
-      </c>
-      <c r="P35">
-        <v>-0.25</v>
-      </c>
-      <c r="Q35">
+      <c r="T35">
         <v>1.975</v>
       </c>
-      <c r="R35">
-        <v>1.825</v>
-      </c>
-      <c r="S35">
-        <v>2.25</v>
-      </c>
-      <c r="T35">
-        <v>1.775</v>
-      </c>
       <c r="U35">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3531,82 +3516,82 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6845252</v>
+        <v>6845251</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J36">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O36">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q36">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3617,64 +3602,64 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6845251</v>
+        <v>6845250</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
         <v>38</v>
       </c>
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>43</v>
-      </c>
       <c r="J37">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="K37">
         <v>3.4</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q37">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T37">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V37">
         <v>-1</v>
@@ -3683,16 +3668,16 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB37">
         <v>-1</v>
@@ -3706,25 +3691,25 @@
         <v>6845255</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
         <v>38</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>43</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3792,16 +3777,16 @@
         <v>6845258</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3810,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>1.833</v>
@@ -3878,16 +3863,16 @@
         <v>6845257</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3896,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -3964,16 +3949,16 @@
         <v>6845259</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3982,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>2.45</v>
@@ -4050,25 +4035,25 @@
         <v>6845260</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45219.65625</v>
       </c>
       <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
         <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>45</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -4136,16 +4121,16 @@
         <v>6845264</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4154,7 +4139,7 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>2.375</v>
@@ -4222,25 +4207,25 @@
         <v>6845262</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
         <v>38</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
-        <v>43</v>
       </c>
       <c r="J44">
         <v>1.909</v>
@@ -4305,82 +4290,82 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6845265</v>
+        <v>6845267</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45226.65625</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J45">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="N45">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O45">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="P45">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W45">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4391,82 +4376,82 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6845267</v>
+        <v>6845265</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45226.65625</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J46">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="M46">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O46">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="P46">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q46">
+        <v>1.85</v>
+      </c>
+      <c r="R46">
+        <v>1.95</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>1.975</v>
+      </c>
+      <c r="U46">
         <v>1.825</v>
       </c>
-      <c r="R46">
-        <v>1.975</v>
-      </c>
-      <c r="S46">
-        <v>2.75</v>
-      </c>
-      <c r="T46">
-        <v>1.9</v>
-      </c>
-      <c r="U46">
-        <v>1.9</v>
-      </c>
       <c r="V46">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4480,25 +4465,25 @@
         <v>6845269</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
         <v>39</v>
-      </c>
-      <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>44</v>
       </c>
       <c r="J47">
         <v>1.909</v>
@@ -4566,16 +4551,16 @@
         <v>6845268</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4584,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>2.5</v>
@@ -4652,25 +4637,25 @@
         <v>6845266</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>38</v>
-      </c>
-      <c r="F49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>43</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4738,16 +4723,16 @@
         <v>6845274</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45230.69791666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4756,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>1.8</v>
@@ -4824,17 +4809,17 @@
         <v>6845273</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45230.69791666666</v>
       </c>
       <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
         <v>34</v>
       </c>
-      <c r="F51" t="s">
-        <v>39</v>
-      </c>
       <c r="G51">
         <v>1</v>
       </c>
@@ -4842,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>3.1</v>
@@ -4910,16 +4895,16 @@
         <v>6845270</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45230.69791666666</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4928,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>3.75</v>
@@ -4996,16 +4981,16 @@
         <v>6845278</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45233.69791666666</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5014,7 +4999,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>2.55</v>
@@ -5082,16 +5067,16 @@
         <v>6845275</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45234.5</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5100,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>2.875</v>
@@ -5168,16 +5153,16 @@
         <v>6845276</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45234.5</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5186,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5254,16 +5239,16 @@
         <v>6845277</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45234.5</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5272,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <v>1.363</v>
@@ -5340,25 +5325,25 @@
         <v>6845279</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45234.5</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>40</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>45</v>
       </c>
       <c r="J57">
         <v>1.909</v>
@@ -5426,16 +5411,16 @@
         <v>6845281</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45240.69791666666</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5444,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5512,16 +5497,16 @@
         <v>6845280</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45241.5</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5530,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5598,16 +5583,16 @@
         <v>6845282</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45241.5</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5616,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5684,16 +5669,16 @@
         <v>6845283</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5702,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>1.666</v>
@@ -5770,16 +5755,16 @@
         <v>6845284</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45241.5</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5788,7 +5773,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>2.875</v>
@@ -5856,16 +5841,16 @@
         <v>7267558</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45248.5</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5874,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5942,16 +5927,16 @@
         <v>7451474</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45258.69791666666</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5960,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>1.909</v>
@@ -6028,16 +6013,16 @@
         <v>6845287</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45262.5</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6046,7 +6031,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>2.75</v>
@@ -6114,17 +6099,17 @@
         <v>6845289</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45262.5</v>
       </c>
       <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s">
         <v>35</v>
       </c>
-      <c r="F66" t="s">
-        <v>40</v>
-      </c>
       <c r="G66">
         <v>2</v>
       </c>
@@ -6132,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>1.727</v>
@@ -6200,16 +6185,16 @@
         <v>6845294</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45268.69791666666</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6218,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J67">
         <v>2.375</v>
@@ -6286,16 +6271,16 @@
         <v>6845293</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45269.5</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6304,7 +6289,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>2.25</v>
@@ -6372,16 +6357,16 @@
         <v>6845292</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6390,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J69">
         <v>1.4</v>
@@ -6458,16 +6443,16 @@
         <v>6845291</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45269.5</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6476,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J70">
         <v>2.15</v>
@@ -6544,16 +6529,16 @@
         <v>6845290</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45269.5</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6562,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6630,16 +6615,16 @@
         <v>7396354</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45272.69791666666</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6648,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J72">
         <v>2.7</v>
@@ -6716,16 +6701,16 @@
         <v>7459807</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45273.69791666666</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6734,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -6802,16 +6787,16 @@
         <v>6845295</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6820,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J74">
         <v>2.1</v>
@@ -6885,85 +6870,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845299</v>
+        <v>6845298</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45276.5</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J75">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="K75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L75">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q75">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6974,16 +6959,16 @@
         <v>6845297</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6992,7 +6977,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <v>2.7</v>
@@ -7060,16 +7045,16 @@
         <v>6845296</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7078,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>1.8</v>
@@ -7143,85 +7128,85 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6845298</v>
+        <v>6845299</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J78">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="K78">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M78">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T78">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7232,16 +7217,16 @@
         <v>6845303</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45282.69791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7250,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>6</v>
@@ -7318,16 +7303,16 @@
         <v>6845304</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45282.69791666666</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>4</v>
@@ -7336,7 +7321,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>1.666</v>
@@ -7404,16 +7389,16 @@
         <v>6845301</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45283.5</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7422,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7490,25 +7475,25 @@
         <v>6845300</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
         <v>40</v>
-      </c>
-      <c r="F82" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
-        <v>45</v>
       </c>
       <c r="J82">
         <v>2.6</v>
@@ -7576,16 +7561,16 @@
         <v>6845302</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7594,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7662,16 +7647,16 @@
         <v>6845306</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45289.69791666666</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7680,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>1.833</v>
@@ -7748,16 +7733,16 @@
         <v>6845309</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45290.5</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7766,7 +7751,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>1.444</v>
@@ -7831,85 +7816,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6845305</v>
+        <v>6845307</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45290.5</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J86">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K86">
         <v>3.4</v>
       </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M86">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N86">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O86">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q86">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>1.95</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7917,82 +7902,82 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6845308</v>
+        <v>6845305</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45290.5</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
         <v>40</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87" t="s">
-        <v>43</v>
-      </c>
       <c r="J87">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="K87">
         <v>3.4</v>
       </c>
       <c r="L87">
+        <v>2.9</v>
+      </c>
+      <c r="M87">
         <v>2.375</v>
       </c>
-      <c r="M87">
-        <v>2.4</v>
-      </c>
       <c r="N87">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O87">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
         <v>2.5</v>
       </c>
       <c r="T87">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
         <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X87">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
         <v>-1</v>
@@ -8003,85 +7988,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845307</v>
+        <v>6845308</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45290.5</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J88">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="K88">
         <v>3.4</v>
       </c>
       <c r="L88">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="M88">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="P88">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8092,16 +8077,16 @@
         <v>6845310</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45293.5</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8110,7 +8095,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -8178,16 +8163,16 @@
         <v>6845311</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45293.5</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8196,7 +8181,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>2.6</v>
@@ -8264,16 +8249,16 @@
         <v>6845313</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45293.5</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8282,7 +8267,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8350,16 +8335,16 @@
         <v>6845314</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45293.5</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8368,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8436,16 +8421,16 @@
         <v>6845312</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45293.5</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>3</v>
@@ -8454,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J93">
         <v>2</v>
@@ -8522,16 +8507,16 @@
         <v>6845319</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45296.69791666666</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8540,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8608,16 +8593,16 @@
         <v>6845316</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45297.5</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8626,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J95">
         <v>2.25</v>
@@ -8694,16 +8679,16 @@
         <v>6845317</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45297.5</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8712,7 +8697,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J96">
         <v>1.25</v>
@@ -8780,25 +8765,25 @@
         <v>6845315</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45297.5</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
         <v>39</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>44</v>
       </c>
       <c r="J97">
         <v>3.75</v>
@@ -8866,16 +8851,16 @@
         <v>6845318</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45297.5</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8884,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J98">
         <v>1.571</v>
@@ -8952,17 +8937,17 @@
         <v>6845322</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45303.69791666666</v>
       </c>
       <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" t="s">
         <v>37</v>
       </c>
-      <c r="F99" t="s">
-        <v>42</v>
-      </c>
       <c r="G99">
         <v>0</v>
       </c>
@@ -8970,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -9038,17 +9023,17 @@
         <v>6845320</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
         <v>33</v>
       </c>
-      <c r="F100" t="s">
-        <v>38</v>
-      </c>
       <c r="G100">
         <v>0</v>
       </c>
@@ -9056,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>2.25</v>
@@ -9124,16 +9109,16 @@
         <v>6845324</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45304.5</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9142,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>1.333</v>
@@ -9210,16 +9195,16 @@
         <v>6845323</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45304.5</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9228,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>2.75</v>
@@ -9296,16 +9281,16 @@
         <v>7594725</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45314.69791666666</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9314,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J103">
         <v>1.833</v>
@@ -9379,85 +9364,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845326</v>
+        <v>6845327</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J104">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="K104">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
+        <v>4</v>
+      </c>
+      <c r="M104">
+        <v>1.4</v>
+      </c>
+      <c r="N104">
+        <v>4.2</v>
+      </c>
+      <c r="O104">
         <v>7</v>
-      </c>
-      <c r="M104">
-        <v>1.363</v>
-      </c>
-      <c r="N104">
-        <v>4.75</v>
-      </c>
-      <c r="O104">
-        <v>7.5</v>
       </c>
       <c r="P104">
         <v>-1.25</v>
       </c>
       <c r="Q104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U104">
         <v>2.025</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W104">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9465,85 +9450,85 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6845325</v>
+        <v>6845326</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45318.5</v>
       </c>
       <c r="E105" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
         <v>40</v>
       </c>
-      <c r="F105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105" t="s">
-        <v>45</v>
-      </c>
       <c r="J105">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="K105">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L105">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="N105">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O105">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>2.75</v>
+      </c>
+      <c r="T105">
+        <v>1.775</v>
+      </c>
+      <c r="U105">
         <v>2.025</v>
       </c>
-      <c r="S105">
-        <v>2.25</v>
-      </c>
-      <c r="T105">
-        <v>1.85</v>
-      </c>
-      <c r="U105">
-        <v>2</v>
-      </c>
       <c r="V105">
         <v>-1</v>
       </c>
       <c r="W105">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9551,85 +9536,85 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845329</v>
+        <v>6845325</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45318.5</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J106">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M106">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="N106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="P106">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q106">
         <v>1.825</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
         <v>2.25</v>
       </c>
       <c r="T106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V106">
         <v>-1</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X106">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9637,10 +9622,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6845327</v>
+        <v>6845329</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45318.5</v>
@@ -9649,16 +9634,16 @@
         <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
         <v>3</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>1.727</v>
@@ -9670,49 +9655,49 @@
         <v>4</v>
       </c>
       <c r="M107">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="N107">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O107">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P107">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q107">
+        <v>1.825</v>
+      </c>
+      <c r="R107">
         <v>1.975</v>
       </c>
-      <c r="R107">
-        <v>1.875</v>
-      </c>
       <c r="S107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T107">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U107">
         <v>2.025</v>
       </c>
       <c r="V107">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
       <c r="AA107">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB107">
         <v>-1</v>
@@ -9726,25 +9711,25 @@
         <v>6845328</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45318.5</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
         <v>38</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>2</v>
-      </c>
-      <c r="I108" t="s">
-        <v>43</v>
       </c>
       <c r="J108">
         <v>2.2</v>
@@ -9812,16 +9797,16 @@
         <v>6845333</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9830,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9898,25 +9883,25 @@
         <v>6845331</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
         <v>38</v>
-      </c>
-      <c r="F110" t="s">
-        <v>42</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>2</v>
-      </c>
-      <c r="I110" t="s">
-        <v>43</v>
       </c>
       <c r="J110">
         <v>5</v>
@@ -9984,16 +9969,16 @@
         <v>6845332</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45325.5</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10002,7 +9987,7 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J111">
         <v>2.05</v>
@@ -10070,16 +10055,16 @@
         <v>7746605</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45332.5</v>
       </c>
       <c r="E112" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" t="s">
         <v>36</v>
-      </c>
-      <c r="F112" t="s">
-        <v>41</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10088,7 +10073,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J112">
         <v>2</v>
@@ -10156,25 +10141,25 @@
         <v>6845339</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45338.69791666666</v>
       </c>
       <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
         <v>39</v>
-      </c>
-      <c r="F113" t="s">
-        <v>42</v>
-      </c>
-      <c r="G113">
-        <v>2</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113" t="s">
-        <v>44</v>
       </c>
       <c r="J113">
         <v>3.25</v>
@@ -10242,16 +10227,16 @@
         <v>6845337</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45339.5</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10260,7 +10245,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>2.6</v>
@@ -10328,16 +10313,16 @@
         <v>6845338</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45339.5</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10346,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>2.4</v>
@@ -10414,16 +10399,16 @@
         <v>6845335</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45339.5</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10432,7 +10417,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J116">
         <v>2.1</v>
@@ -10500,16 +10485,16 @@
         <v>6845336</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45339.5</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10518,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J117">
         <v>1.5</v>
@@ -10586,16 +10571,16 @@
         <v>6845344</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45345.69791666666</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10604,7 +10589,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10672,25 +10657,25 @@
         <v>6845341</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45346.5</v>
       </c>
       <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
         <v>38</v>
-      </c>
-      <c r="F119" t="s">
-        <v>39</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>2</v>
-      </c>
-      <c r="I119" t="s">
-        <v>43</v>
       </c>
       <c r="J119">
         <v>4</v>
@@ -10758,16 +10743,16 @@
         <v>6845340</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45346.5</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10776,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>3</v>
@@ -10844,16 +10829,16 @@
         <v>6845343</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45346.5</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10862,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J121">
         <v>2.2</v>
@@ -10930,16 +10915,16 @@
         <v>6845342</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45346.5</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10948,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J122">
         <v>1.333</v>
@@ -11016,16 +11001,16 @@
         <v>6853957</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11034,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>1.8</v>
@@ -11102,16 +11087,16 @@
         <v>6845345</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>4</v>
@@ -11120,7 +11105,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -11188,16 +11173,16 @@
         <v>6845346</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11206,7 +11191,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J125">
         <v>1.4</v>
@@ -11274,16 +11259,16 @@
         <v>6845347</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11292,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J126">
         <v>2</v>
@@ -11360,16 +11345,16 @@
         <v>6845348</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G127">
         <v>6</v>
@@ -11378,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11446,16 +11431,16 @@
         <v>6922450</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45352.69791666666</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11464,7 +11449,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J128">
         <v>4.333</v>
@@ -11532,16 +11517,16 @@
         <v>6922470</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45353.5</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11550,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J129">
         <v>3.25</v>
@@ -11618,16 +11603,16 @@
         <v>6922451</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11636,7 +11621,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J130">
         <v>2.1</v>
@@ -11704,25 +11689,25 @@
         <v>6922126</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
         <v>40</v>
-      </c>
-      <c r="F131" t="s">
-        <v>41</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131" t="s">
-        <v>45</v>
       </c>
       <c r="J131">
         <v>2</v>
@@ -11790,16 +11775,16 @@
         <v>6922469</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11808,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11876,16 +11861,16 @@
         <v>7888759</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11894,7 +11879,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11962,16 +11947,16 @@
         <v>7158590</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11980,7 +11965,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J134">
         <v>4</v>
@@ -12048,25 +12033,25 @@
         <v>6937666</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45360.5</v>
       </c>
       <c r="E135" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
         <v>39</v>
-      </c>
-      <c r="F135" t="s">
-        <v>36</v>
-      </c>
-      <c r="G135">
-        <v>2</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135" t="s">
-        <v>44</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12134,25 +12119,25 @@
         <v>6937664</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45360.5</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
         <v>40</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136" t="s">
-        <v>45</v>
       </c>
       <c r="J136">
         <v>2</v>
@@ -12220,16 +12205,16 @@
         <v>6937665</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12238,7 +12223,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>2.875</v>
@@ -12306,16 +12291,16 @@
         <v>6957815</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G138">
         <v>4</v>
@@ -12324,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J138">
         <v>1.125</v>
@@ -12392,16 +12377,16 @@
         <v>7842492</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45363.69791666666</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12410,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J139">
         <v>1.8</v>
@@ -12478,16 +12463,16 @@
         <v>6957816</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45366.69791666666</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12496,7 +12481,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J140">
         <v>4</v>
@@ -12564,16 +12549,16 @@
         <v>6975418</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45367.5</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12582,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J141">
         <v>3.25</v>
@@ -12650,16 +12635,16 @@
         <v>6975417</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12668,7 +12653,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J142">
         <v>1.909</v>
@@ -12736,25 +12721,25 @@
         <v>6975416</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
+        <v>33</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
         <v>38</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
-      <c r="I143" t="s">
-        <v>43</v>
       </c>
       <c r="J143">
         <v>2.1</v>
@@ -12822,16 +12807,16 @@
         <v>6957817</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12840,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J144">
         <v>1.8</v>
@@ -12908,16 +12893,16 @@
         <v>6994675</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45374.5</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12926,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>1.333</v>
@@ -12994,25 +12979,25 @@
         <v>6994674</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45374.5</v>
       </c>
       <c r="E146" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146" t="s">
         <v>38</v>
-      </c>
-      <c r="F146" t="s">
-        <v>41</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146">
-        <v>2</v>
-      </c>
-      <c r="I146" t="s">
-        <v>43</v>
       </c>
       <c r="J146">
         <v>2.1</v>
@@ -13080,16 +13065,16 @@
         <v>6994673</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13098,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J147">
         <v>4.2</v>
@@ -13166,16 +13151,16 @@
         <v>6975419</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13184,7 +13169,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13252,16 +13237,16 @@
         <v>7060359</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45380.69791666666</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13270,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J149">
         <v>2.4</v>
@@ -13338,16 +13323,16 @@
         <v>7024061</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45381.5</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13356,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13424,25 +13409,25 @@
         <v>7020833</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45381.5</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
         <v>39</v>
-      </c>
-      <c r="G151">
-        <v>2</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151" t="s">
-        <v>44</v>
       </c>
       <c r="J151">
         <v>1.666</v>
@@ -13510,16 +13495,16 @@
         <v>7020832</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13528,7 +13513,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J152">
         <v>3.75</v>
@@ -13596,16 +13581,16 @@
         <v>7024072</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13614,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J153">
         <v>1.727</v>
@@ -13682,16 +13667,16 @@
         <v>7842491</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45384.65625</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13700,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J154">
         <v>4.333</v>
@@ -13768,16 +13753,16 @@
         <v>7060948</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13786,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J155">
         <v>2.5</v>
@@ -13854,16 +13839,16 @@
         <v>7060360</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13872,7 +13857,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J156">
         <v>6</v>
@@ -13940,25 +13925,25 @@
         <v>7128579</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" t="s">
+        <v>33</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
         <v>39</v>
-      </c>
-      <c r="F157" t="s">
-        <v>38</v>
-      </c>
-      <c r="G157">
-        <v>2</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="I157" t="s">
-        <v>44</v>
       </c>
       <c r="J157">
         <v>1.615</v>
@@ -14026,16 +14011,16 @@
         <v>7128587</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14044,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>2.4</v>
@@ -14112,16 +14097,16 @@
         <v>7060358</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14130,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14198,16 +14183,16 @@
         <v>7939128</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45391.65625</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14216,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J160">
         <v>2.5</v>
@@ -14284,16 +14269,16 @@
         <v>7842490</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45391.65625</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14302,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J161">
         <v>1.833</v>
@@ -14370,16 +14355,16 @@
         <v>8060991</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45394.65625</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14388,7 +14373,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J162">
         <v>3.3</v>
@@ -14456,16 +14441,16 @@
         <v>7128580</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G163">
         <v>5</v>
@@ -14474,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J163">
         <v>1.571</v>
@@ -14542,16 +14527,16 @@
         <v>7128581</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14560,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J164">
         <v>2.375</v>
@@ -14628,16 +14613,16 @@
         <v>7158589</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14646,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14714,16 +14699,16 @@
         <v>7158591</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14732,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J166">
         <v>2.1</v>
@@ -14800,16 +14785,16 @@
         <v>7190969</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45401.65625</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14818,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J167">
         <v>3.2</v>
@@ -14883,85 +14868,85 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7158592</v>
+        <v>7190970</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J168">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="K168">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L168">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="M168">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N168">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O168">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="P168">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q168">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R168">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S168">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T168">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -14969,85 +14954,85 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7158593</v>
+        <v>7158592</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J169">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="K169">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="M169">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N169">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O169">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="P169">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q169">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S169">
         <v>2.75</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U169">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
         <v>-1</v>
       </c>
       <c r="W169">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0.5125</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
-      </c>
-      <c r="Z169">
-        <v>0.45</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15055,70 +15040,70 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7172242</v>
+        <v>7158593</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J170">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="K170">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L170">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P170">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q170">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
         <v>2.75</v>
       </c>
       <c r="T170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15127,13 +15112,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z170">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15141,58 +15126,58 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7190970</v>
+        <v>7172242</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J171">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K171">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L171">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M171">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N171">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O171">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="P171">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q171">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R171">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T171">
         <v>1.825</v>
@@ -15201,7 +15186,7 @@
         <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15210,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15230,25 +15215,25 @@
         <v>7222794</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45408.65625</v>
       </c>
       <c r="E172" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" t="s">
+        <v>37</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
         <v>40</v>
-      </c>
-      <c r="F172" t="s">
-        <v>42</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-      <c r="I172" t="s">
-        <v>45</v>
       </c>
       <c r="J172">
         <v>4.333</v>
@@ -15316,16 +15301,16 @@
         <v>7219425</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r=